--- a/Fallzahlen/raw_data/Fallzahlen_Kum_Tab_latest.xlsx
+++ b/Fallzahlen/raw_data/Fallzahlen_Kum_Tab_latest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C46BB29-05D9-4FDB-94FC-ADF315057B53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFCCECF-02C4-4C94-A2C5-F716B54D48C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2090" yWindow="170" windowWidth="15290" windowHeight="10800" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3156,10 +3156,10 @@
     <t>21.03.2021</t>
   </si>
   <si>
-    <t>Stand: 22.03.2021 06:10:59</t>
-  </si>
-  <si>
-    <t>22.03.2021</t>
+    <t>Stand: 23.03.2021 05:55:51</t>
+  </si>
+  <si>
+    <t>23.03.2021</t>
   </si>
 </sst>
 </file>
@@ -3374,6 +3374,20 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet002" fillFormulas="1" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
+    <queryTableFields count="5">
+      <queryTableField id="1" name="Berichtsdatum"/>
+      <queryTableField id="2" name="Fälle gesamt"/>
+      <queryTableField id="3"/>
+      <queryTableField id="4"/>
+      <queryTableField id="5" name="Todesfälle"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet001" fillFormulas="1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000002000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="4">
     <queryTableFields count="3">
@@ -3385,25 +3399,11 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet003" fillFormulas="1" connectionId="3" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" name="Bev"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet002" fillFormulas="1" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
-    <queryTableFields count="5">
-      <queryTableField id="1" name="Berichtsdatum"/>
-      <queryTableField id="2" name="Fälle gesamt"/>
-      <queryTableField id="3"/>
-      <queryTableField id="4"/>
-      <queryTableField id="5" name="Todesfälle"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -3746,7 +3746,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A2:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C6" sqref="C6:C22"/>
     </sheetView>
   </sheetViews>
@@ -3782,10 +3782,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>11440</v>
+        <v>11433</v>
       </c>
       <c r="C6" s="29">
-        <v>103.05940491842</v>
+        <v>102.99634409373216</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3793,10 +3793,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>14535</v>
+        <v>14534</v>
       </c>
       <c r="C7" s="29">
-        <v>110.74507626324245</v>
+        <v>110.73745706294915</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3804,10 +3804,10 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>3606</v>
+        <v>3464</v>
       </c>
       <c r="C8" s="29">
-        <v>98.26976002938828</v>
+        <v>94.400013516861051</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3815,10 +3815,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>2824</v>
+        <v>2869</v>
       </c>
       <c r="C9" s="29">
-        <v>111.97937422404519</v>
+        <v>113.76374810509408</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3826,10 +3826,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C10" s="29">
-        <v>102.75953388275431</v>
+        <v>102.90633321687253</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3837,10 +3837,10 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>1908</v>
+        <v>1963</v>
       </c>
       <c r="C11" s="29">
-        <v>103.28850460656987</v>
+        <v>106.26589860728336</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3848,10 +3848,10 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>7304</v>
+        <v>7368</v>
       </c>
       <c r="C12" s="29">
-        <v>116.15628299894404</v>
+        <v>117.17408175468506</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3859,10 +3859,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>1176</v>
+        <v>1192</v>
       </c>
       <c r="C13" s="29">
-        <v>73.128052443260472</v>
+        <v>74.122991932284421</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3870,10 +3870,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>7385</v>
+        <v>7559</v>
       </c>
       <c r="C14" s="29">
-        <v>92.386316667016942</v>
+        <v>94.563055881649447</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3881,10 +3881,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>19129</v>
+        <v>19605</v>
       </c>
       <c r="C15" s="29">
-        <v>106.58474646297609</v>
+        <v>109.23696766201296</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3892,10 +3892,10 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>3180</v>
+        <v>3365</v>
       </c>
       <c r="C16" s="29">
-        <v>77.676486228423101</v>
+        <v>82.195401307749592</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3903,10 +3903,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>639</v>
+        <v>608</v>
       </c>
       <c r="C17" s="29">
-        <v>64.749054349687455</v>
+        <v>61.607863919577419</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3914,10 +3914,10 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>6466</v>
+        <v>6355</v>
       </c>
       <c r="C18" s="29">
-        <v>158.79287941883672</v>
+        <v>156.06692680276947</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3925,10 +3925,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>2702</v>
+        <v>2773</v>
       </c>
       <c r="C19" s="29">
-        <v>123.11017677382081</v>
+        <v>126.3451222034808</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3936,10 +3936,10 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>1740</v>
+        <v>1750</v>
       </c>
       <c r="C20" s="29">
-        <v>59.922039360514752</v>
+        <v>60.266418897069435</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3947,10 +3947,10 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>4473</v>
+        <v>4368</v>
       </c>
       <c r="C21" s="29">
-        <v>209.66748508703097</v>
+        <v>204.7457131366312</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.3">
@@ -3959,11 +3959,11 @@
       </c>
       <c r="B22" s="1">
         <f>SUM(B6:B21)</f>
-        <v>89207</v>
+        <v>89907</v>
       </c>
       <c r="C22" s="30">
         <f>B22/A36*100000</f>
-        <v>107.26286867350086</v>
+        <v>108.10455159156167</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="13" x14ac:dyDescent="0.3">
@@ -3988,7 +3988,7 @@
         <v>1038</v>
       </c>
       <c r="B31">
-        <v>2667225</v>
+        <v>2674710</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -3997,7 +3997,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>74714</v>
+        <v>74964</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="13" x14ac:dyDescent="0.3">
@@ -4059,10 +4059,10 @@
         <v>118</v>
       </c>
       <c r="C6">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D6" s="29">
-        <v>105.2015525308</v>
+        <v>104.4834531961</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4073,10 +4073,10 @@
         <v>120</v>
       </c>
       <c r="C7">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D7" s="29">
-        <v>86.096889749900001</v>
+        <v>71.491167381599993</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4087,10 +4087,10 @@
         <v>122</v>
       </c>
       <c r="C8">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D8" s="29">
-        <v>83.175522631899995</v>
+        <v>87.631354201500002</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4101,10 +4101,10 @@
         <v>124</v>
       </c>
       <c r="C9">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D9" s="29">
-        <v>90.827903955799997</v>
+        <v>85.753719377300001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4115,10 +4115,10 @@
         <v>126</v>
       </c>
       <c r="C10">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D10" s="29">
-        <v>219.2565413399</v>
+        <v>217.01922969360001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4129,10 +4129,10 @@
         <v>128</v>
       </c>
       <c r="C11">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="D11" s="29">
-        <v>155.27347540860001</v>
+        <v>188.65727262140001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -4143,10 +4143,10 @@
         <v>130</v>
       </c>
       <c r="C12">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D12" s="29">
-        <v>58.913349283999999</v>
+        <v>55.306409531900002</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4157,10 +4157,10 @@
         <v>132</v>
       </c>
       <c r="C13">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D13" s="29">
-        <v>106.7111445891</v>
+        <v>98.640553821899999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4171,10 +4171,10 @@
         <v>134</v>
       </c>
       <c r="C14">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D14" s="29">
-        <v>93.301564536200004</v>
+        <v>102.5546122587</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4185,10 +4185,10 @@
         <v>136</v>
       </c>
       <c r="C15">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="29">
-        <v>255.8817257801</v>
+        <v>253.5124505414</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4199,10 +4199,10 @@
         <v>138</v>
       </c>
       <c r="C16">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D16" s="29">
-        <v>228.04685149779999</v>
+        <v>222.22437869359999</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4213,10 +4213,10 @@
         <v>140</v>
       </c>
       <c r="C17">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D17" s="29">
-        <v>88.900279515299999</v>
+        <v>92.904796610600002</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4241,10 +4241,10 @@
         <v>144</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D19" s="29">
-        <v>55.026556294599999</v>
+        <v>33.494425570600001</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4255,10 +4255,10 @@
         <v>146</v>
       </c>
       <c r="C20">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="D20" s="29">
-        <v>102.9302620388</v>
+        <v>89.928544728600002</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4269,10 +4269,10 @@
         <v>148</v>
       </c>
       <c r="C21">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D21" s="29">
-        <v>90.138305963199997</v>
+        <v>81.687839779200004</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4283,10 +4283,10 @@
         <v>150</v>
       </c>
       <c r="C22">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D22" s="29">
-        <v>94.144661308799996</v>
+        <v>92.422502870299994</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4297,10 +4297,10 @@
         <v>152</v>
       </c>
       <c r="C23">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="D23" s="29">
-        <v>108.2331361984</v>
+        <v>116.9996830556</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4311,10 +4311,10 @@
         <v>154</v>
       </c>
       <c r="C24">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D24" s="29">
-        <v>84.034276516199995</v>
+        <v>82.456168036999998</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4325,10 +4325,10 @@
         <v>156</v>
       </c>
       <c r="C25">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D25" s="29">
-        <v>38.483030565</v>
+        <v>36.374371355999997</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4339,10 +4339,10 @@
         <v>158</v>
       </c>
       <c r="C26">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="29">
-        <v>58.038305281500001</v>
+        <v>57.284561057099999</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4353,10 +4353,10 @@
         <v>160</v>
       </c>
       <c r="C27">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D27" s="29">
-        <v>90.085726739999998</v>
+        <v>91.054390468299999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4381,10 +4381,10 @@
         <v>164</v>
       </c>
       <c r="C29">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D29" s="29">
-        <v>63.322310560799998</v>
+        <v>61.758796719700001</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4395,10 +4395,10 @@
         <v>166</v>
       </c>
       <c r="C30">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="29">
-        <v>126.8460632418</v>
+        <v>125.03397662410001</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4409,10 +4409,10 @@
         <v>168</v>
       </c>
       <c r="C31">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D31" s="29">
-        <v>58.159823194099999</v>
+        <v>52.990061132400001</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -4423,10 +4423,10 @@
         <v>170</v>
       </c>
       <c r="C32">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D32" s="29">
-        <v>48.245822659200002</v>
+        <v>55.0410089493</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4437,10 +4437,10 @@
         <v>172</v>
       </c>
       <c r="C33">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D33" s="29">
-        <v>95.549653430099994</v>
+        <v>89.611539375099994</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4451,10 +4451,10 @@
         <v>174</v>
       </c>
       <c r="C34">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="D34" s="29">
-        <v>123.76650498070001</v>
+        <v>116.76085375540001</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4465,10 +4465,10 @@
         <v>176</v>
       </c>
       <c r="C35">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D35" s="29">
-        <v>104.3017798163</v>
+        <v>128.37142131229999</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4479,10 +4479,10 @@
         <v>178</v>
       </c>
       <c r="C36">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="D36" s="29">
-        <v>103.2180892113</v>
+        <v>121.5465349591</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4493,10 +4493,10 @@
         <v>180</v>
       </c>
       <c r="C37">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D37" s="29">
-        <v>133.10802518669999</v>
+        <v>136.88413937639999</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4507,10 +4507,10 @@
         <v>182</v>
       </c>
       <c r="C38">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="D38" s="29">
-        <v>109.1218465636</v>
+        <v>101.3538507065</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -4521,10 +4521,10 @@
         <v>184</v>
       </c>
       <c r="C39">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="D39" s="29">
-        <v>90.011692548799999</v>
+        <v>94.497325067800006</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -4535,10 +4535,10 @@
         <v>186</v>
       </c>
       <c r="C40">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="D40" s="29">
-        <v>99.979082390599999</v>
+        <v>87.924866783200002</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -4549,10 +4549,10 @@
         <v>188</v>
       </c>
       <c r="C41">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="D41" s="29">
-        <v>80.273068036699996</v>
+        <v>95.280641626100007</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -4563,10 +4563,10 @@
         <v>190</v>
       </c>
       <c r="C42">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="D42" s="29">
-        <v>98.871721546800003</v>
+        <v>84.040963314799995</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -4577,10 +4577,10 @@
         <v>192</v>
       </c>
       <c r="C43">
-        <v>411</v>
+        <v>305</v>
       </c>
       <c r="D43" s="29">
-        <v>109.53048465240001</v>
+        <v>81.281746518199995</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -4591,10 +4591,10 @@
         <v>194</v>
       </c>
       <c r="C44">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="D44" s="29">
-        <v>115.5320546956</v>
+        <v>109.3039115853</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -4605,10 +4605,10 @@
         <v>196</v>
       </c>
       <c r="C45">
-        <v>291</v>
+        <v>355</v>
       </c>
       <c r="D45" s="29">
-        <v>73.108965018199996</v>
+        <v>89.187912651100007</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4619,10 +4619,10 @@
         <v>198</v>
       </c>
       <c r="C46">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="D46" s="29">
-        <v>119.7586343665</v>
+        <v>110.9018864873</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -4633,10 +4633,10 @@
         <v>200</v>
       </c>
       <c r="C47">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="D47" s="29">
-        <v>129.69680234629999</v>
+        <v>119.65575958399999</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -4647,10 +4647,10 @@
         <v>202</v>
       </c>
       <c r="C48">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D48" s="29">
-        <v>83.394831506000003</v>
+        <v>77.7689896981</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -4661,10 +4661,10 @@
         <v>204</v>
       </c>
       <c r="C49">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D49" s="29">
-        <v>104.1630092576</v>
+        <v>103.5778238124</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -4675,10 +4675,10 @@
         <v>206</v>
       </c>
       <c r="C50">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D50" s="29">
-        <v>86.683077662000002</v>
+        <v>87.058329080500002</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -4689,10 +4689,10 @@
         <v>208</v>
       </c>
       <c r="C51">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D51" s="29">
-        <v>35.560929207100003</v>
+        <v>41.784091818299999</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -4703,10 +4703,10 @@
         <v>210</v>
       </c>
       <c r="C52">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D52" s="29">
-        <v>107.3121292515</v>
+        <v>110.2930217307</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -4717,10 +4717,10 @@
         <v>212</v>
       </c>
       <c r="C53">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="D53" s="29">
-        <v>66.727509388200005</v>
+        <v>61.341432397299997</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -4731,10 +4731,10 @@
         <v>214</v>
       </c>
       <c r="C54">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D54" s="29">
-        <v>79.060172202900006</v>
+        <v>75.354226630900001</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -4745,10 +4745,10 @@
         <v>216</v>
       </c>
       <c r="C55">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D55" s="29">
-        <v>61.580084395</v>
+        <v>63.599103555500001</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -4759,10 +4759,10 @@
         <v>218</v>
       </c>
       <c r="C56">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="D56" s="29">
-        <v>59.062083924200003</v>
+        <v>52.697635225399999</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -4773,10 +4773,10 @@
         <v>220</v>
       </c>
       <c r="C57">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D57" s="29">
-        <v>99.292370899399998</v>
+        <v>103.9424268368</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -4787,10 +4787,10 @@
         <v>222</v>
       </c>
       <c r="C58">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D58" s="29">
-        <v>70.814365199799994</v>
+        <v>73.573366441299996</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -4801,10 +4801,10 @@
         <v>224</v>
       </c>
       <c r="C59">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D59" s="29">
-        <v>80.686013110000005</v>
+        <v>83.415990997099996</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -4815,10 +4815,10 @@
         <v>226</v>
       </c>
       <c r="C60">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D60" s="29">
-        <v>106.4806959859</v>
+        <v>109.4059898317</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -4829,10 +4829,10 @@
         <v>228</v>
       </c>
       <c r="C61">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="D61" s="29">
-        <v>119.2979999408</v>
+        <v>124.6839141593</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -4843,10 +4843,10 @@
         <v>230</v>
       </c>
       <c r="C62">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D62" s="29">
-        <v>98.668821503000004</v>
+        <v>96.967634925400006</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -4857,10 +4857,10 @@
         <v>232</v>
       </c>
       <c r="C63">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D63" s="29">
-        <v>69.267427684799998</v>
+        <v>72.038124792199994</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -4871,10 +4871,10 @@
         <v>234</v>
       </c>
       <c r="C64">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D64" s="29">
-        <v>87.407680649200003</v>
+        <v>89.813396630400007</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -4885,10 +4885,10 @@
         <v>236</v>
       </c>
       <c r="C65">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D65" s="29">
-        <v>76.251607543199995</v>
+        <v>77.389691237899996</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -4899,10 +4899,10 @@
         <v>238</v>
       </c>
       <c r="C66">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D66" s="29">
-        <v>90.739464971900006</v>
+        <v>91.091851243700006</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -4913,10 +4913,10 @@
         <v>240</v>
       </c>
       <c r="C67">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D67" s="29">
-        <v>162.7904930352</v>
+        <v>161.9105444242</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -4927,10 +4927,10 @@
         <v>242</v>
       </c>
       <c r="C68">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="D68" s="29">
-        <v>214.70986211600001</v>
+        <v>203.52705679749999</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4941,10 +4941,10 @@
         <v>244</v>
       </c>
       <c r="C69">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D69" s="29">
-        <v>80.401505015699996</v>
+        <v>76.632684468099995</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -4955,10 +4955,10 @@
         <v>246</v>
       </c>
       <c r="C70">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="D70" s="29">
-        <v>131.83547379769999</v>
+        <v>148.5942204669</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -4969,10 +4969,10 @@
         <v>248</v>
       </c>
       <c r="C71">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D71" s="29">
-        <v>279.69187018550002</v>
+        <v>276.56682135659997</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -4983,10 +4983,10 @@
         <v>250</v>
       </c>
       <c r="C72">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="D72" s="29">
-        <v>141.67755973600001</v>
+        <v>147.76685313440001</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -4997,10 +4997,10 @@
         <v>252</v>
       </c>
       <c r="C73">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D73" s="29">
-        <v>237.28336907229999</v>
+        <v>234.35394476280001</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -5011,10 +5011,10 @@
         <v>254</v>
       </c>
       <c r="C74">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D74" s="29">
-        <v>75.477210751900003</v>
+        <v>73.042462017899993</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -5039,10 +5039,10 @@
         <v>258</v>
       </c>
       <c r="C76">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D76" s="29">
-        <v>9.7759674134000001</v>
+        <v>11.4052953157</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -5053,10 +5053,10 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D77" s="29">
-        <v>60.293944312000001</v>
+        <v>59.840606384799997</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -5067,10 +5067,10 @@
         <v>262</v>
       </c>
       <c r="C78">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D78" s="29">
-        <v>168.54270751819999</v>
+        <v>167.53947711629999</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -5081,10 +5081,10 @@
         <v>264</v>
       </c>
       <c r="C79">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D79" s="29">
-        <v>81.802482351899997</v>
+        <v>80.287621567599999</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -5095,10 +5095,10 @@
         <v>266</v>
       </c>
       <c r="C80">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="D80" s="29">
-        <v>124.5973182525</v>
+        <v>146.54710488769999</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -5109,10 +5109,10 @@
         <v>268</v>
       </c>
       <c r="C81">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D81" s="29">
-        <v>84.899087188400003</v>
+        <v>86.070109080700007</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -5123,10 +5123,10 @@
         <v>270</v>
       </c>
       <c r="C82">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D82" s="29">
-        <v>60.045784910999998</v>
+        <v>61.296738763299999</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -5137,10 +5137,10 @@
         <v>272</v>
       </c>
       <c r="C83">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="D83" s="29">
-        <v>108.11028592149999</v>
+        <v>111.13200198760001</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -5151,10 +5151,10 @@
         <v>274</v>
       </c>
       <c r="C84">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D84" s="29">
-        <v>105.45874554309999</v>
+        <v>116.3394097658</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -5165,10 +5165,10 @@
         <v>276</v>
       </c>
       <c r="C85">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D85" s="29">
-        <v>69.624414961499994</v>
+        <v>77.360461068299998</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -5179,10 +5179,10 @@
         <v>278</v>
       </c>
       <c r="C86">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D86" s="29">
-        <v>94.877844774899998</v>
+        <v>91.132666691599994</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -5193,10 +5193,10 @@
         <v>280</v>
       </c>
       <c r="C87">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D87" s="29">
-        <v>55.7375085794</v>
+        <v>60.804554813899998</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -5207,10 +5207,10 @@
         <v>282</v>
       </c>
       <c r="C88">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D88" s="29">
-        <v>39.352954578400002</v>
+        <v>40.388558646299998</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -5221,10 +5221,10 @@
         <v>284</v>
       </c>
       <c r="C89">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D89" s="29">
-        <v>125.1512675444</v>
+        <v>126.1855755407</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -5235,10 +5235,10 @@
         <v>286</v>
       </c>
       <c r="C90">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D90" s="29">
-        <v>51.804524261799997</v>
+        <v>55.558475295199997</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -5249,10 +5249,10 @@
         <v>288</v>
       </c>
       <c r="C91">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D91" s="29">
-        <v>112.1218689968</v>
+        <v>109.87943161690001</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -5263,10 +5263,10 @@
         <v>290</v>
       </c>
       <c r="C92">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D92" s="29">
-        <v>110.1891802191</v>
+        <v>106.20643876539999</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -5277,10 +5277,10 @@
         <v>292</v>
       </c>
       <c r="C93">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D93" s="29">
-        <v>108.45728856780001</v>
+        <v>108.79728006800001</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -5291,10 +5291,10 @@
         <v>294</v>
       </c>
       <c r="C94">
-        <v>585</v>
+        <v>519</v>
       </c>
       <c r="D94" s="29">
-        <v>105.0684291821</v>
+        <v>93.214555120499995</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -5305,10 +5305,10 @@
         <v>296</v>
       </c>
       <c r="C95">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="D95" s="29">
-        <v>140.56941642640001</v>
+        <v>141.572051351</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -5319,10 +5319,10 @@
         <v>298</v>
       </c>
       <c r="C96">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="D96" s="29">
-        <v>148.12687520310001</v>
+        <v>156.44011819919999</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -5333,10 +5333,10 @@
         <v>300</v>
       </c>
       <c r="C97">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="D97" s="29">
-        <v>61.5877416274</v>
+        <v>69.9495237804</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -5347,10 +5347,10 @@
         <v>302</v>
       </c>
       <c r="C98">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D98" s="29">
-        <v>81.448530793800003</v>
+        <v>74.4871179055</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -5361,10 +5361,10 @@
         <v>304</v>
       </c>
       <c r="C99">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="D99" s="29">
-        <v>205.98764074159999</v>
+        <v>185.98884066959999</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -5375,10 +5375,10 @@
         <v>306</v>
       </c>
       <c r="C100">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D100" s="29">
-        <v>82.780833979299999</v>
+        <v>85.038493087800006</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -5389,10 +5389,10 @@
         <v>308</v>
       </c>
       <c r="C101">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D101" s="29">
-        <v>257.9881656805</v>
+        <v>260.35502958580003</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -5403,10 +5403,10 @@
         <v>310</v>
       </c>
       <c r="C102">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D102" s="29">
-        <v>230.7835839217</v>
+        <v>231.76564172569999</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -5417,10 +5417,10 @@
         <v>312</v>
       </c>
       <c r="C103">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D103" s="29">
-        <v>42.0732073808</v>
+        <v>50.0871516439</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -5431,10 +5431,10 @@
         <v>314</v>
       </c>
       <c r="C104">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="D104" s="29">
-        <v>105.16321330709999</v>
+        <v>90.139897120300006</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -5445,10 +5445,10 @@
         <v>316</v>
       </c>
       <c r="C105">
-        <v>465</v>
+        <v>505</v>
       </c>
       <c r="D105" s="29">
-        <v>142.2218416046</v>
+        <v>154.45597851689999</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -5459,10 +5459,10 @@
         <v>318</v>
       </c>
       <c r="C106">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="D106" s="29">
-        <v>111.0747718339</v>
+        <v>100.5843767163</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -5473,10 +5473,10 @@
         <v>320</v>
       </c>
       <c r="C107">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D107" s="29">
-        <v>70.155745755599995</v>
+        <v>71.659083164600005</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -5487,10 +5487,10 @@
         <v>322</v>
       </c>
       <c r="C108">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D108" s="29">
-        <v>77.434108639300007</v>
+        <v>68.749909539599997</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -5501,10 +5501,10 @@
         <v>324</v>
       </c>
       <c r="C109">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="D109" s="29">
-        <v>120.5714526056</v>
+        <v>112.1594907959</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -5515,10 +5515,10 @@
         <v>326</v>
       </c>
       <c r="C110">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D110" s="29">
-        <v>59.5407365278</v>
+        <v>69.316081330900005</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -5529,10 +5529,10 @@
         <v>328</v>
       </c>
       <c r="C111">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D111" s="29">
-        <v>99.809124156699994</v>
+        <v>107.8229954394</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -5543,10 +5543,10 @@
         <v>330</v>
       </c>
       <c r="C112">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D112" s="29">
-        <v>215.2572936695</v>
+        <v>214.063078448</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -5557,10 +5557,10 @@
         <v>332</v>
       </c>
       <c r="C113">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="D113" s="29">
-        <v>102.2719472853</v>
+        <v>105.3606973711</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -5571,10 +5571,10 @@
         <v>334</v>
       </c>
       <c r="C114">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="D114" s="29">
-        <v>112.3314094321</v>
+        <v>115.3219294835</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -5585,10 +5585,10 @@
         <v>336</v>
       </c>
       <c r="C115">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D115" s="29">
-        <v>94.497459412599994</v>
+        <v>93.464700293299998</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -5599,10 +5599,10 @@
         <v>338</v>
       </c>
       <c r="C116">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D116" s="29">
-        <v>98.709019120700006</v>
+        <v>94.272658710800002</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -5627,10 +5627,10 @@
         <v>342</v>
       </c>
       <c r="C118">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D118" s="29">
-        <v>125.0974119191</v>
+        <v>127.1481891637</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -5655,10 +5655,10 @@
         <v>346</v>
       </c>
       <c r="C120">
-        <v>926</v>
+        <v>911</v>
       </c>
       <c r="D120" s="29">
-        <v>121.3026277869</v>
+        <v>119.3376824124</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -5669,10 +5669,10 @@
         <v>348</v>
       </c>
       <c r="C121">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D121" s="29">
-        <v>62.717619325699999</v>
+        <v>61.420013408599999</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -5683,10 +5683,10 @@
         <v>350</v>
       </c>
       <c r="C122">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D122" s="29">
-        <v>111.1067902915</v>
+        <v>109.9957223886</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -5711,10 +5711,10 @@
         <v>354</v>
       </c>
       <c r="C124">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D124" s="29">
-        <v>135.26964600190001</v>
+        <v>136.5457747378</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -5725,10 +5725,10 @@
         <v>356</v>
       </c>
       <c r="C125">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D125" s="29">
-        <v>39.5120765116</v>
+        <v>43.564597179400003</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -5739,10 +5739,10 @@
         <v>358</v>
       </c>
       <c r="C126">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="D126" s="29">
-        <v>179.255640951</v>
+        <v>173.42983262000001</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -5753,10 +5753,10 @@
         <v>360</v>
       </c>
       <c r="C127">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D127" s="29">
-        <v>75.235624296099999</v>
+        <v>72.499783412599996</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -5767,10 +5767,10 @@
         <v>362</v>
       </c>
       <c r="C128">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D128" s="29">
-        <v>156.4238853825</v>
+        <v>153.31097224059999</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -5781,10 +5781,10 @@
         <v>364</v>
       </c>
       <c r="C129">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D129" s="29">
-        <v>105.21581970760001</v>
+        <v>95.0336436069</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -5795,10 +5795,10 @@
         <v>366</v>
       </c>
       <c r="C130">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D130" s="29">
-        <v>106.3059802768</v>
+        <v>115.3532977472</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -5809,10 +5809,10 @@
         <v>368</v>
       </c>
       <c r="C131">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="D131" s="29">
-        <v>124.7857651794</v>
+        <v>141.7319802037</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -5823,10 +5823,10 @@
         <v>370</v>
       </c>
       <c r="C132">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="D132" s="29">
-        <v>306.04026845639999</v>
+        <v>350.06711409399998</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -5837,10 +5837,10 @@
         <v>372</v>
       </c>
       <c r="C133">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D133" s="29">
-        <v>121.6931627045</v>
+        <v>125.5687411346</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -5851,10 +5851,10 @@
         <v>374</v>
       </c>
       <c r="C134">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="D134" s="29">
-        <v>142.2301690507</v>
+        <v>161.8099066083</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -5865,10 +5865,10 @@
         <v>376</v>
       </c>
       <c r="C135">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D135" s="29">
-        <v>102.5362134113</v>
+        <v>101.403216578</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -5879,10 +5879,10 @@
         <v>378</v>
       </c>
       <c r="C136">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="D136" s="29">
-        <v>129.77202734900001</v>
+        <v>132.87106083789999</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -5893,10 +5893,10 @@
         <v>380</v>
       </c>
       <c r="C137">
-        <v>419</v>
+        <v>355</v>
       </c>
       <c r="D137" s="29">
-        <v>165.79285784940001</v>
+        <v>140.46888910870001</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -5907,10 +5907,10 @@
         <v>382</v>
       </c>
       <c r="C138">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D138" s="29">
-        <v>26.413876089599999</v>
+        <v>24.946438529000002</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -5921,10 +5921,10 @@
         <v>384</v>
       </c>
       <c r="C139">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D139" s="29">
-        <v>272.03724019330002</v>
+        <v>265.36602721849999</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -5935,10 +5935,10 @@
         <v>386</v>
       </c>
       <c r="C140">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D140" s="29">
-        <v>36.1917672931</v>
+        <v>35.5783475084</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -5949,10 +5949,10 @@
         <v>388</v>
       </c>
       <c r="C141">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D141" s="29">
-        <v>104.9853457955</v>
+        <v>106.4434755982</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -5963,10 +5963,10 @@
         <v>390</v>
       </c>
       <c r="C142">
-        <v>557</v>
+        <v>534</v>
       </c>
       <c r="D142" s="29">
-        <v>571.88032608469996</v>
+        <v>548.26587814940001</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -5977,10 +5977,10 @@
         <v>392</v>
       </c>
       <c r="C143">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D143" s="29">
-        <v>128.3883275426</v>
+        <v>125.12421752029999</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -5991,10 +5991,10 @@
         <v>394</v>
       </c>
       <c r="C144">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D144" s="29">
-        <v>93.680870995899994</v>
+        <v>89.744699945700006</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -6005,10 +6005,10 @@
         <v>396</v>
       </c>
       <c r="C145">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D145" s="29">
-        <v>75.355265825999993</v>
+        <v>76.4513424198</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -6033,10 +6033,10 @@
         <v>400</v>
       </c>
       <c r="C147">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D147" s="29">
-        <v>181.35214146300001</v>
+        <v>180.9333143465</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -6047,10 +6047,10 @@
         <v>402</v>
       </c>
       <c r="C148">
-        <v>1908</v>
+        <v>1963</v>
       </c>
       <c r="D148" s="29">
-        <v>103.2885046066</v>
+        <v>106.2658986073</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -6061,10 +6061,10 @@
         <v>404</v>
       </c>
       <c r="C149">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D149" s="29">
-        <v>85.493675487499999</v>
+        <v>77.415532921799993</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -6075,10 +6075,10 @@
         <v>406</v>
       </c>
       <c r="C150">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D150" s="29">
-        <v>103.9373930056</v>
+        <v>98.935058582899998</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -6089,10 +6089,10 @@
         <v>408</v>
       </c>
       <c r="C151">
-        <v>1318</v>
+        <v>1408</v>
       </c>
       <c r="D151" s="29">
-        <v>113.9039767007</v>
+        <v>121.6819417258</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -6103,10 +6103,10 @@
         <v>410</v>
       </c>
       <c r="C152">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D152" s="29">
-        <v>93.149026651599996</v>
+        <v>94.721162122500004</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -6117,10 +6117,10 @@
         <v>412</v>
       </c>
       <c r="C153">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="D153" s="29">
-        <v>134.54596596499999</v>
+        <v>142.98438891750001</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -6131,10 +6131,10 @@
         <v>414</v>
       </c>
       <c r="C154">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D154" s="29">
-        <v>119.69093667049999</v>
+        <v>125.616230565</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -6145,10 +6145,10 @@
         <v>416</v>
       </c>
       <c r="C155">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D155" s="29">
-        <v>96.934894107800005</v>
+        <v>96.321382119800006</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -6159,10 +6159,10 @@
         <v>418</v>
       </c>
       <c r="C156">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D156" s="29">
-        <v>41.230371144400003</v>
+        <v>41.941239612399997</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -6173,10 +6173,10 @@
         <v>420</v>
       </c>
       <c r="C157">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D157" s="29">
-        <v>75.548812583200004</v>
+        <v>71.833297210300003</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -6187,10 +6187,10 @@
         <v>422</v>
       </c>
       <c r="C158">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D158" s="29">
-        <v>70.042251293500001</v>
+        <v>73.054821241599996</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -6201,10 +6201,10 @@
         <v>424</v>
       </c>
       <c r="C159">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D159" s="29">
-        <v>90.053083923200006</v>
+        <v>85.313447927200002</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -6215,10 +6215,10 @@
         <v>426</v>
       </c>
       <c r="C160">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D160" s="29">
-        <v>104.80293564340001</v>
+        <v>105.3835613257</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -6229,10 +6229,10 @@
         <v>428</v>
       </c>
       <c r="C161">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="D161" s="29">
-        <v>68.087104537200005</v>
+        <v>76.695818904000006</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -6243,10 +6243,10 @@
         <v>430</v>
       </c>
       <c r="C162">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D162" s="29">
-        <v>108.4372980492</v>
+        <v>105.15131932049999</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -6257,10 +6257,10 @@
         <v>432</v>
       </c>
       <c r="C163">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D163" s="29">
-        <v>124.9112052934</v>
+        <v>122.5167412941</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -6271,10 +6271,10 @@
         <v>434</v>
       </c>
       <c r="C164">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D164" s="29">
-        <v>125.28044282800001</v>
+        <v>121.4453272312</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -6299,10 +6299,10 @@
         <v>438</v>
       </c>
       <c r="C166">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D166" s="29">
-        <v>74.740302698199997</v>
+        <v>73.225296562500006</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -6327,10 +6327,10 @@
         <v>442</v>
       </c>
       <c r="C168">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="D168" s="29">
-        <v>88.101893646899995</v>
+        <v>92.090045211100005</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -6355,10 +6355,10 @@
         <v>446</v>
       </c>
       <c r="C170">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D170" s="29">
-        <v>88.639759575200003</v>
+        <v>91.172324134500002</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -6369,10 +6369,10 @@
         <v>448</v>
       </c>
       <c r="C171">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D171" s="29">
-        <v>312.0567375887</v>
+        <v>325.15002727770002</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -6383,10 +6383,10 @@
         <v>450</v>
       </c>
       <c r="C172">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="D172" s="29">
-        <v>216.24244469999999</v>
+        <v>238.3941097668</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -6397,10 +6397,10 @@
         <v>452</v>
       </c>
       <c r="C173">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D173" s="29">
-        <v>191.7358306333</v>
+        <v>194.39882828099999</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -6411,10 +6411,10 @@
         <v>454</v>
       </c>
       <c r="C174">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D174" s="29">
-        <v>59.609980413899997</v>
+        <v>61.029265661799997</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -6425,10 +6425,10 @@
         <v>456</v>
       </c>
       <c r="C175">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D175" s="29">
-        <v>47.058487996499998</v>
+        <v>45.632473208699999</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -6439,10 +6439,10 @@
         <v>458</v>
       </c>
       <c r="C176">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D176" s="29">
-        <v>176.94284181500001</v>
+        <v>185.41350977420001</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -6453,10 +6453,10 @@
         <v>460</v>
       </c>
       <c r="C177">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D177" s="29">
-        <v>102.6260626528</v>
+        <v>98.986840572999995</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -6467,10 +6467,10 @@
         <v>462</v>
       </c>
       <c r="C178">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D178" s="29">
-        <v>72.748174559700004</v>
+        <v>77.238802618899996</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -6481,10 +6481,10 @@
         <v>464</v>
       </c>
       <c r="C179">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D179" s="29">
-        <v>154.03676790680001</v>
+        <v>151.80435098059999</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -6495,10 +6495,10 @@
         <v>466</v>
       </c>
       <c r="C180">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D180" s="29">
-        <v>29.991002699199999</v>
+        <v>33.989803059099998</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -6509,10 +6509,10 @@
         <v>468</v>
       </c>
       <c r="C181">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D181" s="29">
-        <v>40.574075996200001</v>
+        <v>55.671406599400001</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -6523,10 +6523,10 @@
         <v>470</v>
       </c>
       <c r="C182">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="D182" s="29">
-        <v>104.4670896622</v>
+        <v>99.339870537699994</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -6537,10 +6537,10 @@
         <v>472</v>
       </c>
       <c r="C183">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D183" s="29">
-        <v>117.0520848077</v>
+        <v>116.3780804806</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -6551,10 +6551,10 @@
         <v>474</v>
       </c>
       <c r="C184">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D184" s="29">
-        <v>86.080232713499996</v>
+        <v>84.101376789</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -6565,10 +6565,10 @@
         <v>476</v>
       </c>
       <c r="C185">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D185" s="29">
-        <v>76.869794394400003</v>
+        <v>72.223817810100002</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -6593,10 +6593,10 @@
         <v>480</v>
       </c>
       <c r="C187">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D187" s="29">
-        <v>162.5249882169</v>
+        <v>170.65123762779999</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -6607,10 +6607,10 @@
         <v>482</v>
       </c>
       <c r="C188">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D188" s="29">
-        <v>104.1199693425</v>
+        <v>98.335526601200002</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -6621,10 +6621,10 @@
         <v>484</v>
       </c>
       <c r="C189">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D189" s="29">
-        <v>49.028744621000001</v>
+        <v>51.459922040199999</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -6635,10 +6635,10 @@
         <v>486</v>
       </c>
       <c r="C190">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D190" s="29">
-        <v>53.754593823699999</v>
+        <v>49.366463715599998</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -6649,10 +6649,10 @@
         <v>488</v>
       </c>
       <c r="C191">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="D191" s="29">
-        <v>111.6925095611</v>
+        <v>126.0941225417</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -6663,10 +6663,10 @@
         <v>490</v>
       </c>
       <c r="C192">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D192" s="29">
-        <v>74.527408550499999</v>
+        <v>78.911373759300005</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -6677,10 +6677,10 @@
         <v>492</v>
       </c>
       <c r="C193">
-        <v>1206</v>
+        <v>1194</v>
       </c>
       <c r="D193" s="29">
-        <v>110.85954757170001</v>
+        <v>109.75646749640001</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -6691,10 +6691,10 @@
         <v>494</v>
       </c>
       <c r="C194">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="D194" s="29">
-        <v>109.3239726865</v>
+        <v>122.5965316708</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -6705,10 +6705,10 @@
         <v>496</v>
       </c>
       <c r="C195">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="D195" s="29">
-        <v>148.18593157059999</v>
+        <v>152.14341935740001</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -6719,10 +6719,10 @@
         <v>498</v>
       </c>
       <c r="C196">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D196" s="29">
-        <v>257.70492785760001</v>
+        <v>245.71865214330001</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -6733,10 +6733,10 @@
         <v>500</v>
       </c>
       <c r="C197">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D197" s="29">
-        <v>286.4488723696</v>
+        <v>279.46231450689999</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -6747,10 +6747,10 @@
         <v>502</v>
       </c>
       <c r="C198">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D198" s="29">
-        <v>62.661103120200004</v>
+        <v>58.3887551802</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -6761,10 +6761,10 @@
         <v>504</v>
       </c>
       <c r="C199">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D199" s="29">
-        <v>123.9691694066</v>
+        <v>118.5792055193</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -6775,10 +6775,10 @@
         <v>506</v>
       </c>
       <c r="C200">
-        <v>351</v>
+        <v>441</v>
       </c>
       <c r="D200" s="29">
-        <v>138.5604711846</v>
+        <v>174.08879712929999</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -6803,10 +6803,10 @@
         <v>510</v>
       </c>
       <c r="C202">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D202" s="29">
-        <v>44.887034297</v>
+        <v>41.562068793500003</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -6817,10 +6817,10 @@
         <v>512</v>
       </c>
       <c r="C203">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D203" s="29">
-        <v>113.0620751658</v>
+        <v>136.21936766970001</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -6831,10 +6831,10 @@
         <v>514</v>
       </c>
       <c r="C204">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D204" s="29">
-        <v>137.59029363019999</v>
+        <v>134.46324150219999</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -6845,10 +6845,10 @@
         <v>516</v>
       </c>
       <c r="C205">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D205" s="29">
-        <v>114.198036965</v>
+        <v>110.0986202535</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -6859,10 +6859,10 @@
         <v>518</v>
       </c>
       <c r="C206">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D206" s="29">
-        <v>84.465012770900003</v>
+        <v>84.296419931000003</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -6873,10 +6873,10 @@
         <v>520</v>
       </c>
       <c r="C207">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="D207" s="29">
-        <v>139.07236023999999</v>
+        <v>134.03631376889999</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -6887,10 +6887,10 @@
         <v>522</v>
       </c>
       <c r="C208">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D208" s="29">
-        <v>103.2193441602</v>
+        <v>106.2731709105</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -6901,10 +6901,10 @@
         <v>524</v>
       </c>
       <c r="C209">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D209" s="29">
-        <v>124.29615430689999</v>
+        <v>122.7986102791</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -6915,10 +6915,10 @@
         <v>526</v>
       </c>
       <c r="C210">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="D210" s="29">
-        <v>116.92028479690001</v>
+        <v>103.5413467355</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -6929,10 +6929,10 @@
         <v>528</v>
       </c>
       <c r="C211">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D211" s="29">
-        <v>121.979483051</v>
+        <v>106.1221502543</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -6943,10 +6943,10 @@
         <v>530</v>
       </c>
       <c r="C212">
-        <v>556</v>
+        <v>618</v>
       </c>
       <c r="D212" s="29">
-        <v>159.9935542165</v>
+        <v>177.83456206080001</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -6957,10 +6957,10 @@
         <v>532</v>
       </c>
       <c r="C213">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D213" s="29">
-        <v>96.617935086700001</v>
+        <v>93.994823726899995</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -6971,10 +6971,10 @@
         <v>534</v>
       </c>
       <c r="C214">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D214" s="29">
-        <v>49.877615111099999</v>
+        <v>48.030296032899997</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -6999,10 +6999,10 @@
         <v>538</v>
       </c>
       <c r="C216">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="D216" s="29">
-        <v>98.455694020999999</v>
+        <v>96.438910716999999</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -7013,10 +7013,10 @@
         <v>540</v>
       </c>
       <c r="C217">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="D217" s="29">
-        <v>149.77968453380001</v>
+        <v>157.3267229018</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -7027,10 +7027,10 @@
         <v>542</v>
       </c>
       <c r="C218">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D218" s="29">
-        <v>115.6866355965</v>
+        <v>117.575396994</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -7041,10 +7041,10 @@
         <v>544</v>
       </c>
       <c r="C219">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D219" s="29">
-        <v>58.108276899499998</v>
+        <v>57.565208891099999</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -7055,10 +7055,10 @@
         <v>546</v>
       </c>
       <c r="C220">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="D220" s="29">
-        <v>87.975922379099998</v>
+        <v>94.289983793900007</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -7069,10 +7069,10 @@
         <v>548</v>
       </c>
       <c r="C221">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D221" s="29">
-        <v>147.42528866820001</v>
+        <v>146.94972322090001</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -7097,10 +7097,10 @@
         <v>552</v>
       </c>
       <c r="C223">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D223" s="29">
-        <v>178.2490804311</v>
+        <v>182.7808367133</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -7111,10 +7111,10 @@
         <v>554</v>
       </c>
       <c r="C224">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="D224" s="29">
-        <v>93.897500817400001</v>
+        <v>85.094610115799995</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -7125,10 +7125,10 @@
         <v>556</v>
       </c>
       <c r="C225">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D225" s="29">
-        <v>61.762848960100001</v>
+        <v>57.645325696100002</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -7139,10 +7139,10 @@
         <v>558</v>
       </c>
       <c r="C226">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D226" s="29">
-        <v>44.461892846799998</v>
+        <v>42.569897406499997</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -7153,10 +7153,10 @@
         <v>560</v>
       </c>
       <c r="C227">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D227" s="29">
-        <v>145.49762117829999</v>
+        <v>144.53192900229999</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -7167,10 +7167,10 @@
         <v>562</v>
       </c>
       <c r="C228">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="D228" s="29">
-        <v>66.695320952700001</v>
+        <v>101.5250996725</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -7181,10 +7181,10 @@
         <v>564</v>
       </c>
       <c r="C229">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D229" s="29">
-        <v>148.12776221850001</v>
+        <v>147.7230415567</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -7195,10 +7195,10 @@
         <v>566</v>
       </c>
       <c r="C230">
-        <v>830</v>
+        <v>883</v>
       </c>
       <c r="D230" s="29">
-        <v>202.32947038430001</v>
+        <v>215.2493040354</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -7209,10 +7209,10 @@
         <v>568</v>
       </c>
       <c r="C231">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D231" s="29">
-        <v>108.3008515921</v>
+        <v>105.2357331508</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -7223,10 +7223,10 @@
         <v>570</v>
       </c>
       <c r="C232">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D232" s="29">
-        <v>64.355466017500007</v>
+        <v>71.350625367199996</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -7237,10 +7237,10 @@
         <v>572</v>
       </c>
       <c r="C233">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D233" s="29">
-        <v>60.835264303999999</v>
+        <v>60.060292784200001</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -7251,10 +7251,10 @@
         <v>574</v>
       </c>
       <c r="C234">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="D234" s="29">
-        <v>147.2796700273</v>
+        <v>141.07406595320001</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -7265,10 +7265,10 @@
         <v>576</v>
       </c>
       <c r="C235">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D235" s="29">
-        <v>49.886621315200003</v>
+        <v>74.829931972799997</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -7279,10 +7279,10 @@
         <v>578</v>
       </c>
       <c r="C236">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D236" s="29">
-        <v>48.429433472500001</v>
+        <v>39.712135447400001</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -7293,10 +7293,10 @@
         <v>580</v>
       </c>
       <c r="C237">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="D237" s="29">
-        <v>100.5004427786</v>
+        <v>104.20742632370001</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -7307,10 +7307,10 @@
         <v>582</v>
       </c>
       <c r="C238">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D238" s="29">
-        <v>59.994000599899998</v>
+        <v>53.994600539899999</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -7321,10 +7321,10 @@
         <v>584</v>
       </c>
       <c r="C239">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D239" s="29">
-        <v>83.111314789900007</v>
+        <v>80.781091010799997</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -7335,10 +7335,10 @@
         <v>586</v>
       </c>
       <c r="C240">
-        <v>476</v>
+        <v>501</v>
       </c>
       <c r="D240" s="29">
-        <v>153.3460692184</v>
+        <v>161.39995940840001</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -7349,10 +7349,10 @@
         <v>588</v>
       </c>
       <c r="C241">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D241" s="29">
-        <v>159.15869503019999</v>
+        <v>160.47405614620001</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -7363,10 +7363,10 @@
         <v>590</v>
       </c>
       <c r="C242">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="D242" s="29">
-        <v>95.006780725900001</v>
+        <v>99.220791161299999</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -7391,10 +7391,10 @@
         <v>594</v>
       </c>
       <c r="C244">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="D244" s="29">
-        <v>96.113273008600004</v>
+        <v>127.7603263163</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -7405,10 +7405,10 @@
         <v>596</v>
       </c>
       <c r="C245">
-        <v>1276</v>
+        <v>1187</v>
       </c>
       <c r="D245" s="29">
-        <v>85.970734914999994</v>
+        <v>79.974343529899997</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -7419,10 +7419,10 @@
         <v>598</v>
       </c>
       <c r="C246">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="D246" s="29">
-        <v>79.892031625800001</v>
+        <v>82.459989785199994</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -7433,10 +7433,10 @@
         <v>600</v>
       </c>
       <c r="C247">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="D247" s="29">
-        <v>84.6831360037</v>
+        <v>78.339829936000001</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -7447,10 +7447,10 @@
         <v>602</v>
       </c>
       <c r="C248">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D248" s="29">
-        <v>57.089944511399999</v>
+        <v>55.697506840400003</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -7461,10 +7461,10 @@
         <v>604</v>
       </c>
       <c r="C249">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D249" s="29">
-        <v>108.9380594637</v>
+        <v>105.85490683739999</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -7475,10 +7475,10 @@
         <v>606</v>
       </c>
       <c r="C250">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D250" s="29">
-        <v>71.3367465985</v>
+        <v>89.914024358500001</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -7503,10 +7503,10 @@
         <v>610</v>
       </c>
       <c r="C252">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D252" s="29">
-        <v>81.425788384300006</v>
+        <v>77.620845001800006</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -7517,10 +7517,10 @@
         <v>612</v>
       </c>
       <c r="C253">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D253" s="29">
-        <v>64.347516185900005</v>
+        <v>65.337477973399999</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -7531,10 +7531,10 @@
         <v>614</v>
       </c>
       <c r="C254">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D254" s="29">
-        <v>124.93382742190001</v>
+        <v>120.6987824246</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -7545,10 +7545,10 @@
         <v>616</v>
       </c>
       <c r="C255">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D255" s="29">
-        <v>37.548813457500003</v>
+        <v>35.671372784600003</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -7573,10 +7573,10 @@
         <v>620</v>
       </c>
       <c r="C257">
-        <v>180</v>
+        <v>242</v>
       </c>
       <c r="D257" s="29">
-        <v>98.4623463577</v>
+        <v>132.37715454760001</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -7587,10 +7587,10 @@
         <v>622</v>
       </c>
       <c r="C258">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D258" s="29">
-        <v>43.6609275888</v>
+        <v>44.484718675300002</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -7601,10 +7601,10 @@
         <v>624</v>
       </c>
       <c r="C259">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D259" s="29">
-        <v>30.731963049299999</v>
+        <v>25.308675452399999</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -7615,10 +7615,10 @@
         <v>626</v>
       </c>
       <c r="C260">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D260" s="29">
-        <v>76.723889901199996</v>
+        <v>59.940538985300002</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -7629,10 +7629,10 @@
         <v>628</v>
       </c>
       <c r="C261">
-        <v>484</v>
+        <v>440</v>
       </c>
       <c r="D261" s="29">
-        <v>244.7646163416</v>
+        <v>222.51328758330001</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -7643,10 +7643,10 @@
         <v>630</v>
       </c>
       <c r="C262">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D262" s="29">
-        <v>83.268710034199998</v>
+        <v>84.539988050000005</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -7657,10 +7657,10 @@
         <v>632</v>
       </c>
       <c r="C263">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D263" s="29">
-        <v>46.868503609599998</v>
+        <v>46.112560002999999</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -7671,10 +7671,10 @@
         <v>634</v>
       </c>
       <c r="C264">
-        <v>747</v>
+        <v>777</v>
       </c>
       <c r="D264" s="29">
-        <v>144.1055616644</v>
+        <v>149.89293361879999</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -7685,10 +7685,10 @@
         <v>636</v>
       </c>
       <c r="C265">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="D265" s="29">
-        <v>97.194247974099994</v>
+        <v>103.63483067120001</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -7699,10 +7699,10 @@
         <v>638</v>
       </c>
       <c r="C266">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="D266" s="29">
-        <v>117.94266960669999</v>
+        <v>103.84082867550001</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -7713,10 +7713,10 @@
         <v>640</v>
       </c>
       <c r="C267">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="D267" s="29">
-        <v>149.9685727623</v>
+        <v>141.51446204289999</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -7727,10 +7727,10 @@
         <v>642</v>
       </c>
       <c r="C268">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="D268" s="29">
-        <v>130.952155017</v>
+        <v>116.2437607941</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -7741,10 +7741,10 @@
         <v>644</v>
       </c>
       <c r="C269">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="D269" s="29">
-        <v>156.87084926310001</v>
+        <v>147.94705843669999</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -7755,10 +7755,10 @@
         <v>646</v>
       </c>
       <c r="C270">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D270" s="29">
-        <v>202.97885179799999</v>
+        <v>196.57861773229999</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -7769,10 +7769,10 @@
         <v>648</v>
       </c>
       <c r="C271">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D271" s="29">
-        <v>101.3412200242</v>
+        <v>103.409408188</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -7783,10 +7783,10 @@
         <v>650</v>
       </c>
       <c r="C272">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D272" s="29">
-        <v>138.7001336667</v>
+        <v>141.49650732929999</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -7797,10 +7797,10 @@
         <v>652</v>
       </c>
       <c r="C273">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D273" s="29">
-        <v>196.49984648450001</v>
+        <v>188.82407123120001</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -7811,10 +7811,10 @@
         <v>654</v>
       </c>
       <c r="C274">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="D274" s="29">
-        <v>135.74546180159999</v>
+        <v>137.71278733490001</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -7825,10 +7825,10 @@
         <v>656</v>
       </c>
       <c r="C275">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D275" s="29">
-        <v>96.405779615200004</v>
+        <v>91.674207609600003</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -7839,10 +7839,10 @@
         <v>658</v>
       </c>
       <c r="C276">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="D276" s="29">
-        <v>73.344029337600006</v>
+        <v>88.624035449600001</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -7853,10 +7853,10 @@
         <v>660</v>
       </c>
       <c r="C277">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D277" s="29">
-        <v>73.905415997899993</v>
+        <v>78.384532118999999</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -7867,10 +7867,10 @@
         <v>662</v>
       </c>
       <c r="C278">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="D278" s="29">
-        <v>100.7070376584</v>
+        <v>105.812002701</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -7881,10 +7881,10 @@
         <v>664</v>
       </c>
       <c r="C279">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D279" s="29">
-        <v>177.91117754199999</v>
+        <v>172.46491700499999</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -7895,10 +7895,10 @@
         <v>666</v>
       </c>
       <c r="C280">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="D280" s="29">
-        <v>90.203306523699993</v>
+        <v>93.833780160900005</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -7909,10 +7909,10 @@
         <v>668</v>
       </c>
       <c r="C281">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="D281" s="29">
-        <v>114.3221081124</v>
+        <v>110.1823103256</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -7923,10 +7923,10 @@
         <v>670</v>
       </c>
       <c r="C282">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="D282" s="29">
-        <v>189.82589848559999</v>
+        <v>177.0763978411</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -7937,10 +7937,10 @@
         <v>672</v>
       </c>
       <c r="C283">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D283" s="29">
-        <v>58.809072396600001</v>
+        <v>63.197809142600001</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -7951,10 +7951,10 @@
         <v>674</v>
       </c>
       <c r="C284">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D284" s="29">
-        <v>38.895177496599999</v>
+        <v>38.396521374899997</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -7965,10 +7965,10 @@
         <v>676</v>
       </c>
       <c r="C285">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D285" s="29">
-        <v>83.956261822200005</v>
+        <v>82.944740595400006</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -7979,10 +7979,10 @@
         <v>678</v>
       </c>
       <c r="C286">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D286" s="29">
-        <v>60.746039325799998</v>
+        <v>63.994490626599998</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -8007,10 +8007,10 @@
         <v>682</v>
       </c>
       <c r="C288">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D288" s="29">
-        <v>114.7122332032</v>
+        <v>111.078814052</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -8021,10 +8021,10 @@
         <v>684</v>
       </c>
       <c r="C289">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D289" s="29">
-        <v>155.0433602125</v>
+        <v>154.3015259531</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -8035,10 +8035,10 @@
         <v>686</v>
       </c>
       <c r="C290">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D290" s="29">
-        <v>114.6404423405</v>
+        <v>130.23778143449999</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -8049,10 +8049,10 @@
         <v>688</v>
       </c>
       <c r="C291">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D291" s="29">
-        <v>84.1557039307</v>
+        <v>83.361782195499998</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -8063,10 +8063,10 @@
         <v>690</v>
       </c>
       <c r="C292">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D292" s="29">
-        <v>88.262370176800005</v>
+        <v>88.895075339399995</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -8077,10 +8077,10 @@
         <v>692</v>
       </c>
       <c r="C293">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D293" s="29">
-        <v>104.3971067088</v>
+        <v>86.997588923999999</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -8105,10 +8105,10 @@
         <v>696</v>
       </c>
       <c r="C295">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="D295" s="29">
-        <v>90.942362505099993</v>
+        <v>98.151208313500007</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -8119,10 +8119,10 @@
         <v>698</v>
       </c>
       <c r="C296">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="D296" s="29">
-        <v>87.733069826299996</v>
+        <v>106.20318978970001</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -8147,10 +8147,10 @@
         <v>702</v>
       </c>
       <c r="C298">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D298" s="29">
-        <v>206.98297467809999</v>
+        <v>205.25451559929999</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -8175,10 +8175,10 @@
         <v>706</v>
       </c>
       <c r="C300">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="D300" s="29">
-        <v>99.489201920699998</v>
+        <v>100.9546729801</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -8189,10 +8189,10 @@
         <v>708</v>
       </c>
       <c r="C301">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D301" s="29">
-        <v>78.801188476899995</v>
+        <v>94.303061619900006</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -8203,10 +8203,10 @@
         <v>710</v>
       </c>
       <c r="C302">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D302" s="29">
-        <v>188.1197172979</v>
+        <v>177.66862189240001</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -8217,10 +8217,10 @@
         <v>712</v>
       </c>
       <c r="C303">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D303" s="29">
-        <v>113.87643633739999</v>
+        <v>106.6625444427</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -8231,10 +8231,10 @@
         <v>714</v>
       </c>
       <c r="C304">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="D304" s="29">
-        <v>158.97537228979999</v>
+        <v>171.54969552169999</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -8245,10 +8245,10 @@
         <v>716</v>
       </c>
       <c r="C305">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D305" s="29">
-        <v>72.323334456799998</v>
+        <v>71.3871100625</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -8259,10 +8259,10 @@
         <v>718</v>
       </c>
       <c r="C306">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D306" s="29">
-        <v>43.0502958796</v>
+        <v>45.604126991100003</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -8273,10 +8273,10 @@
         <v>720</v>
       </c>
       <c r="C307">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="D307" s="29">
-        <v>122.2851648237</v>
+        <v>114.6205675983</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -8287,10 +8287,10 @@
         <v>722</v>
       </c>
       <c r="C308">
-        <v>519</v>
+        <v>563</v>
       </c>
       <c r="D308" s="29">
-        <v>110.28122775520001</v>
+        <v>119.6306960042</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -8301,10 +8301,10 @@
         <v>724</v>
       </c>
       <c r="C309">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D309" s="29">
-        <v>73.199401581499998</v>
+        <v>73.733703782899994</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -8329,10 +8329,10 @@
         <v>728</v>
       </c>
       <c r="C311">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D311" s="29">
-        <v>100.6103695754</v>
+        <v>97.433200009900006</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -8343,10 +8343,10 @@
         <v>730</v>
       </c>
       <c r="C312">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D312" s="29">
-        <v>100.9452549089</v>
+        <v>100.0597702167</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -8357,10 +8357,10 @@
         <v>732</v>
       </c>
       <c r="C313">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D313" s="29">
-        <v>76.0443837543</v>
+        <v>74.409020662800003</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -8371,10 +8371,10 @@
         <v>734</v>
       </c>
       <c r="C314">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="D314" s="29">
-        <v>106.6827146648</v>
+        <v>104.12962405739999</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -8385,10 +8385,10 @@
         <v>736</v>
       </c>
       <c r="C315">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D315" s="29">
-        <v>82.7894883222</v>
+        <v>81.495902567100003</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -8399,10 +8399,10 @@
         <v>738</v>
       </c>
       <c r="C316">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="D316" s="29">
-        <v>83.726721308199998</v>
+        <v>86.223542023199997</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -8413,10 +8413,10 @@
         <v>740</v>
       </c>
       <c r="C317">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D317" s="29">
-        <v>113.0156338293</v>
+        <v>114.2713630941</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -8427,10 +8427,10 @@
         <v>742</v>
       </c>
       <c r="C318">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D318" s="29">
-        <v>147.91270003619999</v>
+        <v>149.4862393983</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -8455,10 +8455,10 @@
         <v>746</v>
       </c>
       <c r="C320">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D320" s="29">
-        <v>21.989473734499999</v>
+        <v>23.901601885400002</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -8469,10 +8469,10 @@
         <v>748</v>
       </c>
       <c r="C321">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="D321" s="29">
-        <v>85.266504166000004</v>
+        <v>77.3886206289</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -8483,10 +8483,10 @@
         <v>750</v>
       </c>
       <c r="C322">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="D322" s="29">
-        <v>53.119390409200001</v>
+        <v>69.604718467200001</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -8497,10 +8497,10 @@
         <v>752</v>
       </c>
       <c r="C323">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D323" s="29">
-        <v>121.4999723864</v>
+        <v>130.96750270219999</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -8511,10 +8511,10 @@
         <v>754</v>
       </c>
       <c r="C324">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D324" s="29">
-        <v>79.834076805300001</v>
+        <v>77.364981646399997</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -8553,10 +8553,10 @@
         <v>760</v>
       </c>
       <c r="C327">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D327" s="29">
-        <v>131.11008350789999</v>
+        <v>136.5503359356</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -8567,10 +8567,10 @@
         <v>762</v>
       </c>
       <c r="C328">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="D328" s="29">
-        <v>450.74210578740002</v>
+        <v>435.80037852380002</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -8581,10 +8581,10 @@
         <v>764</v>
       </c>
       <c r="C329">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="D329" s="29">
-        <v>151.16425546759999</v>
+        <v>117.2491981511</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -8595,10 +8595,10 @@
         <v>766</v>
       </c>
       <c r="C330">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D330" s="29">
-        <v>55.064095636600001</v>
+        <v>50.432536190500002</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -8609,10 +8609,10 @@
         <v>767</v>
       </c>
       <c r="C331">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D331" s="29">
-        <v>58.370136993999999</v>
+        <v>48.524571717900002</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -8623,10 +8623,10 @@
         <v>769</v>
       </c>
       <c r="C332">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="D332" s="29">
-        <v>113.6058244362</v>
+        <v>130.300587167</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -8637,10 +8637,10 @@
         <v>771</v>
       </c>
       <c r="C333">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D333" s="29">
-        <v>200.40080160319999</v>
+        <v>191.77110201260001</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -8651,10 +8651,10 @@
         <v>773</v>
       </c>
       <c r="C334">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D334" s="29">
-        <v>81.956378056800006</v>
+        <v>84.600132187699998</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -8665,10 +8665,10 @@
         <v>775</v>
       </c>
       <c r="C335">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D335" s="29">
-        <v>89.647959359599994</v>
+        <v>86.199960922700001</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -8679,10 +8679,10 @@
         <v>777</v>
       </c>
       <c r="C336">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D336" s="29">
-        <v>110.2521860347</v>
+        <v>108.3512862755</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -8693,10 +8693,10 @@
         <v>779</v>
       </c>
       <c r="C337">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D337" s="29">
-        <v>47.227027779399997</v>
+        <v>49.2155342123</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -8707,10 +8707,10 @@
         <v>781</v>
       </c>
       <c r="C338">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="D338" s="29">
-        <v>320.21518460409999</v>
+        <v>298.60065964329999</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -8721,10 +8721,10 @@
         <v>783</v>
       </c>
       <c r="C339">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D339" s="29">
-        <v>87.845586979299995</v>
+        <v>92.725897367100004</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -8735,10 +8735,10 @@
         <v>785</v>
       </c>
       <c r="C340">
-        <v>602</v>
+        <v>657</v>
       </c>
       <c r="D340" s="29">
-        <v>305.95494025750003</v>
+        <v>333.90763413479999</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -8749,10 +8749,10 @@
         <v>787</v>
       </c>
       <c r="C341">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D341" s="29">
-        <v>63.448598286900001</v>
+        <v>64.005164938500002</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -8763,10 +8763,10 @@
         <v>789</v>
       </c>
       <c r="C342">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D342" s="29">
-        <v>296.20212075310002</v>
+        <v>293.49707855439999</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -8777,10 +8777,10 @@
         <v>791</v>
       </c>
       <c r="C343">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D343" s="29">
-        <v>66.351067734599994</v>
+        <v>65.409917837600005</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -8791,10 +8791,10 @@
         <v>793</v>
       </c>
       <c r="C344">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D344" s="29">
-        <v>162.8420619174</v>
+        <v>189.0465316513</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -8805,10 +8805,10 @@
         <v>795</v>
       </c>
       <c r="C345">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D345" s="29">
-        <v>46.775520810800003</v>
+        <v>51.106587552500002</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -8819,10 +8819,10 @@
         <v>797</v>
       </c>
       <c r="C346">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D346" s="29">
-        <v>77.362968228900002</v>
+        <v>79.453859262099996</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -8833,10 +8833,10 @@
         <v>799</v>
       </c>
       <c r="C347">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D347" s="29">
-        <v>95.607468205999993</v>
+        <v>94.885902408199996</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -8847,10 +8847,10 @@
         <v>801</v>
       </c>
       <c r="C348">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D348" s="29">
-        <v>170.7926512219</v>
+        <v>168.2650644174</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -8861,10 +8861,10 @@
         <v>803</v>
       </c>
       <c r="C349">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D349" s="29">
-        <v>176.53936980789999</v>
+        <v>170.42545223880001</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -8875,10 +8875,10 @@
         <v>805</v>
       </c>
       <c r="C350">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D350" s="29">
-        <v>87.148135261899995</v>
+        <v>86.154050068800004</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -8889,10 +8889,10 @@
         <v>807</v>
       </c>
       <c r="C351">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="D351" s="29">
-        <v>123.70875066719999</v>
+        <v>130.61634588210001</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -8903,10 +8903,10 @@
         <v>809</v>
       </c>
       <c r="C352">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="D352" s="29">
-        <v>210.2928255578</v>
+        <v>247.74223284889999</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -8917,10 +8917,10 @@
         <v>811</v>
       </c>
       <c r="C353">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D353" s="29">
-        <v>105.688098827</v>
+        <v>98.7577316908</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -8931,10 +8931,10 @@
         <v>813</v>
       </c>
       <c r="C354">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D354" s="29">
-        <v>98.890449160399996</v>
+        <v>118.6685389925</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -8945,10 +8945,10 @@
         <v>992</v>
       </c>
       <c r="C355">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D355" s="29">
-        <v>122.2300386915</v>
+        <v>123.9887442842</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -8959,10 +8959,10 @@
         <v>815</v>
       </c>
       <c r="C356">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D356" s="29">
-        <v>77.746049131600003</v>
+        <v>67.966671882300005</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -8973,10 +8973,10 @@
         <v>817</v>
       </c>
       <c r="C357">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D357" s="29">
-        <v>65.102186094900006</v>
+        <v>67.840128500800006</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -8987,10 +8987,10 @@
         <v>819</v>
       </c>
       <c r="C358">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D358" s="29">
-        <v>72.438847710100006</v>
+        <v>67.316908983100006</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -9001,10 +9001,10 @@
         <v>821</v>
       </c>
       <c r="C359">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D359" s="29">
-        <v>37.400868616099999</v>
+        <v>41.980566813999999</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -9015,10 +9015,10 @@
         <v>823</v>
       </c>
       <c r="C360">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="D360" s="29">
-        <v>85.002900361399995</v>
+        <v>89.241890143199996</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -9029,10 +9029,10 @@
         <v>825</v>
       </c>
       <c r="C361">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D361" s="29">
-        <v>149.29400125910001</v>
+        <v>146.595916899</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -9043,10 +9043,10 @@
         <v>827</v>
       </c>
       <c r="C362">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D362" s="29">
-        <v>72.9042087845</v>
+        <v>74.132931404499999</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -9057,10 +9057,10 @@
         <v>829</v>
       </c>
       <c r="C363">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D363" s="29">
-        <v>119.26931849090001</v>
+        <v>121.36176267499999</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -9071,10 +9071,10 @@
         <v>831</v>
       </c>
       <c r="C364">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D364" s="29">
-        <v>180.97310126580001</v>
+        <v>178.9952531646</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -9085,10 +9085,10 @@
         <v>833</v>
       </c>
       <c r="C365">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="D365" s="29">
-        <v>82.244213419800005</v>
+        <v>86.018326463899996</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -9099,10 +9099,10 @@
         <v>835</v>
       </c>
       <c r="C366">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D366" s="29">
-        <v>62.431574089999998</v>
+        <v>57.002741560399997</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -9113,10 +9113,10 @@
         <v>837</v>
       </c>
       <c r="C367">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D367" s="29">
-        <v>111.77779418119999</v>
+        <v>105.4507492276</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -9127,10 +9127,10 @@
         <v>839</v>
       </c>
       <c r="C368">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D368" s="29">
-        <v>206.58348963009999</v>
+        <v>163.0922286553</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -9141,10 +9141,10 @@
         <v>841</v>
       </c>
       <c r="C369">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="D369" s="29">
-        <v>102.35474743669999</v>
+        <v>116.4726436349</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -9169,10 +9169,10 @@
         <v>845</v>
       </c>
       <c r="C371">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D371" s="29">
-        <v>141.55279468079999</v>
+        <v>144.93652682449999</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -9183,10 +9183,10 @@
         <v>847</v>
       </c>
       <c r="C372">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D372" s="29">
-        <v>58.281328455599997</v>
+        <v>63.661143389999999</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -9197,10 +9197,10 @@
         <v>849</v>
       </c>
       <c r="C373">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D373" s="29">
-        <v>58.903064297999997</v>
+        <v>67.604653342099994</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -9211,10 +9211,10 @@
         <v>851</v>
       </c>
       <c r="C374">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D374" s="29">
-        <v>68.6554893781</v>
+        <v>69.530081599499994</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -9225,10 +9225,10 @@
         <v>853</v>
       </c>
       <c r="C375">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D375" s="29">
-        <v>115.0846084992</v>
+        <v>117.2158049529</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -9239,10 +9239,10 @@
         <v>855</v>
       </c>
       <c r="C376">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D376" s="29">
-        <v>40.3541072915</v>
+        <v>42.035528428600003</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -9267,10 +9267,10 @@
         <v>859</v>
       </c>
       <c r="C378">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D378" s="29">
-        <v>65.462575912899993</v>
+        <v>61.519047243499998</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -9281,10 +9281,10 @@
         <v>861</v>
       </c>
       <c r="C379">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D379" s="29">
-        <v>75.717096616500001</v>
+        <v>73.691221121799998</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -9295,10 +9295,10 @@
         <v>863</v>
       </c>
       <c r="C380">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D380" s="29">
-        <v>115.4237420768</v>
+        <v>112.4892401596</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -9309,10 +9309,10 @@
         <v>865</v>
       </c>
       <c r="C381">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="D381" s="29">
-        <v>142.4236794848</v>
+        <v>154.80834726609999</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -9323,10 +9323,10 @@
         <v>867</v>
       </c>
       <c r="C382">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D382" s="29">
-        <v>142.14292716400001</v>
+        <v>133.74038959769999</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -9337,10 +9337,10 @@
         <v>869</v>
       </c>
       <c r="C383">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D383" s="29">
-        <v>54.691430946600001</v>
+        <v>53.962211867299999</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -9351,10 +9351,10 @@
         <v>871</v>
       </c>
       <c r="C384">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="D384" s="29">
-        <v>82.311962337300002</v>
+        <v>89.003991795600001</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -9365,10 +9365,10 @@
         <v>873</v>
       </c>
       <c r="C385">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D385" s="29">
-        <v>74.7801558078</v>
+        <v>78.566492810699998</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -9379,10 +9379,10 @@
         <v>875</v>
       </c>
       <c r="C386">
-        <v>884</v>
+        <v>916</v>
       </c>
       <c r="D386" s="29">
-        <v>391.15563480930001</v>
+        <v>405.31511480239999</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -9393,10 +9393,10 @@
         <v>877</v>
       </c>
       <c r="C387">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="D387" s="29">
-        <v>100.5844081435</v>
+        <v>108.223730281</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -9407,10 +9407,10 @@
         <v>879</v>
       </c>
       <c r="C388">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D388" s="29">
-        <v>45.393454441899998</v>
+        <v>47.618623777300002</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -9421,10 +9421,10 @@
         <v>881</v>
       </c>
       <c r="C389">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D389" s="29">
-        <v>85.743495036799999</v>
+        <v>87.392408402900003</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -9435,10 +9435,10 @@
         <v>883</v>
       </c>
       <c r="C390">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D390" s="29">
-        <v>81.838292648600003</v>
+        <v>74.805314374100007</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -9449,10 +9449,10 @@
         <v>885</v>
       </c>
       <c r="C391">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D391" s="29">
-        <v>97.659105395799997</v>
+        <v>91.811254773300007</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -9463,10 +9463,10 @@
         <v>887</v>
       </c>
       <c r="C392">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D392" s="29">
-        <v>82.061618197499996</v>
+        <v>82.781456953599999</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -9477,10 +9477,10 @@
         <v>889</v>
       </c>
       <c r="C393">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="D393" s="29">
-        <v>352.17778674329998</v>
+        <v>358.90194496279997</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -9491,10 +9491,10 @@
         <v>891</v>
       </c>
       <c r="C394">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D394" s="29">
-        <v>156.7508129986</v>
+        <v>142.71342675989999</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -9505,10 +9505,10 @@
         <v>893</v>
       </c>
       <c r="C395">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D395" s="29">
-        <v>73.074595137200006</v>
+        <v>70.860213466399998</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -9519,10 +9519,10 @@
         <v>895</v>
       </c>
       <c r="C396">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D396" s="29">
-        <v>50.591770405299997</v>
+        <v>49.058686453699998</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -9533,10 +9533,10 @@
         <v>897</v>
       </c>
       <c r="C397">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D397" s="29">
-        <v>97.375724231899994</v>
+        <v>88.855348361699996</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -9547,10 +9547,10 @@
         <v>899</v>
       </c>
       <c r="C398">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D398" s="29">
-        <v>97.114024531799998</v>
+        <v>100.28078620140001</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -9561,10 +9561,10 @@
         <v>901</v>
       </c>
       <c r="C399">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="D399" s="29">
-        <v>89.437438511799996</v>
+        <v>112.2936727981</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -9575,10 +9575,10 @@
         <v>903</v>
       </c>
       <c r="C400">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D400" s="29">
-        <v>95.874567368699999</v>
+        <v>94.135346192</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -9589,10 +9589,10 @@
         <v>905</v>
       </c>
       <c r="C401">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D401" s="29">
-        <v>126.4350947699</v>
+        <v>121.919555671</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -9603,10 +9603,10 @@
         <v>907</v>
       </c>
       <c r="C402">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="D402" s="29">
-        <v>105.0003962279</v>
+        <v>118.3730882003</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -9617,10 +9617,10 @@
         <v>909</v>
       </c>
       <c r="C403">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="D403" s="29">
-        <v>110.26824371879999</v>
+        <v>104.43051316890001</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -9631,10 +9631,10 @@
         <v>911</v>
       </c>
       <c r="C404">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D404" s="29">
-        <v>69.6653906648</v>
+        <v>78.642889461899998</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -9645,10 +9645,10 @@
         <v>913</v>
       </c>
       <c r="C405">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D405" s="29">
-        <v>84.112026705600002</v>
+        <v>73.598023367400003</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -9659,10 +9659,10 @@
         <v>915</v>
       </c>
       <c r="C406">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D406" s="29">
-        <v>117.6442342321</v>
+        <v>120.0451369715</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -9673,10 +9673,10 @@
         <v>917</v>
       </c>
       <c r="C407">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D407" s="29">
-        <v>42.1599971893</v>
+        <v>36.889997540700001</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -9687,10 +9687,10 @@
         <v>919</v>
       </c>
       <c r="C408">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D408" s="29">
-        <v>43.470264667000002</v>
+        <v>52.665897577400003</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -9701,10 +9701,10 @@
         <v>921</v>
       </c>
       <c r="C409">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D409" s="29">
-        <v>76.384366130399997</v>
+        <v>77.992458048900005</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -9715,10 +9715,10 @@
         <v>923</v>
       </c>
       <c r="C410">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D410" s="29">
-        <v>95.760216418100001</v>
+        <v>108.9272461756</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -9729,10 +9729,10 @@
         <v>925</v>
       </c>
       <c r="C411">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D411" s="29">
-        <v>228.47704906749999</v>
+        <v>213.3370036474</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -9743,10 +9743,10 @@
         <v>927</v>
       </c>
       <c r="C412">
-        <v>545</v>
+        <v>583</v>
       </c>
       <c r="D412" s="29">
-        <v>153.47789355110001</v>
+        <v>164.17910447759999</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -9757,10 +9757,10 @@
         <v>929</v>
       </c>
       <c r="C413">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D413" s="29">
-        <v>71.912079666099999</v>
+        <v>70.3487735864</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -9771,10 +9771,10 @@
         <v>931</v>
       </c>
       <c r="C414">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D414" s="29">
-        <v>59.765129203599997</v>
+        <v>51.755369619600003</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -9785,10 +9785,10 @@
         <v>933</v>
       </c>
       <c r="C415">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D415" s="29">
-        <v>82.381457835000006</v>
+        <v>81.325285298599994</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -9799,10 +9799,10 @@
         <v>935</v>
       </c>
       <c r="C416">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D416" s="29">
-        <v>40.944052876299999</v>
+        <v>32.170327260000001</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -9813,10 +9813,10 @@
         <v>937</v>
       </c>
       <c r="C417">
-        <v>674</v>
+        <v>699</v>
       </c>
       <c r="D417" s="29">
-        <v>213.96689544829999</v>
+        <v>221.9033529946</v>
       </c>
     </row>
   </sheetData>
@@ -9833,7 +9833,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J398" sqref="J398"/>
+      <selection pane="bottomLeft" activeCell="J399" sqref="J399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19013,7 +19013,7 @@
         <v>2052028</v>
       </c>
       <c r="D333" s="3">
-        <f t="shared" ref="D333:D395" si="175">B333-B332</f>
+        <f t="shared" ref="D333:D396" si="175">B333-B332</f>
         <v>11369</v>
       </c>
       <c r="E333" s="3">
@@ -20820,15 +20820,15 @@
         <v>74664</v>
       </c>
       <c r="F394" s="3">
-        <f t="shared" ref="F394:F395" si="282">E394-E393</f>
+        <f t="shared" ref="F394:F396" si="282">E394-E393</f>
         <v>99</v>
       </c>
       <c r="G394" s="4">
-        <f t="shared" ref="G394:G395" si="283">E394/B394</f>
+        <f t="shared" ref="G394:G396" si="283">E394/B394</f>
         <v>2.8074281184997572E-2</v>
       </c>
       <c r="H394" s="3">
-        <f t="shared" ref="H394:H395" si="284">B394-E394</f>
+        <f t="shared" ref="H394:H396" si="284">B394-E394</f>
         <v>2584852</v>
       </c>
     </row>
@@ -20860,8 +20860,31 @@
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A396" s="26"/>
-      <c r="G396" s="4"/>
+      <c r="A396" s="26">
+        <v>44278</v>
+      </c>
+      <c r="B396" s="32">
+        <v>2674710</v>
+      </c>
+      <c r="D396" s="3">
+        <f t="shared" si="175"/>
+        <v>7485</v>
+      </c>
+      <c r="E396" s="3">
+        <v>74964</v>
+      </c>
+      <c r="F396" s="3">
+        <f t="shared" si="282"/>
+        <v>250</v>
+      </c>
+      <c r="G396" s="4">
+        <f t="shared" si="283"/>
+        <v>2.8026963670827864E-2</v>
+      </c>
+      <c r="H396" s="3">
+        <f t="shared" si="284"/>
+        <v>2599746</v>
+      </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A397" s="26"/>
@@ -21331,7 +21354,7 @@
   <dimension ref="A2:LS20"/>
   <sheetViews>
     <sheetView topLeftCell="KV1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="LJ23" sqref="LJ23"/>
+      <selection activeCell="LI23" sqref="LI23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23304,6 +23327,9 @@
       <c r="LJ4" s="3">
         <v>11440</v>
       </c>
+      <c r="LK4" s="3">
+        <v>11433</v>
+      </c>
     </row>
     <row r="5" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
@@ -24272,6 +24298,9 @@
       <c r="LJ5" s="3">
         <v>14535</v>
       </c>
+      <c r="LK5" s="3">
+        <v>14534</v>
+      </c>
     </row>
     <row r="6" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
@@ -25240,6 +25269,9 @@
       <c r="LJ6" s="3">
         <v>3606</v>
       </c>
+      <c r="LK6" s="3">
+        <v>3464</v>
+      </c>
     </row>
     <row r="7" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
@@ -26208,6 +26240,9 @@
       <c r="LJ7" s="3">
         <v>2824</v>
       </c>
+      <c r="LK7" s="3">
+        <v>2869</v>
+      </c>
     </row>
     <row r="8" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
@@ -27176,6 +27211,9 @@
       <c r="LJ8" s="3">
         <v>700</v>
       </c>
+      <c r="LK8" s="3">
+        <v>701</v>
+      </c>
     </row>
     <row r="9" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
@@ -28144,6 +28182,9 @@
       <c r="LJ9" s="3">
         <v>1908</v>
       </c>
+      <c r="LK9" s="3">
+        <v>1963</v>
+      </c>
     </row>
     <row r="10" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
@@ -29112,6 +29153,9 @@
       <c r="LJ10" s="3">
         <v>7304</v>
       </c>
+      <c r="LK10" s="3">
+        <v>7368</v>
+      </c>
     </row>
     <row r="11" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
@@ -30080,6 +30124,9 @@
       <c r="LJ11" s="3">
         <v>1176</v>
       </c>
+      <c r="LK11" s="3">
+        <v>1192</v>
+      </c>
     </row>
     <row r="12" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
@@ -31048,6 +31095,9 @@
       <c r="LJ12" s="3">
         <v>7385</v>
       </c>
+      <c r="LK12" s="3">
+        <v>7559</v>
+      </c>
     </row>
     <row r="13" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
@@ -32016,6 +32066,9 @@
       <c r="LJ13" s="3">
         <v>19129</v>
       </c>
+      <c r="LK13" s="3">
+        <v>19605</v>
+      </c>
     </row>
     <row r="14" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
@@ -32984,6 +33037,9 @@
       <c r="LJ14" s="3">
         <v>3180</v>
       </c>
+      <c r="LK14" s="3">
+        <v>3365</v>
+      </c>
     </row>
     <row r="15" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
@@ -33952,6 +34008,9 @@
       <c r="LJ15" s="3">
         <v>639</v>
       </c>
+      <c r="LK15" s="3">
+        <v>608</v>
+      </c>
     </row>
     <row r="16" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
@@ -34920,8 +34979,11 @@
       <c r="LJ16" s="3">
         <v>6466</v>
       </c>
-    </row>
-    <row r="17" spans="1:322" x14ac:dyDescent="0.35">
+      <c r="LK16" s="3">
+        <v>6355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:323" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -35888,8 +35950,11 @@
       <c r="LJ17" s="3">
         <v>2702</v>
       </c>
-    </row>
-    <row r="18" spans="1:322" x14ac:dyDescent="0.35">
+      <c r="LK17" s="3">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="18" spans="1:323" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -36856,8 +36921,11 @@
       <c r="LJ18" s="3">
         <v>1740</v>
       </c>
-    </row>
-    <row r="19" spans="1:322" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="LK18" s="3">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:323" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -37824,8 +37892,11 @@
       <c r="LJ19" s="3">
         <v>4473</v>
       </c>
-    </row>
-    <row r="20" spans="1:322" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="LK19" s="3">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:323" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
@@ -38791,6 +38862,9 @@
       </c>
       <c r="LJ20" s="12">
         <v>89207</v>
+      </c>
+      <c r="LK20" s="12">
+        <v>89907</v>
       </c>
     </row>
   </sheetData>
@@ -38806,7 +38880,7 @@
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="KW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="LH25" sqref="LH25"/>
+      <selection pane="topRight" activeCell="LG25" sqref="LG25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40840,7 +40914,9 @@
       <c r="LK4" s="16">
         <v>103.05940491842</v>
       </c>
-      <c r="LL4" s="16"/>
+      <c r="LL4" s="16">
+        <v>102.99634409373216</v>
+      </c>
       <c r="LM4" s="16"/>
       <c r="LN4" s="16"/>
       <c r="LO4" s="16"/>
@@ -41820,7 +41896,9 @@
       <c r="LK5" s="16">
         <v>110.74507626324245</v>
       </c>
-      <c r="LL5" s="16"/>
+      <c r="LL5" s="16">
+        <v>110.73745706294915</v>
+      </c>
       <c r="LM5" s="16"/>
       <c r="LN5" s="16"/>
       <c r="LO5" s="16"/>
@@ -42800,7 +42878,9 @@
       <c r="LK6" s="16">
         <v>98.26976002938828</v>
       </c>
-      <c r="LL6" s="16"/>
+      <c r="LL6" s="16">
+        <v>94.400013516861051</v>
+      </c>
       <c r="LM6" s="16"/>
       <c r="LN6" s="16"/>
       <c r="LO6" s="16"/>
@@ -43780,7 +43860,9 @@
       <c r="LK7" s="16">
         <v>111.97937422404519</v>
       </c>
-      <c r="LL7" s="16"/>
+      <c r="LL7" s="16">
+        <v>113.76374810509408</v>
+      </c>
       <c r="LM7" s="16"/>
       <c r="LN7" s="16"/>
       <c r="LO7" s="16"/>
@@ -44760,7 +44842,9 @@
       <c r="LK8" s="16">
         <v>102.75953388275431</v>
       </c>
-      <c r="LL8" s="16"/>
+      <c r="LL8" s="16">
+        <v>102.90633321687253</v>
+      </c>
       <c r="LM8" s="16"/>
       <c r="LN8" s="16"/>
       <c r="LO8" s="16"/>
@@ -45740,7 +45824,9 @@
       <c r="LK9" s="16">
         <v>103.28850460656987</v>
       </c>
-      <c r="LL9" s="16"/>
+      <c r="LL9" s="16">
+        <v>106.26589860728336</v>
+      </c>
       <c r="LM9" s="16"/>
       <c r="LN9" s="16"/>
       <c r="LO9" s="16"/>
@@ -46720,7 +46806,9 @@
       <c r="LK10" s="16">
         <v>116.15628299894404</v>
       </c>
-      <c r="LL10" s="16"/>
+      <c r="LL10" s="16">
+        <v>117.17408175468506</v>
+      </c>
       <c r="LM10" s="16"/>
       <c r="LN10" s="16"/>
       <c r="LO10" s="16"/>
@@ -47700,7 +47788,9 @@
       <c r="LK11" s="16">
         <v>73.128052443260472</v>
       </c>
-      <c r="LL11" s="16"/>
+      <c r="LL11" s="16">
+        <v>74.122991932284421</v>
+      </c>
       <c r="LM11" s="16"/>
       <c r="LN11" s="16"/>
       <c r="LO11" s="16"/>
@@ -48680,7 +48770,9 @@
       <c r="LK12" s="16">
         <v>92.386316667016942</v>
       </c>
-      <c r="LL12" s="16"/>
+      <c r="LL12" s="16">
+        <v>94.563055881649447</v>
+      </c>
       <c r="LM12" s="16"/>
       <c r="LN12" s="16"/>
       <c r="LO12" s="16"/>
@@ -49660,7 +49752,9 @@
       <c r="LK13" s="16">
         <v>106.58474646297609</v>
       </c>
-      <c r="LL13" s="16"/>
+      <c r="LL13" s="16">
+        <v>109.23696766201296</v>
+      </c>
       <c r="LM13" s="16"/>
       <c r="LN13" s="16"/>
       <c r="LO13" s="16"/>
@@ -50640,7 +50734,9 @@
       <c r="LK14" s="16">
         <v>77.676486228423101</v>
       </c>
-      <c r="LL14" s="16"/>
+      <c r="LL14" s="16">
+        <v>82.195401307749592</v>
+      </c>
       <c r="LM14" s="16"/>
       <c r="LN14" s="16"/>
       <c r="LO14" s="16"/>
@@ -51620,7 +51716,9 @@
       <c r="LK15" s="16">
         <v>64.749054349687455</v>
       </c>
-      <c r="LL15" s="16"/>
+      <c r="LL15" s="16">
+        <v>61.607863919577419</v>
+      </c>
       <c r="LM15" s="16"/>
       <c r="LN15" s="16"/>
       <c r="LO15" s="16"/>
@@ -52600,7 +52698,9 @@
       <c r="LK16" s="16">
         <v>158.79287941883672</v>
       </c>
-      <c r="LL16" s="16"/>
+      <c r="LL16" s="16">
+        <v>156.06692680276947</v>
+      </c>
       <c r="LM16" s="16"/>
       <c r="LN16" s="16"/>
       <c r="LO16" s="16"/>
@@ -53580,7 +53680,9 @@
       <c r="LK17" s="16">
         <v>123.11017677382081</v>
       </c>
-      <c r="LL17" s="16"/>
+      <c r="LL17" s="16">
+        <v>126.3451222034808</v>
+      </c>
       <c r="LM17" s="16"/>
       <c r="LN17" s="16"/>
       <c r="LO17" s="16"/>
@@ -54560,7 +54662,9 @@
       <c r="LK18" s="16">
         <v>59.922039360514752</v>
       </c>
-      <c r="LL18" s="16"/>
+      <c r="LL18" s="16">
+        <v>60.266418897069435</v>
+      </c>
       <c r="LM18" s="16"/>
       <c r="LN18" s="16"/>
       <c r="LO18" s="16"/>
@@ -55540,7 +55644,9 @@
       <c r="LK19" s="16">
         <v>209.66748508703097</v>
       </c>
-      <c r="LL19" s="16"/>
+      <c r="LL19" s="16">
+        <v>204.7457131366312</v>
+      </c>
       <c r="LM19" s="16"/>
       <c r="LN19" s="16"/>
       <c r="LO19" s="16"/>
@@ -56520,7 +56626,9 @@
       <c r="LK20" s="17">
         <v>107.26286867350086</v>
       </c>
-      <c r="LL20" s="17"/>
+      <c r="LL20" s="17">
+        <v>108.10455159156167</v>
+      </c>
       <c r="LM20" s="17"/>
       <c r="LN20" s="17"/>
       <c r="LO20" s="17"/>

--- a/Fallzahlen/raw_data/Fallzahlen_Kum_Tab_latest.xlsx
+++ b/Fallzahlen/raw_data/Fallzahlen_Kum_Tab_latest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFCCECF-02C4-4C94-A2C5-F716B54D48C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0675AEA5-B988-401F-A666-EE7D5876E6B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2090" yWindow="170" windowWidth="15290" windowHeight="10800" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3156,10 +3156,10 @@
     <t>21.03.2021</t>
   </si>
   <si>
-    <t>Stand: 23.03.2021 05:55:51</t>
-  </si>
-  <si>
-    <t>23.03.2021</t>
+    <t>Stand: 24.03.2021 06:23:34</t>
+  </si>
+  <si>
+    <t>24.03.2021</t>
   </si>
 </sst>
 </file>
@@ -3782,10 +3782,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>11433</v>
+        <v>11312</v>
       </c>
       <c r="C6" s="29">
-        <v>102.99634409373216</v>
+        <v>101.90629269555657</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3793,10 +3793,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>14534</v>
+        <v>14541</v>
       </c>
       <c r="C7" s="29">
-        <v>110.73745706294915</v>
+        <v>110.7907914650023</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3804,10 +3804,10 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>3464</v>
+        <v>3567</v>
       </c>
       <c r="C8" s="29">
-        <v>94.400013516861051</v>
+        <v>97.206942325243475</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3815,10 +3815,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>2869</v>
+        <v>2995</v>
       </c>
       <c r="C9" s="29">
-        <v>113.76374810509408</v>
+        <v>118.75999497203092</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3826,10 +3826,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>701</v>
+        <v>720</v>
       </c>
       <c r="C10" s="29">
-        <v>102.90633321687253</v>
+        <v>105.69552056511871</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3837,10 +3837,10 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>1963</v>
+        <v>1830</v>
       </c>
       <c r="C11" s="29">
-        <v>106.26589860728336</v>
+        <v>99.066018569194355</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3848,10 +3848,10 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>7368</v>
+        <v>7445</v>
       </c>
       <c r="C12" s="29">
-        <v>117.17408175468506</v>
+        <v>118.39862088268596</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3859,10 +3859,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>1192</v>
+        <v>1279</v>
       </c>
       <c r="C13" s="29">
-        <v>74.122991932284421</v>
+        <v>79.532975403852163</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3870,10 +3870,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>7559</v>
+        <v>7247</v>
       </c>
       <c r="C14" s="29">
-        <v>94.563055881649447</v>
+        <v>90.659937289894629</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3881,10 +3881,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>19605</v>
+        <v>19953</v>
       </c>
       <c r="C15" s="29">
-        <v>109.23696766201296</v>
+        <v>111.17598652181303</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3892,10 +3892,10 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>3365</v>
+        <v>3269</v>
       </c>
       <c r="C16" s="29">
-        <v>82.195401307749592</v>
+        <v>79.850450780099095</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3903,10 +3903,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>608</v>
+        <v>548</v>
       </c>
       <c r="C17" s="29">
-        <v>61.607863919577419</v>
+        <v>55.528140506461227</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3914,10 +3914,10 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>6355</v>
+        <v>6309</v>
       </c>
       <c r="C18" s="29">
-        <v>156.06692680276947</v>
+        <v>154.93725274566052</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3925,10 +3925,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>2773</v>
+        <v>2738</v>
       </c>
       <c r="C19" s="29">
-        <v>126.3451222034808</v>
+        <v>124.7504307944935</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3936,10 +3936,10 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>1750</v>
+        <v>1696</v>
       </c>
       <c r="C20" s="29">
-        <v>60.266418897069435</v>
+        <v>58.406769399674147</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3947,10 +3947,10 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>4368</v>
+        <v>4491</v>
       </c>
       <c r="C21" s="29">
-        <v>204.7457131366312</v>
+        <v>210.51121742138523</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.3">
@@ -3959,11 +3959,11 @@
       </c>
       <c r="B22" s="1">
         <f>SUM(B6:B21)</f>
-        <v>89907</v>
+        <v>89940</v>
       </c>
       <c r="C22" s="30">
         <f>B22/A36*100000</f>
-        <v>108.10455159156167</v>
+        <v>108.1442309291274</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="13" x14ac:dyDescent="0.3">
@@ -3988,7 +3988,7 @@
         <v>1038</v>
       </c>
       <c r="B31">
-        <v>2674710</v>
+        <v>2690523</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -3997,7 +3997,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>74964</v>
+        <v>75212</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="13" x14ac:dyDescent="0.3">
@@ -4053,5770 +4053,5770 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>367</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>368</v>
       </c>
       <c r="C6">
-        <v>582</v>
+        <v>391</v>
       </c>
       <c r="D6" s="29">
-        <v>104.4834531961</v>
+        <v>150.59022896650001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>369</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>370</v>
       </c>
       <c r="C7">
-        <v>93</v>
+        <v>298</v>
       </c>
       <c r="D7" s="29">
-        <v>71.491167381599993</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>371</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>372</v>
       </c>
       <c r="C8">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="D8" s="29">
-        <v>87.631354201500002</v>
+        <v>109.2913117283</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>373</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>374</v>
       </c>
       <c r="C9">
-        <v>169</v>
+        <v>406</v>
       </c>
       <c r="D9" s="29">
-        <v>85.753719377300001</v>
+        <v>149.98817827170001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>376</v>
       </c>
       <c r="C10">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="D10" s="29">
-        <v>217.01922969360001</v>
+        <v>100.2702197447</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>377</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>378</v>
       </c>
       <c r="C11">
-        <v>243</v>
+        <v>341</v>
       </c>
       <c r="D11" s="29">
-        <v>188.65727262140001</v>
+        <v>132.09630246570001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>379</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>380</v>
       </c>
       <c r="C12">
-        <v>46</v>
+        <v>358</v>
       </c>
       <c r="D12" s="29">
-        <v>55.306409531900002</v>
+        <v>141.65595014339999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>381</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>382</v>
       </c>
       <c r="C13">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="D13" s="29">
-        <v>98.640553821899999</v>
+        <v>24.212719748800001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>383</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>384</v>
       </c>
       <c r="C14">
-        <v>133</v>
+        <v>379</v>
       </c>
       <c r="D14" s="29">
-        <v>102.5546122587</v>
+        <v>280.93219082629997</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>385</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>386</v>
       </c>
       <c r="C15">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="D15" s="29">
-        <v>253.5124505414</v>
+        <v>38.338736539300001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>387</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>388</v>
       </c>
       <c r="C16">
-        <v>229</v>
+        <v>131</v>
       </c>
       <c r="D16" s="29">
-        <v>222.22437869359999</v>
+        <v>95.507502077799998</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>389</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>390</v>
       </c>
       <c r="C17">
-        <v>116</v>
+        <v>506</v>
       </c>
       <c r="D17" s="29">
-        <v>92.904796610600002</v>
+        <v>519.51785457610004</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>391</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>392</v>
       </c>
       <c r="C18">
-        <v>145</v>
+        <v>337</v>
       </c>
       <c r="D18" s="29">
-        <v>91.490731042500002</v>
+        <v>122.2227863894</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>393</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>394</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="D19" s="29">
-        <v>33.494425570600001</v>
+        <v>93.680870995899994</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>395</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>396</v>
       </c>
       <c r="C20">
-        <v>166</v>
+        <v>311</v>
       </c>
       <c r="D20" s="29">
-        <v>89.928544728600002</v>
+        <v>85.2199551705</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>397</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>398</v>
       </c>
       <c r="C21">
-        <v>58</v>
+        <v>330</v>
       </c>
       <c r="D21" s="29">
-        <v>81.687839779200004</v>
+        <v>174.89373880420001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>399</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="C22">
-        <v>161</v>
+        <v>422</v>
       </c>
       <c r="D22" s="29">
-        <v>92.422502870299994</v>
+        <v>176.74504318109999</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>401</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>402</v>
       </c>
       <c r="C23">
-        <v>347</v>
+        <v>1830</v>
       </c>
       <c r="D23" s="29">
-        <v>116.9996830556</v>
+        <v>99.066018569199997</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>403</v>
       </c>
       <c r="B24" t="s">
-        <v>154</v>
+        <v>404</v>
       </c>
       <c r="C24">
-        <v>209</v>
+        <v>118</v>
       </c>
       <c r="D24" s="29">
-        <v>82.456168036999998</v>
+        <v>79.435068563200005</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>405</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>406</v>
       </c>
       <c r="C25">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="D25" s="29">
-        <v>36.374371355999997</v>
+        <v>102.26994819799999</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>407</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>408</v>
       </c>
       <c r="C26">
-        <v>76</v>
+        <v>1469</v>
       </c>
       <c r="D26" s="29">
-        <v>57.284561057099999</v>
+        <v>126.9536735761</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>409</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>410</v>
       </c>
       <c r="C27">
-        <v>94</v>
+        <v>259</v>
       </c>
       <c r="D27" s="29">
-        <v>91.054390468299999</v>
+        <v>101.79577174169999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>411</v>
       </c>
       <c r="B28" t="s">
-        <v>162</v>
+        <v>412</v>
       </c>
       <c r="C28">
-        <v>83</v>
+        <v>327</v>
       </c>
       <c r="D28" s="29">
-        <v>52.417190312300001</v>
+        <v>153.2980169706</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>413</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>414</v>
       </c>
       <c r="C29">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="D29" s="29">
-        <v>61.758796719700001</v>
+        <v>129.1714069018</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>415</v>
       </c>
       <c r="B30" t="s">
-        <v>166</v>
+        <v>416</v>
       </c>
       <c r="C30">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="D30" s="29">
-        <v>125.03397662410001</v>
+        <v>121.4753736288</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>167</v>
+        <v>417</v>
       </c>
       <c r="B31" t="s">
-        <v>168</v>
+        <v>418</v>
       </c>
       <c r="C31">
         <v>41</v>
       </c>
       <c r="D31" s="29">
-        <v>52.990061132400001</v>
+        <v>29.145607188300001</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>169</v>
+        <v>419</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>420</v>
       </c>
       <c r="C32">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D32" s="29">
-        <v>55.0410089493</v>
+        <v>69.356286961600006</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>171</v>
+        <v>421</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>422</v>
       </c>
       <c r="C33">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="D33" s="29">
-        <v>89.611539375099994</v>
+        <v>80.586246111899996</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>423</v>
       </c>
       <c r="B34" t="s">
-        <v>174</v>
+        <v>424</v>
       </c>
       <c r="C34">
-        <v>350</v>
+        <v>118</v>
       </c>
       <c r="D34" s="29">
-        <v>116.76085375540001</v>
+        <v>93.212841253799994</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="B35" t="s">
-        <v>176</v>
+        <v>426</v>
       </c>
       <c r="C35">
-        <v>96</v>
+        <v>323</v>
       </c>
       <c r="D35" s="29">
-        <v>128.37142131229999</v>
+        <v>93.771047680999999</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>177</v>
+        <v>427</v>
       </c>
       <c r="B36" t="s">
-        <v>178</v>
+        <v>428</v>
       </c>
       <c r="C36">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="D36" s="29">
-        <v>121.5465349591</v>
+        <v>80.608870888799999</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>179</v>
+        <v>429</v>
       </c>
       <c r="B37" t="s">
-        <v>180</v>
+        <v>430</v>
       </c>
       <c r="C37">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="D37" s="29">
-        <v>136.88413937639999</v>
+        <v>90.912078162499995</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>181</v>
+        <v>431</v>
       </c>
       <c r="B38" t="s">
-        <v>182</v>
+        <v>432</v>
       </c>
       <c r="C38">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="D38" s="29">
-        <v>101.3538507065</v>
+        <v>121.31950929449999</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>183</v>
+        <v>433</v>
       </c>
       <c r="B39" t="s">
-        <v>184</v>
+        <v>434</v>
       </c>
       <c r="C39">
-        <v>316</v>
+        <v>204</v>
       </c>
       <c r="D39" s="29">
-        <v>94.497325067800006</v>
+        <v>130.39393029039999</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>185</v>
+        <v>435</v>
       </c>
       <c r="B40" t="s">
-        <v>186</v>
+        <v>436</v>
       </c>
       <c r="C40">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="D40" s="29">
-        <v>87.924866783200002</v>
+        <v>248.51100489570001</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>187</v>
+        <v>437</v>
       </c>
       <c r="B41" t="s">
-        <v>188</v>
+        <v>438</v>
       </c>
       <c r="C41">
-        <v>273</v>
+        <v>139</v>
       </c>
       <c r="D41" s="29">
-        <v>95.280641626100007</v>
+        <v>70.195284290900005</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>189</v>
+        <v>439</v>
       </c>
       <c r="B42" t="s">
-        <v>190</v>
+        <v>440</v>
       </c>
       <c r="C42">
-        <v>221</v>
+        <v>94</v>
       </c>
       <c r="D42" s="29">
-        <v>84.040963314799995</v>
+        <v>148.74123771699999</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>191</v>
+        <v>441</v>
       </c>
       <c r="B43" t="s">
-        <v>192</v>
+        <v>442</v>
       </c>
       <c r="C43">
-        <v>305</v>
+        <v>213</v>
       </c>
       <c r="D43" s="29">
-        <v>81.281746518199995</v>
+        <v>77.225116653399994</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>193</v>
+        <v>443</v>
       </c>
       <c r="B44" t="s">
-        <v>194</v>
+        <v>444</v>
       </c>
       <c r="C44">
-        <v>351</v>
+        <v>235</v>
       </c>
       <c r="D44" s="29">
-        <v>109.3039115853</v>
+        <v>90.462204121200003</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>195</v>
+        <v>445</v>
       </c>
       <c r="B45" t="s">
-        <v>196</v>
+        <v>446</v>
       </c>
       <c r="C45">
-        <v>355</v>
+        <v>216</v>
       </c>
       <c r="D45" s="29">
-        <v>89.187912651100007</v>
+        <v>91.172324134500002</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>197</v>
+        <v>447</v>
       </c>
       <c r="B46" t="s">
-        <v>198</v>
+        <v>448</v>
       </c>
       <c r="C46">
-        <v>288</v>
+        <v>160</v>
       </c>
       <c r="D46" s="29">
-        <v>110.9018864873</v>
+        <v>349.15439170759998</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>199</v>
+        <v>449</v>
       </c>
       <c r="B47" t="s">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="C47">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="D47" s="29">
-        <v>119.65575958399999</v>
+        <v>255.2715688653</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>201</v>
+        <v>451</v>
       </c>
       <c r="B48" t="s">
-        <v>202</v>
+        <v>452</v>
       </c>
       <c r="C48">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D48" s="29">
-        <v>77.7689896981</v>
+        <v>213.92747769740001</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>203</v>
+        <v>453</v>
       </c>
       <c r="B49" t="s">
-        <v>204</v>
+        <v>454</v>
       </c>
       <c r="C49">
-        <v>354</v>
+        <v>20</v>
       </c>
       <c r="D49" s="29">
-        <v>103.5778238124</v>
+        <v>28.385704959000002</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>205</v>
+        <v>455</v>
       </c>
       <c r="B50" t="s">
-        <v>206</v>
+        <v>456</v>
       </c>
       <c r="C50">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="D50" s="29">
-        <v>87.058329080500002</v>
+        <v>47.771495390399998</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>207</v>
+        <v>457</v>
       </c>
       <c r="B51" t="s">
-        <v>208</v>
+        <v>458</v>
       </c>
       <c r="C51">
-        <v>47</v>
+        <v>223</v>
       </c>
       <c r="D51" s="29">
-        <v>41.784091818299999</v>
+        <v>209.88432832309999</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>209</v>
+        <v>459</v>
       </c>
       <c r="B52" t="s">
-        <v>210</v>
+        <v>460</v>
       </c>
       <c r="C52">
-        <v>222</v>
+        <v>129</v>
       </c>
       <c r="D52" s="29">
-        <v>110.2930217307</v>
+        <v>93.891929661099994</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>211</v>
+        <v>461</v>
       </c>
       <c r="B53" t="s">
-        <v>212</v>
+        <v>462</v>
       </c>
       <c r="C53">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="D53" s="29">
-        <v>61.341432397299997</v>
+        <v>68.257546500499998</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>213</v>
+        <v>463</v>
       </c>
       <c r="B54" t="s">
-        <v>214</v>
+        <v>464</v>
       </c>
       <c r="C54">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="D54" s="29">
-        <v>75.354226630900001</v>
+        <v>159.61781022220001</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>215</v>
+        <v>465</v>
       </c>
       <c r="B55" t="s">
-        <v>216</v>
+        <v>466</v>
       </c>
       <c r="C55">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D55" s="29">
-        <v>63.599103555500001</v>
+        <v>29.991002699199999</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>217</v>
+        <v>467</v>
       </c>
       <c r="B56" t="s">
-        <v>218</v>
+        <v>468</v>
       </c>
       <c r="C56">
-        <v>207</v>
+        <v>58</v>
       </c>
       <c r="D56" s="29">
-        <v>52.697635225399999</v>
+        <v>54.7278234367</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>219</v>
+        <v>469</v>
       </c>
       <c r="B57" t="s">
-        <v>220</v>
+        <v>470</v>
       </c>
       <c r="C57">
-        <v>380</v>
+        <v>306</v>
       </c>
       <c r="D57" s="29">
-        <v>103.9424268368</v>
+        <v>98.058065756600001</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>221</v>
+        <v>471</v>
       </c>
       <c r="B58" t="s">
-        <v>222</v>
+        <v>472</v>
       </c>
       <c r="C58">
-        <v>160</v>
+        <v>517</v>
       </c>
       <c r="D58" s="29">
-        <v>73.573366441299996</v>
+        <v>116.1534123716</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>223</v>
+        <v>473</v>
       </c>
       <c r="B59" t="s">
-        <v>224</v>
+        <v>474</v>
       </c>
       <c r="C59">
-        <v>275</v>
+        <v>188</v>
       </c>
       <c r="D59" s="29">
-        <v>83.415990997099996</v>
+        <v>93.006228449000005</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>225</v>
+        <v>475</v>
       </c>
       <c r="B60" t="s">
-        <v>226</v>
+        <v>476</v>
       </c>
       <c r="C60">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D60" s="29">
-        <v>109.4059898317</v>
+        <v>73.490902333099996</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>227</v>
+        <v>477</v>
       </c>
       <c r="B61" t="s">
-        <v>228</v>
+        <v>478</v>
       </c>
       <c r="C61">
-        <v>463</v>
+        <v>53</v>
       </c>
       <c r="D61" s="29">
-        <v>124.6839141593</v>
+        <v>119.37474661020001</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>229</v>
+        <v>479</v>
       </c>
       <c r="B62" t="s">
-        <v>230</v>
+        <v>480</v>
       </c>
       <c r="C62">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="D62" s="29">
-        <v>96.967634925400006</v>
+        <v>175.52698727430001</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>231</v>
+        <v>481</v>
       </c>
       <c r="B63" t="s">
-        <v>232</v>
+        <v>482</v>
       </c>
       <c r="C63">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D63" s="29">
-        <v>72.038124792199994</v>
+        <v>117.13496551030001</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>233</v>
+        <v>483</v>
       </c>
       <c r="B64" t="s">
-        <v>234</v>
+        <v>484</v>
       </c>
       <c r="C64">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c r="D64" s="29">
-        <v>89.813396630400007</v>
+        <v>52.675510749899999</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>235</v>
+        <v>485</v>
       </c>
       <c r="B65" t="s">
-        <v>236</v>
+        <v>486</v>
       </c>
       <c r="C65">
-        <v>204</v>
+        <v>46</v>
       </c>
       <c r="D65" s="29">
-        <v>77.389691237899996</v>
+        <v>50.463496242700003</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>237</v>
+        <v>487</v>
       </c>
       <c r="B66" t="s">
-        <v>238</v>
+        <v>488</v>
       </c>
       <c r="C66">
-        <v>517</v>
+        <v>374</v>
       </c>
       <c r="D66" s="29">
-        <v>91.091851243700006</v>
+        <v>119.69340566140001</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>239</v>
+        <v>489</v>
       </c>
       <c r="B67" t="s">
-        <v>240</v>
+        <v>490</v>
       </c>
       <c r="C67">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="D67" s="29">
-        <v>161.9105444242</v>
+        <v>71.020236383400004</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>241</v>
+        <v>491</v>
       </c>
       <c r="B68" t="s">
-        <v>242</v>
+        <v>492</v>
       </c>
       <c r="C68">
-        <v>364</v>
+        <v>1249</v>
       </c>
       <c r="D68" s="29">
-        <v>203.52705679749999</v>
+        <v>114.812251175</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>243</v>
+        <v>493</v>
       </c>
       <c r="B69" t="s">
-        <v>244</v>
+        <v>494</v>
       </c>
       <c r="C69">
-        <v>122</v>
+        <v>309</v>
       </c>
       <c r="D69" s="29">
-        <v>76.632684468099995</v>
+        <v>107.92686121440001</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>245</v>
+        <v>495</v>
       </c>
       <c r="B70" t="s">
-        <v>246</v>
+        <v>496</v>
       </c>
       <c r="C70">
-        <v>266</v>
+        <v>378</v>
       </c>
       <c r="D70" s="29">
-        <v>148.5942204669</v>
+        <v>166.2144870436</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>247</v>
+        <v>497</v>
       </c>
       <c r="B71" t="s">
-        <v>248</v>
+        <v>498</v>
       </c>
       <c r="C71">
-        <v>354</v>
+        <v>162</v>
       </c>
       <c r="D71" s="29">
-        <v>276.56682135659997</v>
+        <v>242.72208321470001</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>249</v>
+        <v>499</v>
       </c>
       <c r="B72" t="s">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="C72">
-        <v>364</v>
+        <v>190</v>
       </c>
       <c r="D72" s="29">
-        <v>147.76685313440001</v>
+        <v>265.48919878150002</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="B73" t="s">
-        <v>252</v>
+        <v>502</v>
       </c>
       <c r="C73">
-        <v>400</v>
+        <v>37</v>
       </c>
       <c r="D73" s="29">
-        <v>234.35394476280001</v>
+        <v>52.692291260200001</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>253</v>
+        <v>503</v>
       </c>
       <c r="B74" t="s">
-        <v>254</v>
+        <v>504</v>
       </c>
       <c r="C74">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="D74" s="29">
-        <v>73.042462017899993</v>
+        <v>141.48655204010001</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>255</v>
+        <v>505</v>
       </c>
       <c r="B75" t="s">
-        <v>256</v>
+        <v>506</v>
       </c>
       <c r="C75">
-        <v>52</v>
+        <v>434</v>
       </c>
       <c r="D75" s="29">
-        <v>59.944436118799999</v>
+        <v>171.3254828892</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>257</v>
+        <v>507</v>
       </c>
       <c r="B76" t="s">
-        <v>258</v>
+        <v>508</v>
       </c>
       <c r="C76">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D76" s="29">
-        <v>11.4052953157</v>
+        <v>42.661206032300001</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>259</v>
+        <v>509</v>
       </c>
       <c r="B77" t="s">
-        <v>260</v>
+        <v>510</v>
       </c>
       <c r="C77">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="D77" s="29">
-        <v>59.840606384799997</v>
+        <v>43.224551545300002</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>261</v>
+        <v>511</v>
       </c>
       <c r="B78" t="s">
-        <v>262</v>
+        <v>512</v>
       </c>
       <c r="C78">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D78" s="29">
-        <v>167.53947711629999</v>
+        <v>126.6840119328</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>263</v>
+        <v>513</v>
       </c>
       <c r="B79" t="s">
-        <v>264</v>
+        <v>514</v>
       </c>
       <c r="C79">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="D79" s="29">
-        <v>80.287621567599999</v>
+        <v>120.0788017136</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>265</v>
+        <v>515</v>
       </c>
       <c r="B80" t="s">
-        <v>266</v>
+        <v>516</v>
       </c>
       <c r="C80">
-        <v>227</v>
+        <v>160</v>
       </c>
       <c r="D80" s="29">
-        <v>146.54710488769999</v>
+        <v>93.700953407200004</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>267</v>
+        <v>517</v>
       </c>
       <c r="B81" t="s">
-        <v>268</v>
+        <v>518</v>
       </c>
       <c r="C81">
-        <v>147</v>
+        <v>491</v>
       </c>
       <c r="D81" s="29">
-        <v>86.070109080700007</v>
+        <v>82.779084372300005</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>269</v>
+        <v>519</v>
       </c>
       <c r="B82" t="s">
-        <v>270</v>
+        <v>520</v>
       </c>
       <c r="C82">
-        <v>98</v>
+        <v>352</v>
       </c>
       <c r="D82" s="29">
-        <v>61.296738763299999</v>
+        <v>136.36064290940001</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>271</v>
+        <v>521</v>
       </c>
       <c r="B83" t="s">
-        <v>272</v>
+        <v>522</v>
       </c>
       <c r="C83">
-        <v>331</v>
+        <v>176</v>
       </c>
       <c r="D83" s="29">
-        <v>111.13200198760001</v>
+        <v>107.4947016106</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>273</v>
+        <v>523</v>
       </c>
       <c r="B84" t="s">
-        <v>274</v>
+        <v>524</v>
       </c>
       <c r="C84">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="D84" s="29">
-        <v>116.3394097658</v>
+        <v>118.30597819579999</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>275</v>
+        <v>525</v>
       </c>
       <c r="B85" t="s">
-        <v>276</v>
+        <v>526</v>
       </c>
       <c r="C85">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="D85" s="29">
-        <v>77.360461068299998</v>
+        <v>117.5019777561</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>277</v>
+        <v>527</v>
       </c>
       <c r="B86" t="s">
-        <v>278</v>
+        <v>528</v>
       </c>
       <c r="C86">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D86" s="29">
-        <v>91.132666691599994</v>
+        <v>120.75968822039999</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>279</v>
+        <v>529</v>
       </c>
       <c r="B87" t="s">
-        <v>280</v>
+        <v>530</v>
       </c>
       <c r="C87">
-        <v>132</v>
+        <v>661</v>
       </c>
       <c r="D87" s="29">
-        <v>60.804554813899998</v>
+        <v>190.20816427540001</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>281</v>
+        <v>531</v>
       </c>
       <c r="B88" t="s">
-        <v>282</v>
+        <v>532</v>
       </c>
       <c r="C88">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="D88" s="29">
-        <v>40.388558646299998</v>
+        <v>89.185786233900004</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>283</v>
+        <v>533</v>
       </c>
       <c r="B89" t="s">
-        <v>284</v>
+        <v>534</v>
       </c>
       <c r="C89">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D89" s="29">
-        <v>126.1855755407</v>
+        <v>48.492125802399997</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>285</v>
+        <v>535</v>
       </c>
       <c r="B90" t="s">
-        <v>286</v>
+        <v>536</v>
       </c>
       <c r="C90">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="D90" s="29">
-        <v>55.558475295199997</v>
+        <v>37.180864248500001</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>287</v>
+        <v>537</v>
       </c>
       <c r="B91" t="s">
-        <v>288</v>
+        <v>538</v>
       </c>
       <c r="C91">
-        <v>147</v>
+        <v>527</v>
       </c>
       <c r="D91" s="29">
-        <v>109.87943161690001</v>
+        <v>96.622254653699997</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>289</v>
+        <v>539</v>
       </c>
       <c r="B92" t="s">
-        <v>290</v>
+        <v>540</v>
       </c>
       <c r="C92">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="D92" s="29">
-        <v>106.20643876539999</v>
+        <v>159.6488885535</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>291</v>
+        <v>541</v>
       </c>
       <c r="B93" t="s">
-        <v>292</v>
+        <v>542</v>
       </c>
       <c r="C93">
-        <v>640</v>
+        <v>276</v>
       </c>
       <c r="D93" s="29">
-        <v>108.79728006800001</v>
+        <v>130.32453642710001</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>293</v>
+        <v>543</v>
       </c>
       <c r="B94" t="s">
-        <v>294</v>
+        <v>544</v>
       </c>
       <c r="C94">
-        <v>519</v>
+        <v>110</v>
       </c>
       <c r="D94" s="29">
-        <v>93.214555120499995</v>
+        <v>59.737480924700002</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>295</v>
+        <v>545</v>
       </c>
       <c r="B95" t="s">
-        <v>296</v>
+        <v>546</v>
       </c>
       <c r="C95">
-        <v>706</v>
+        <v>255</v>
       </c>
       <c r="D95" s="29">
-        <v>141.572051351</v>
+        <v>107.3390440511</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>297</v>
+        <v>547</v>
       </c>
       <c r="B96" t="s">
-        <v>298</v>
+        <v>548</v>
       </c>
       <c r="C96">
-        <v>414</v>
+        <v>612</v>
       </c>
       <c r="D96" s="29">
-        <v>156.44011819919999</v>
+        <v>145.52302687900001</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>299</v>
+        <v>549</v>
       </c>
       <c r="B97" t="s">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="C97">
-        <v>435</v>
+        <v>142</v>
       </c>
       <c r="D97" s="29">
-        <v>69.9495237804</v>
+        <v>112.5572694558</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>301</v>
+        <v>551</v>
       </c>
       <c r="B98" t="s">
-        <v>302</v>
+        <v>552</v>
       </c>
       <c r="C98">
-        <v>107</v>
+        <v>218</v>
       </c>
       <c r="D98" s="29">
-        <v>74.4871179055</v>
+        <v>164.65381158470001</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>303</v>
+        <v>553</v>
       </c>
       <c r="B99" t="s">
-        <v>304</v>
+        <v>554</v>
       </c>
       <c r="C99">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="D99" s="29">
-        <v>185.98884066959999</v>
+        <v>95.574241903399994</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>305</v>
+        <v>555</v>
       </c>
       <c r="B100" t="s">
-        <v>306</v>
+        <v>556</v>
       </c>
       <c r="C100">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D100" s="29">
-        <v>85.038493087800006</v>
+        <v>56.730320526299998</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>307</v>
+        <v>557</v>
       </c>
       <c r="B101" t="s">
-        <v>308</v>
+        <v>558</v>
       </c>
       <c r="C101">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D101" s="29">
-        <v>260.35502958580003</v>
+        <v>45.407890567000003</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>309</v>
+        <v>559</v>
       </c>
       <c r="B102" t="s">
-        <v>310</v>
+        <v>560</v>
       </c>
       <c r="C102">
-        <v>236</v>
+        <v>484</v>
       </c>
       <c r="D102" s="29">
-        <v>231.76564172569999</v>
+        <v>155.7983377219</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>311</v>
+        <v>561</v>
       </c>
       <c r="B103" t="s">
-        <v>312</v>
+        <v>562</v>
       </c>
       <c r="C103">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="D103" s="29">
-        <v>50.0871516439</v>
+        <v>99.301922307400005</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>313</v>
+        <v>563</v>
       </c>
       <c r="B104" t="s">
-        <v>314</v>
+        <v>564</v>
       </c>
       <c r="C104">
-        <v>150</v>
+        <v>388</v>
       </c>
       <c r="D104" s="29">
-        <v>90.139897120300006</v>
+        <v>157.03161677809999</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>315</v>
+        <v>565</v>
       </c>
       <c r="B105" t="s">
-        <v>316</v>
+        <v>566</v>
       </c>
       <c r="C105">
-        <v>505</v>
+        <v>922</v>
       </c>
       <c r="D105" s="29">
-        <v>154.45597851689999</v>
+        <v>224.75635143900001</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>317</v>
+        <v>567</v>
       </c>
       <c r="B106" t="s">
-        <v>318</v>
+        <v>568</v>
       </c>
       <c r="C106">
-        <v>326</v>
+        <v>185</v>
       </c>
       <c r="D106" s="29">
-        <v>100.5843767163</v>
+        <v>94.507818606300006</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>319</v>
+        <v>569</v>
       </c>
       <c r="B107" t="s">
-        <v>320</v>
+        <v>570</v>
       </c>
       <c r="C107">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D107" s="29">
-        <v>71.659083164600005</v>
+        <v>67.619873714099995</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>321</v>
+        <v>571</v>
       </c>
       <c r="B108" t="s">
-        <v>322</v>
+        <v>572</v>
       </c>
       <c r="C108">
-        <v>95</v>
+        <v>198</v>
       </c>
       <c r="D108" s="29">
-        <v>68.749909539599997</v>
+        <v>76.722180459900002</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>323</v>
+        <v>573</v>
       </c>
       <c r="B109" t="s">
-        <v>324</v>
+        <v>574</v>
       </c>
       <c r="C109">
-        <v>240</v>
+        <v>365</v>
       </c>
       <c r="D109" s="29">
-        <v>112.1594907959</v>
+        <v>151.00303247190001</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>325</v>
+        <v>575</v>
       </c>
       <c r="B110" t="s">
-        <v>326</v>
+        <v>576</v>
       </c>
       <c r="C110">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D110" s="29">
-        <v>69.316081330900005</v>
+        <v>99.773242630400006</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>327</v>
+        <v>577</v>
       </c>
       <c r="B111" t="s">
-        <v>328</v>
+        <v>578</v>
       </c>
       <c r="C111">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="D111" s="29">
-        <v>107.8229954394</v>
+        <v>34.869192100200003</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>329</v>
+        <v>579</v>
       </c>
       <c r="B112" t="s">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="C112">
-        <v>717</v>
+        <v>530</v>
       </c>
       <c r="D112" s="29">
-        <v>214.063078448</v>
+        <v>109.1500710505</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>331</v>
+        <v>581</v>
       </c>
       <c r="B113" t="s">
-        <v>332</v>
+        <v>582</v>
       </c>
       <c r="C113">
-        <v>614</v>
+        <v>66</v>
       </c>
       <c r="D113" s="29">
-        <v>105.3606973711</v>
+        <v>65.993400659900004</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>333</v>
+        <v>583</v>
       </c>
       <c r="B114" t="s">
-        <v>334</v>
+        <v>584</v>
       </c>
       <c r="C114">
-        <v>617</v>
+        <v>108</v>
       </c>
       <c r="D114" s="29">
-        <v>115.3219294835</v>
+        <v>83.888056049599996</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>335</v>
+        <v>585</v>
       </c>
       <c r="B115" t="s">
-        <v>336</v>
+        <v>586</v>
       </c>
       <c r="C115">
-        <v>181</v>
+        <v>550</v>
       </c>
       <c r="D115" s="29">
-        <v>93.464700293299998</v>
+        <v>177.18558418090001</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>337</v>
+        <v>587</v>
       </c>
       <c r="B116" t="s">
-        <v>338</v>
+        <v>588</v>
       </c>
       <c r="C116">
-        <v>85</v>
+        <v>418</v>
       </c>
       <c r="D116" s="29">
-        <v>94.272658710800002</v>
+        <v>137.455236617</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>339</v>
+        <v>589</v>
       </c>
       <c r="B117" t="s">
-        <v>340</v>
+        <v>590</v>
       </c>
       <c r="C117">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="D117" s="29">
-        <v>94.661927833199996</v>
+        <v>95.772964441400006</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>341</v>
+        <v>591</v>
       </c>
       <c r="B118" t="s">
-        <v>342</v>
+        <v>592</v>
       </c>
       <c r="C118">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="D118" s="29">
-        <v>127.1481891637</v>
+        <v>106.15161557579999</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>343</v>
+        <v>593</v>
       </c>
       <c r="B119" t="s">
-        <v>344</v>
+        <v>594</v>
       </c>
       <c r="C119">
-        <v>28</v>
+        <v>212</v>
       </c>
       <c r="D119" s="29">
-        <v>48.484008934899997</v>
+        <v>124.24398705989999</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>345</v>
+        <v>595</v>
       </c>
       <c r="B120" t="s">
-        <v>346</v>
+        <v>596</v>
       </c>
       <c r="C120">
-        <v>911</v>
+        <v>1224</v>
       </c>
       <c r="D120" s="29">
-        <v>119.3376824124</v>
+        <v>82.467225341700001</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>347</v>
+        <v>597</v>
       </c>
       <c r="B121" t="s">
-        <v>348</v>
+        <v>598</v>
       </c>
       <c r="C121">
-        <v>142</v>
+        <v>276</v>
       </c>
       <c r="D121" s="29">
-        <v>61.420013408599999</v>
+        <v>78.750716888300005</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>349</v>
+        <v>599</v>
       </c>
       <c r="B122" t="s">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="C122">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D122" s="29">
-        <v>109.9957223886</v>
+        <v>65.336052497200001</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>351</v>
+        <v>601</v>
       </c>
       <c r="B123" t="s">
-        <v>352</v>
+        <v>602</v>
       </c>
       <c r="C123">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="D123" s="29">
-        <v>100.64020703129999</v>
+        <v>52.912631498300001</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>353</v>
+        <v>603</v>
       </c>
       <c r="B124" t="s">
-        <v>354</v>
+        <v>604</v>
       </c>
       <c r="C124">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D124" s="29">
-        <v>136.5457747378</v>
+        <v>106.8826243795</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>355</v>
+        <v>605</v>
       </c>
       <c r="B125" t="s">
-        <v>356</v>
+        <v>606</v>
       </c>
       <c r="C125">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="D125" s="29">
-        <v>43.564597179400003</v>
+        <v>90.657115468900002</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>357</v>
+        <v>607</v>
       </c>
       <c r="B126" t="s">
-        <v>358</v>
+        <v>608</v>
       </c>
       <c r="C126">
-        <v>387</v>
+        <v>59</v>
       </c>
       <c r="D126" s="29">
-        <v>173.42983262000001</v>
+        <v>73.569754102399997</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>359</v>
+        <v>609</v>
       </c>
       <c r="B127" t="s">
-        <v>360</v>
+        <v>610</v>
       </c>
       <c r="C127">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="D127" s="29">
-        <v>72.499783412599996</v>
+        <v>71.532935589900006</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>361</v>
+        <v>611</v>
       </c>
       <c r="B128" t="s">
-        <v>362</v>
+        <v>612</v>
       </c>
       <c r="C128">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="D128" s="29">
-        <v>153.31097224059999</v>
+        <v>72.267210485700005</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>363</v>
+        <v>613</v>
       </c>
       <c r="B129" t="s">
-        <v>364</v>
+        <v>614</v>
       </c>
       <c r="C129">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D129" s="29">
-        <v>95.0336436069</v>
+        <v>98.464796188500003</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>365</v>
+        <v>615</v>
       </c>
       <c r="B130" t="s">
-        <v>366</v>
+        <v>616</v>
       </c>
       <c r="C130">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="D130" s="29">
-        <v>115.3532977472</v>
+        <v>41.303694803200003</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>367</v>
+        <v>617</v>
       </c>
       <c r="B131" t="s">
-        <v>368</v>
+        <v>618</v>
       </c>
       <c r="C131">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="D131" s="29">
-        <v>141.7319802037</v>
+        <v>45.090294742099999</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>369</v>
+        <v>619</v>
       </c>
       <c r="B132" t="s">
-        <v>370</v>
+        <v>620</v>
       </c>
       <c r="C132">
-        <v>326</v>
+        <v>258</v>
       </c>
       <c r="D132" s="29">
-        <v>350.06711409399998</v>
+        <v>141.12936311269999</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>371</v>
+        <v>621</v>
       </c>
       <c r="B133" t="s">
-        <v>372</v>
+        <v>622</v>
       </c>
       <c r="C133">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="D133" s="29">
-        <v>125.5687411346</v>
+        <v>46.132300848500002</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>373</v>
+        <v>623</v>
       </c>
       <c r="B134" t="s">
-        <v>374</v>
+        <v>624</v>
       </c>
       <c r="C134">
-        <v>438</v>
+        <v>37</v>
       </c>
       <c r="D134" s="29">
-        <v>161.8099066083</v>
+        <v>22.295737898500001</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="B135" t="s">
-        <v>376</v>
+        <v>626</v>
       </c>
       <c r="C135">
-        <v>179</v>
+        <v>57</v>
       </c>
       <c r="D135" s="29">
-        <v>101.403216578</v>
+        <v>68.332214443300003</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>377</v>
+        <v>627</v>
       </c>
       <c r="B136" t="s">
-        <v>378</v>
+        <v>628</v>
       </c>
       <c r="C136">
-        <v>343</v>
+        <v>410</v>
       </c>
       <c r="D136" s="29">
-        <v>132.87106083789999</v>
+        <v>207.34192706619999</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>379</v>
+        <v>629</v>
       </c>
       <c r="B137" t="s">
-        <v>380</v>
+        <v>630</v>
       </c>
       <c r="C137">
-        <v>355</v>
+        <v>153</v>
       </c>
       <c r="D137" s="29">
-        <v>140.46888910870001</v>
+        <v>97.252768207900004</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>381</v>
+        <v>631</v>
       </c>
       <c r="B138" t="s">
-        <v>382</v>
+        <v>632</v>
       </c>
       <c r="C138">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D138" s="29">
-        <v>24.946438529000002</v>
+        <v>48.380390822800003</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>383</v>
+        <v>633</v>
       </c>
       <c r="B139" t="s">
-        <v>384</v>
+        <v>634</v>
       </c>
       <c r="C139">
-        <v>358</v>
+        <v>761</v>
       </c>
       <c r="D139" s="29">
-        <v>265.36602721849999</v>
+        <v>146.80633524320001</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>385</v>
+        <v>635</v>
       </c>
       <c r="B140" t="s">
-        <v>386</v>
+        <v>636</v>
       </c>
       <c r="C140">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="D140" s="29">
-        <v>35.5783475084</v>
+        <v>107.1478757787</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>387</v>
+        <v>637</v>
       </c>
       <c r="B141" t="s">
-        <v>388</v>
+        <v>638</v>
       </c>
       <c r="C141">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D141" s="29">
-        <v>106.4434755982</v>
+        <v>101.276857597</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>389</v>
+        <v>639</v>
       </c>
       <c r="B142" t="s">
-        <v>390</v>
+        <v>640</v>
       </c>
       <c r="C142">
-        <v>534</v>
+        <v>372</v>
       </c>
       <c r="D142" s="29">
-        <v>548.26587814940001</v>
+        <v>136.73605163619999</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>391</v>
+        <v>641</v>
       </c>
       <c r="B143" t="s">
-        <v>392</v>
+        <v>642</v>
       </c>
       <c r="C143">
-        <v>345</v>
+        <v>229</v>
       </c>
       <c r="D143" s="29">
-        <v>125.12421752029999</v>
+        <v>108.65233151770001</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>393</v>
+        <v>643</v>
       </c>
       <c r="B144" t="s">
-        <v>394</v>
+        <v>644</v>
       </c>
       <c r="C144">
-        <v>114</v>
+        <v>324</v>
       </c>
       <c r="D144" s="29">
-        <v>89.744699945700006</v>
+        <v>152.17411724920001</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>395</v>
+        <v>645</v>
       </c>
       <c r="B145" t="s">
-        <v>396</v>
+        <v>646</v>
       </c>
       <c r="C145">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="D145" s="29">
-        <v>76.4513424198</v>
+        <v>206.636128407</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>397</v>
+        <v>647</v>
       </c>
       <c r="B146" t="s">
-        <v>398</v>
+        <v>648</v>
       </c>
       <c r="C146">
-        <v>293</v>
+        <v>103</v>
       </c>
       <c r="D146" s="29">
-        <v>155.28444081699999</v>
+        <v>106.51169043359999</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>399</v>
+        <v>649</v>
       </c>
       <c r="B147" t="s">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="C147">
-        <v>432</v>
+        <v>256</v>
       </c>
       <c r="D147" s="29">
-        <v>180.9333143465</v>
+        <v>143.1743315269</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>401</v>
+        <v>651</v>
       </c>
       <c r="B148" t="s">
-        <v>402</v>
+        <v>652</v>
       </c>
       <c r="C148">
-        <v>1963</v>
+        <v>267</v>
       </c>
       <c r="D148" s="29">
-        <v>106.2658986073</v>
+        <v>204.94319926310001</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>403</v>
+        <v>653</v>
       </c>
       <c r="B149" t="s">
-        <v>404</v>
+        <v>654</v>
       </c>
       <c r="C149">
-        <v>115</v>
+        <v>465</v>
       </c>
       <c r="D149" s="29">
-        <v>77.415532921799993</v>
+        <v>130.68662471580001</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>405</v>
+        <v>655</v>
       </c>
       <c r="B150" t="s">
-        <v>406</v>
+        <v>656</v>
       </c>
       <c r="C150">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="D150" s="29">
-        <v>98.935058582899998</v>
+        <v>82.211063598199999</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>407</v>
+        <v>657</v>
       </c>
       <c r="B151" t="s">
-        <v>408</v>
+        <v>658</v>
       </c>
       <c r="C151">
-        <v>1408</v>
+        <v>81</v>
       </c>
       <c r="D151" s="29">
-        <v>121.6819417258</v>
+        <v>61.884024753600002</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>409</v>
+        <v>659</v>
       </c>
       <c r="B152" t="s">
-        <v>410</v>
+        <v>660</v>
       </c>
       <c r="C152">
-        <v>241</v>
+        <v>106</v>
       </c>
       <c r="D152" s="29">
-        <v>94.721162122500004</v>
+        <v>79.131051472500005</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>411</v>
+        <v>661</v>
       </c>
       <c r="B153" t="s">
-        <v>412</v>
+        <v>662</v>
       </c>
       <c r="C153">
-        <v>305</v>
+        <v>473</v>
       </c>
       <c r="D153" s="29">
-        <v>142.98438891750001</v>
+        <v>109.7567484157</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>413</v>
+        <v>663</v>
       </c>
       <c r="B154" t="s">
-        <v>414</v>
+        <v>664</v>
       </c>
       <c r="C154">
-        <v>106</v>
+        <v>265</v>
       </c>
       <c r="D154" s="29">
-        <v>125.616230565</v>
+        <v>160.36211581169999</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>415</v>
+        <v>665</v>
       </c>
       <c r="B155" t="s">
-        <v>416</v>
+        <v>666</v>
       </c>
       <c r="C155">
-        <v>157</v>
+        <v>340</v>
       </c>
       <c r="D155" s="29">
-        <v>96.321382119800006</v>
+        <v>94.950848972299994</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>417</v>
+        <v>667</v>
       </c>
       <c r="B156" t="s">
-        <v>418</v>
+        <v>668</v>
       </c>
       <c r="C156">
-        <v>59</v>
+        <v>334</v>
       </c>
       <c r="D156" s="29">
-        <v>41.941239612399997</v>
+        <v>106.3609585224</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>419</v>
+        <v>669</v>
       </c>
       <c r="B157" t="s">
-        <v>420</v>
+        <v>670</v>
       </c>
       <c r="C157">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="D157" s="29">
-        <v>71.833297210300003</v>
+        <v>152.2857021433</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>421</v>
+        <v>671</v>
       </c>
       <c r="B158" t="s">
-        <v>422</v>
+        <v>672</v>
       </c>
       <c r="C158">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D158" s="29">
-        <v>73.054821241599996</v>
+        <v>71.097535285399999</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>423</v>
+        <v>673</v>
       </c>
       <c r="B159" t="s">
-        <v>424</v>
+        <v>674</v>
       </c>
       <c r="C159">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D159" s="29">
-        <v>85.313447927200002</v>
+        <v>42.884426470699999</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>425</v>
+        <v>675</v>
       </c>
       <c r="B160" t="s">
-        <v>426</v>
+        <v>676</v>
       </c>
       <c r="C160">
-        <v>363</v>
+        <v>90</v>
       </c>
       <c r="D160" s="29">
-        <v>105.3835613257</v>
+        <v>91.036910409599997</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>427</v>
+        <v>677</v>
       </c>
       <c r="B161" t="s">
-        <v>428</v>
+        <v>678</v>
       </c>
       <c r="C161">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D161" s="29">
-        <v>76.695818904000006</v>
+        <v>60.421194195699996</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>429</v>
+        <v>679</v>
       </c>
       <c r="B162" t="s">
-        <v>430</v>
+        <v>680</v>
       </c>
       <c r="C162">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D162" s="29">
-        <v>105.15131932049999</v>
+        <v>164.7633657179</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>431</v>
+        <v>681</v>
       </c>
       <c r="B163" t="s">
-        <v>432</v>
+        <v>682</v>
       </c>
       <c r="C163">
-        <v>307</v>
+        <v>194</v>
       </c>
       <c r="D163" s="29">
-        <v>122.5167412941</v>
+        <v>100.697616477</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>433</v>
+        <v>683</v>
       </c>
       <c r="B164" t="s">
-        <v>434</v>
+        <v>684</v>
       </c>
       <c r="C164">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D164" s="29">
-        <v>121.4453272312</v>
+        <v>140.20667502469999</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>435</v>
+        <v>685</v>
       </c>
       <c r="B165" t="s">
-        <v>436</v>
+        <v>686</v>
       </c>
       <c r="C165">
-        <v>279</v>
+        <v>162</v>
       </c>
       <c r="D165" s="29">
-        <v>231.11523455299999</v>
+        <v>126.33844666100001</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>437</v>
+        <v>687</v>
       </c>
       <c r="B166" t="s">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="C166">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="D166" s="29">
-        <v>73.225296562500006</v>
+        <v>82.567860460299997</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>439</v>
+        <v>689</v>
       </c>
       <c r="B167" t="s">
-        <v>440</v>
+        <v>690</v>
       </c>
       <c r="C167">
-        <v>86</v>
+        <v>258</v>
       </c>
       <c r="D167" s="29">
-        <v>136.08240897510001</v>
+        <v>81.618965970000005</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>441</v>
+        <v>691</v>
       </c>
       <c r="B168" t="s">
-        <v>442</v>
+        <v>692</v>
       </c>
       <c r="C168">
-        <v>254</v>
+        <v>35</v>
       </c>
       <c r="D168" s="29">
-        <v>92.090045211100005</v>
+        <v>86.997588923999999</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>443</v>
+        <v>693</v>
       </c>
       <c r="B169" t="s">
-        <v>444</v>
+        <v>694</v>
       </c>
       <c r="C169">
-        <v>234</v>
+        <v>24</v>
       </c>
       <c r="D169" s="29">
-        <v>90.077258571800002</v>
+        <v>18.650047402199998</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>445</v>
+        <v>695</v>
       </c>
       <c r="B170" t="s">
-        <v>446</v>
+        <v>696</v>
       </c>
       <c r="C170">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="D170" s="29">
-        <v>91.172324134500002</v>
+        <v>99.814788115400006</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>447</v>
+        <v>697</v>
       </c>
       <c r="B171" t="s">
-        <v>448</v>
+        <v>698</v>
       </c>
       <c r="C171">
-        <v>149</v>
+        <v>224</v>
       </c>
       <c r="D171" s="29">
-        <v>325.15002727770002</v>
+        <v>103.43267179519999</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>449</v>
+        <v>699</v>
       </c>
       <c r="B172" t="s">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="C172">
-        <v>226</v>
+        <v>66</v>
       </c>
       <c r="D172" s="29">
-        <v>238.3941097668</v>
+        <v>86.661939651799997</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>451</v>
+        <v>701</v>
       </c>
       <c r="B173" t="s">
-        <v>452</v>
+        <v>702</v>
       </c>
       <c r="C173">
-        <v>219</v>
+        <v>447</v>
       </c>
       <c r="D173" s="29">
-        <v>194.39882828099999</v>
+        <v>193.15530204820001</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>453</v>
+        <v>703</v>
       </c>
       <c r="B174" t="s">
-        <v>454</v>
+        <v>704</v>
       </c>
       <c r="C174">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c r="D174" s="29">
-        <v>61.029265661799997</v>
+        <v>81.282583104400004</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>455</v>
+        <v>705</v>
       </c>
       <c r="B175" t="s">
-        <v>456</v>
+        <v>706</v>
       </c>
       <c r="C175">
-        <v>64</v>
+        <v>662</v>
       </c>
       <c r="D175" s="29">
-        <v>45.632473208699999</v>
+        <v>107.7935379239</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>457</v>
+        <v>707</v>
       </c>
       <c r="B176" t="s">
-        <v>458</v>
+        <v>708</v>
       </c>
       <c r="C176">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="D176" s="29">
-        <v>185.41350977420001</v>
+        <v>112.38858028680001</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>459</v>
+        <v>709</v>
       </c>
       <c r="B177" t="s">
-        <v>460</v>
+        <v>710</v>
       </c>
       <c r="C177">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D177" s="29">
-        <v>98.986840572999995</v>
+        <v>135.21104680779999</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>461</v>
+        <v>711</v>
       </c>
       <c r="B178" t="s">
-        <v>462</v>
+        <v>712</v>
       </c>
       <c r="C178">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="D178" s="29">
-        <v>77.238802618899996</v>
+        <v>91.204204668399996</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>463</v>
+        <v>713</v>
       </c>
       <c r="B179" t="s">
-        <v>464</v>
+        <v>714</v>
       </c>
       <c r="C179">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="D179" s="29">
-        <v>151.80435098059999</v>
+        <v>168.85519768629999</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>465</v>
+        <v>715</v>
       </c>
       <c r="B180" t="s">
-        <v>466</v>
+        <v>716</v>
       </c>
       <c r="C180">
-        <v>34</v>
+        <v>247</v>
       </c>
       <c r="D180" s="29">
-        <v>33.989803059099998</v>
+        <v>57.811856345700001</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>467</v>
+        <v>717</v>
       </c>
       <c r="B181" t="s">
-        <v>468</v>
+        <v>718</v>
       </c>
       <c r="C181">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="D181" s="29">
-        <v>55.671406599400001</v>
+        <v>45.239293975099997</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>469</v>
+        <v>719</v>
       </c>
       <c r="B182" t="s">
-        <v>470</v>
+        <v>720</v>
       </c>
       <c r="C182">
         <v>310</v>
       </c>
       <c r="D182" s="29">
-        <v>99.339870537699994</v>
+        <v>108.00114272179999</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>471</v>
+        <v>721</v>
       </c>
       <c r="B183" t="s">
-        <v>472</v>
+        <v>722</v>
       </c>
       <c r="C183">
-        <v>518</v>
+        <v>609</v>
       </c>
       <c r="D183" s="29">
-        <v>116.3780804806</v>
+        <v>129.4051400827</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>473</v>
+        <v>723</v>
       </c>
       <c r="B184" t="s">
-        <v>474</v>
+        <v>724</v>
       </c>
       <c r="C184">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="D184" s="29">
-        <v>84.101376789</v>
+        <v>66.787775165599996</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>475</v>
+        <v>725</v>
       </c>
       <c r="B185" t="s">
-        <v>476</v>
+        <v>726</v>
       </c>
       <c r="C185">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="D185" s="29">
-        <v>72.223817810100002</v>
+        <v>62.037746091099997</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>477</v>
+        <v>727</v>
       </c>
       <c r="B186" t="s">
-        <v>478</v>
+        <v>728</v>
       </c>
       <c r="C186">
-        <v>62</v>
+        <v>279</v>
       </c>
       <c r="D186" s="29">
-        <v>139.64592999679999</v>
+        <v>98.492256531699994</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>479</v>
+        <v>729</v>
       </c>
       <c r="B187" t="s">
-        <v>480</v>
+        <v>730</v>
       </c>
       <c r="C187">
-        <v>210</v>
+        <v>410</v>
       </c>
       <c r="D187" s="29">
-        <v>170.65123762779999</v>
+        <v>90.762180948799994</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>481</v>
+        <v>731</v>
       </c>
       <c r="B188" t="s">
-        <v>482</v>
+        <v>732</v>
       </c>
       <c r="C188">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D188" s="29">
-        <v>98.335526601200002</v>
+        <v>76.862065299999998</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>483</v>
+        <v>733</v>
       </c>
       <c r="B189" t="s">
-        <v>484</v>
+        <v>734</v>
       </c>
       <c r="C189">
-        <v>127</v>
+        <v>574</v>
       </c>
       <c r="D189" s="29">
-        <v>51.459922040199999</v>
+        <v>104.6767149018</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>485</v>
+        <v>735</v>
       </c>
       <c r="B190" t="s">
-        <v>486</v>
+        <v>736</v>
       </c>
       <c r="C190">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="D190" s="29">
-        <v>49.366463715599998</v>
+        <v>76.321559547000007</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>487</v>
+        <v>737</v>
       </c>
       <c r="B191" t="s">
-        <v>488</v>
+        <v>738</v>
       </c>
       <c r="C191">
-        <v>394</v>
+        <v>527</v>
       </c>
       <c r="D191" s="29">
-        <v>126.0941225417</v>
+        <v>87.721634452100005</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>489</v>
+        <v>739</v>
       </c>
       <c r="B192" t="s">
-        <v>490</v>
+        <v>740</v>
       </c>
       <c r="C192">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D192" s="29">
-        <v>78.911373759300005</v>
+        <v>138.13021912479999</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>491</v>
+        <v>741</v>
       </c>
       <c r="B193" t="s">
-        <v>492</v>
+        <v>742</v>
       </c>
       <c r="C193">
-        <v>1194</v>
+        <v>82</v>
       </c>
       <c r="D193" s="29">
-        <v>109.75646749640001</v>
+        <v>129.03022769110001</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>493</v>
+        <v>743</v>
       </c>
       <c r="B194" t="s">
-        <v>494</v>
+        <v>744</v>
       </c>
       <c r="C194">
-        <v>351</v>
+        <v>270</v>
       </c>
       <c r="D194" s="29">
-        <v>122.5965316708</v>
+        <v>103.3176443577</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>495</v>
+        <v>745</v>
       </c>
       <c r="B195" t="s">
-        <v>496</v>
+        <v>746</v>
       </c>
       <c r="C195">
-        <v>346</v>
+        <v>55</v>
       </c>
       <c r="D195" s="29">
-        <v>152.14341935740001</v>
+        <v>26.291762073899999</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>497</v>
+        <v>747</v>
       </c>
       <c r="B196" t="s">
-        <v>498</v>
+        <v>748</v>
       </c>
       <c r="C196">
         <v>164</v>
       </c>
       <c r="D196" s="29">
-        <v>245.71865214330001</v>
+        <v>75.998405887100006</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>499</v>
+        <v>749</v>
       </c>
       <c r="B197" t="s">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="C197">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="D197" s="29">
-        <v>279.46231450689999</v>
+        <v>76.9315309375</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>501</v>
+        <v>751</v>
       </c>
       <c r="B198" t="s">
-        <v>502</v>
+        <v>752</v>
       </c>
       <c r="C198">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="D198" s="29">
-        <v>58.3887551802</v>
+        <v>133.3343852811</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>503</v>
+        <v>753</v>
       </c>
       <c r="B199" t="s">
-        <v>504</v>
+        <v>754</v>
       </c>
       <c r="C199">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D199" s="29">
-        <v>118.5792055193</v>
+        <v>79.011045085700005</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>505</v>
+        <v>755</v>
       </c>
       <c r="B200" t="s">
-        <v>506</v>
+        <v>756</v>
       </c>
       <c r="C200">
-        <v>441</v>
+        <v>71</v>
       </c>
       <c r="D200" s="29">
-        <v>174.08879712929999</v>
+        <v>50.758518137199999</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>507</v>
+        <v>757</v>
       </c>
       <c r="B201" t="s">
-        <v>508</v>
+        <v>758</v>
       </c>
       <c r="C201">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="D201" s="29">
-        <v>40.528145730699997</v>
+        <v>144.6654611212</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>509</v>
+        <v>759</v>
       </c>
       <c r="B202" t="s">
-        <v>510</v>
+        <v>760</v>
       </c>
       <c r="C202">
-        <v>50</v>
+        <v>263</v>
       </c>
       <c r="D202" s="29">
-        <v>41.562068793500003</v>
+        <v>143.07863884880001</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>511</v>
+        <v>761</v>
       </c>
       <c r="B203" t="s">
-        <v>512</v>
+        <v>762</v>
       </c>
       <c r="C203">
-        <v>100</v>
+        <v>344</v>
       </c>
       <c r="D203" s="29">
-        <v>136.21936766970001</v>
+        <v>428.32951489189998</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>513</v>
+        <v>763</v>
       </c>
       <c r="B204" t="s">
-        <v>514</v>
+        <v>764</v>
       </c>
       <c r="C204">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="D204" s="29">
-        <v>134.46324150219999</v>
+        <v>176.35829804549999</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>515</v>
+        <v>765</v>
       </c>
       <c r="B205" t="s">
-        <v>516</v>
+        <v>766</v>
       </c>
       <c r="C205">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="D205" s="29">
-        <v>110.0986202535</v>
+        <v>56.093331069000001</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>517</v>
+        <v>993</v>
       </c>
       <c r="B206" t="s">
-        <v>518</v>
+        <v>767</v>
       </c>
       <c r="C206">
-        <v>500</v>
+        <v>76</v>
       </c>
       <c r="D206" s="29">
-        <v>84.296419931000003</v>
+        <v>53.447354355999998</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>519</v>
+        <v>768</v>
       </c>
       <c r="B207" t="s">
-        <v>520</v>
+        <v>769</v>
       </c>
       <c r="C207">
-        <v>346</v>
+        <v>272</v>
       </c>
       <c r="D207" s="29">
-        <v>134.03631376889999</v>
+        <v>110.75549909199999</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>521</v>
+        <v>770</v>
       </c>
       <c r="B208" t="s">
-        <v>522</v>
+        <v>771</v>
       </c>
       <c r="C208">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D208" s="29">
-        <v>106.2731709105</v>
+        <v>159.1700146705</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>523</v>
+        <v>772</v>
       </c>
       <c r="B209" t="s">
-        <v>524</v>
+        <v>773</v>
       </c>
       <c r="C209">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="D209" s="29">
-        <v>122.7986102791</v>
+        <v>80.898876404500001</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>525</v>
+        <v>774</v>
       </c>
       <c r="B210" t="s">
-        <v>526</v>
+        <v>775</v>
       </c>
       <c r="C210">
-        <v>178</v>
+        <v>65</v>
       </c>
       <c r="D210" s="29">
-        <v>103.5413467355</v>
+        <v>74.706632799700003</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>527</v>
+        <v>776</v>
       </c>
       <c r="B211" t="s">
-        <v>528</v>
+        <v>777</v>
       </c>
       <c r="C211">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="D211" s="29">
-        <v>106.1221502543</v>
+        <v>95.044987961000004</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>529</v>
+        <v>778</v>
       </c>
       <c r="B212" t="s">
-        <v>530</v>
+        <v>779</v>
       </c>
       <c r="C212">
-        <v>618</v>
+        <v>96</v>
       </c>
       <c r="D212" s="29">
-        <v>177.83456206080001</v>
+        <v>47.724154387600002</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>531</v>
+        <v>780</v>
       </c>
       <c r="B213" t="s">
-        <v>532</v>
+        <v>781</v>
       </c>
       <c r="C213">
-        <v>215</v>
+        <v>378</v>
       </c>
       <c r="D213" s="29">
-        <v>93.994823726899995</v>
+        <v>302.60334945080001</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>533</v>
+        <v>782</v>
       </c>
       <c r="B214" t="s">
-        <v>534</v>
+        <v>783</v>
       </c>
       <c r="C214">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="D214" s="29">
-        <v>48.030296032899997</v>
+        <v>95.166052560899999</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>535</v>
+        <v>784</v>
       </c>
       <c r="B215" t="s">
-        <v>536</v>
+        <v>785</v>
       </c>
       <c r="C215">
-        <v>20</v>
+        <v>695</v>
       </c>
       <c r="D215" s="29">
-        <v>41.312071387300001</v>
+        <v>353.22040445009998</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>537</v>
+        <v>786</v>
       </c>
       <c r="B216" t="s">
-        <v>538</v>
+        <v>787</v>
       </c>
       <c r="C216">
-        <v>526</v>
+        <v>145</v>
       </c>
       <c r="D216" s="29">
-        <v>96.438910716999999</v>
+        <v>80.702164487700003</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>539</v>
+        <v>788</v>
       </c>
       <c r="B217" t="s">
-        <v>540</v>
+        <v>789</v>
       </c>
       <c r="C217">
-        <v>271</v>
+        <v>410</v>
       </c>
       <c r="D217" s="29">
-        <v>157.3267229018</v>
+        <v>277.26682536250001</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>541</v>
+        <v>790</v>
       </c>
       <c r="B218" t="s">
-        <v>542</v>
+        <v>791</v>
       </c>
       <c r="C218">
-        <v>249</v>
+        <v>125</v>
       </c>
       <c r="D218" s="29">
-        <v>117.575396994</v>
+        <v>58.821868559000002</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>543</v>
+        <v>792</v>
       </c>
       <c r="B219" t="s">
-        <v>544</v>
+        <v>793</v>
       </c>
       <c r="C219">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D219" s="29">
-        <v>57.565208891099999</v>
+        <v>181.5595402987</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>545</v>
+        <v>794</v>
       </c>
       <c r="B220" t="s">
-        <v>546</v>
+        <v>795</v>
       </c>
       <c r="C220">
-        <v>224</v>
+        <v>69</v>
       </c>
       <c r="D220" s="29">
-        <v>94.289983793900007</v>
+        <v>59.768721036000002</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>547</v>
+        <v>796</v>
       </c>
       <c r="B221" t="s">
-        <v>548</v>
+        <v>797</v>
       </c>
       <c r="C221">
-        <v>618</v>
+        <v>81</v>
       </c>
       <c r="D221" s="29">
-        <v>146.94972322090001</v>
+        <v>84.681086845199999</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>549</v>
+        <v>798</v>
       </c>
       <c r="B222" t="s">
-        <v>550</v>
+        <v>799</v>
       </c>
       <c r="C222">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c r="D222" s="29">
-        <v>119.69118090009999</v>
+        <v>84.423198340400006</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>551</v>
+        <v>800</v>
       </c>
       <c r="B223" t="s">
-        <v>552</v>
+        <v>801</v>
       </c>
       <c r="C223">
-        <v>242</v>
+        <v>493</v>
       </c>
       <c r="D223" s="29">
-        <v>182.7808367133</v>
+        <v>178.0143278063</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>553</v>
+        <v>802</v>
       </c>
       <c r="B224" t="s">
-        <v>554</v>
+        <v>803</v>
       </c>
       <c r="C224">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="D224" s="29">
-        <v>85.094610115799995</v>
+        <v>188.00296524999999</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>555</v>
+        <v>804</v>
       </c>
       <c r="B225" t="s">
-        <v>556</v>
+        <v>805</v>
       </c>
       <c r="C225">
-        <v>126</v>
+        <v>247</v>
       </c>
       <c r="D225" s="29">
-        <v>57.645325696100002</v>
+        <v>81.846347565299993</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>557</v>
+        <v>806</v>
       </c>
       <c r="B226" t="s">
-        <v>558</v>
+        <v>807</v>
       </c>
       <c r="C226">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="D226" s="29">
-        <v>42.569897406499997</v>
+        <v>141.91968350650001</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>559</v>
+        <v>808</v>
       </c>
       <c r="B227" t="s">
-        <v>560</v>
+        <v>809</v>
       </c>
       <c r="C227">
-        <v>449</v>
+        <v>162</v>
       </c>
       <c r="D227" s="29">
-        <v>144.53192900229999</v>
+        <v>233.33861465999999</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>561</v>
+        <v>810</v>
       </c>
       <c r="B228" t="s">
-        <v>562</v>
+        <v>811</v>
       </c>
       <c r="C228">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="D228" s="29">
-        <v>101.5250996725</v>
+        <v>107.4206906111</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>563</v>
+        <v>812</v>
       </c>
       <c r="B229" t="s">
-        <v>564</v>
+        <v>813</v>
       </c>
       <c r="C229">
-        <v>365</v>
+        <v>60</v>
       </c>
       <c r="D229" s="29">
-        <v>147.7230415567</v>
+        <v>118.6685389925</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>565</v>
+        <v>991</v>
       </c>
       <c r="B230" t="s">
-        <v>566</v>
+        <v>992</v>
       </c>
       <c r="C230">
-        <v>883</v>
+        <v>158</v>
       </c>
       <c r="D230" s="29">
-        <v>215.2493040354</v>
+        <v>138.93774182199999</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>567</v>
+        <v>814</v>
       </c>
       <c r="B231" t="s">
-        <v>568</v>
+        <v>815</v>
       </c>
       <c r="C231">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="D231" s="29">
-        <v>105.2357331508</v>
+        <v>68.944609607299995</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>569</v>
+        <v>816</v>
       </c>
       <c r="B232" t="s">
-        <v>570</v>
+        <v>817</v>
       </c>
       <c r="C232">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D232" s="29">
-        <v>71.350625367199996</v>
+        <v>51.108258242700003</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>571</v>
+        <v>818</v>
       </c>
       <c r="B233" t="s">
-        <v>572</v>
+        <v>819</v>
       </c>
       <c r="C233">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="D233" s="29">
-        <v>60.060292784200001</v>
+        <v>65.121792385899994</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>573</v>
+        <v>820</v>
       </c>
       <c r="B234" t="s">
-        <v>574</v>
+        <v>821</v>
       </c>
       <c r="C234">
-        <v>341</v>
+        <v>57</v>
       </c>
       <c r="D234" s="29">
-        <v>141.07406595320001</v>
+        <v>43.507132879899999</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>575</v>
+        <v>822</v>
       </c>
       <c r="B235" t="s">
-        <v>576</v>
+        <v>823</v>
       </c>
       <c r="C235">
-        <v>33</v>
+        <v>426</v>
       </c>
       <c r="D235" s="29">
-        <v>74.829931972799997</v>
+        <v>95.042613002500005</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>577</v>
+        <v>824</v>
       </c>
       <c r="B236" t="s">
-        <v>578</v>
+        <v>825</v>
       </c>
       <c r="C236">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="D236" s="29">
-        <v>39.712135447400001</v>
+        <v>140.30038672539999</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>579</v>
+        <v>826</v>
       </c>
       <c r="B237" t="s">
-        <v>580</v>
+        <v>827</v>
       </c>
       <c r="C237">
-        <v>506</v>
+        <v>186</v>
       </c>
       <c r="D237" s="29">
-        <v>104.20742632370001</v>
+        <v>76.180802437799997</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>581</v>
+        <v>828</v>
       </c>
       <c r="B238" t="s">
-        <v>582</v>
+        <v>829</v>
       </c>
       <c r="C238">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D238" s="29">
-        <v>53.994600539899999</v>
+        <v>138.10131614740001</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>583</v>
+        <v>830</v>
       </c>
       <c r="B239" t="s">
-        <v>584</v>
+        <v>831</v>
       </c>
       <c r="C239">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="D239" s="29">
-        <v>80.781091010799997</v>
+        <v>166.13924050630001</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>585</v>
+        <v>832</v>
       </c>
       <c r="B240" t="s">
-        <v>586</v>
+        <v>833</v>
       </c>
       <c r="C240">
-        <v>501</v>
+        <v>571</v>
       </c>
       <c r="D240" s="29">
-        <v>161.39995940840001</v>
+        <v>89.792439508000001</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>587</v>
+        <v>834</v>
       </c>
       <c r="B241" t="s">
-        <v>588</v>
+        <v>835</v>
       </c>
       <c r="C241">
-        <v>488</v>
+        <v>63</v>
       </c>
       <c r="D241" s="29">
-        <v>160.47405614620001</v>
+        <v>57.002741560399997</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>589</v>
+        <v>836</v>
       </c>
       <c r="B242" t="s">
-        <v>590</v>
+        <v>837</v>
       </c>
       <c r="C242">
-        <v>259</v>
+        <v>89</v>
       </c>
       <c r="D242" s="29">
-        <v>99.220791161299999</v>
+        <v>93.851166812499997</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>591</v>
+        <v>838</v>
       </c>
       <c r="B243" t="s">
-        <v>592</v>
+        <v>839</v>
       </c>
       <c r="C243">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="D243" s="29">
-        <v>104.4255730461</v>
+        <v>190.2742667645</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>593</v>
+        <v>840</v>
       </c>
       <c r="B244" t="s">
-        <v>594</v>
+        <v>841</v>
       </c>
       <c r="C244">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="D244" s="29">
-        <v>127.7603263163</v>
+        <v>117.0608893098</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>595</v>
+        <v>842</v>
       </c>
       <c r="B245" t="s">
-        <v>596</v>
+        <v>843</v>
       </c>
       <c r="C245">
-        <v>1187</v>
+        <v>128</v>
       </c>
       <c r="D245" s="29">
-        <v>79.974343529899997</v>
+        <v>177.66427004970001</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>597</v>
+        <v>844</v>
       </c>
       <c r="B246" t="s">
-        <v>598</v>
+        <v>845</v>
       </c>
       <c r="C246">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="D246" s="29">
-        <v>82.459989785199994</v>
+        <v>140.9888393235</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>599</v>
+        <v>846</v>
       </c>
       <c r="B247" t="s">
-        <v>600</v>
+        <v>847</v>
       </c>
       <c r="C247">
-        <v>247</v>
+        <v>55</v>
       </c>
       <c r="D247" s="29">
-        <v>78.339829936000001</v>
+        <v>49.314970231700002</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>601</v>
+        <v>848</v>
       </c>
       <c r="B248" t="s">
-        <v>602</v>
+        <v>849</v>
       </c>
       <c r="C248">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D248" s="29">
-        <v>55.697506840400003</v>
+        <v>65.596594331899993</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>603</v>
+        <v>850</v>
       </c>
       <c r="B249" t="s">
-        <v>604</v>
+        <v>851</v>
       </c>
       <c r="C249">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="D249" s="29">
-        <v>105.85490683739999</v>
+        <v>70.404673820799999</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>605</v>
+        <v>852</v>
       </c>
       <c r="B250" t="s">
-        <v>606</v>
+        <v>853</v>
       </c>
       <c r="C250">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="D250" s="29">
-        <v>89.914024358500001</v>
+        <v>112.2430132276</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>607</v>
+        <v>854</v>
       </c>
       <c r="B251" t="s">
-        <v>608</v>
+        <v>855</v>
       </c>
       <c r="C251">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D251" s="29">
-        <v>82.298368995999994</v>
+        <v>46.239081271499998</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>609</v>
+        <v>856</v>
       </c>
       <c r="B252" t="s">
-        <v>610</v>
+        <v>857</v>
       </c>
       <c r="C252">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="D252" s="29">
-        <v>77.620845001800006</v>
+        <v>30.306638236200001</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>611</v>
+        <v>858</v>
       </c>
       <c r="B253" t="s">
-        <v>612</v>
+        <v>859</v>
       </c>
       <c r="C253">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D253" s="29">
-        <v>65.337477973399999</v>
+        <v>66.251281646799995</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>613</v>
+        <v>860</v>
       </c>
       <c r="B254" t="s">
-        <v>614</v>
+        <v>861</v>
       </c>
       <c r="C254">
-        <v>114</v>
+        <v>292</v>
       </c>
       <c r="D254" s="29">
-        <v>120.6987824246</v>
+        <v>73.944455558599998</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>615</v>
+        <v>862</v>
       </c>
       <c r="B255" t="s">
-        <v>616</v>
+        <v>863</v>
       </c>
       <c r="C255">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="D255" s="29">
-        <v>35.671372784600003</v>
+        <v>108.57657093669999</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>617</v>
+        <v>864</v>
       </c>
       <c r="B256" t="s">
-        <v>618</v>
+        <v>865</v>
       </c>
       <c r="C256">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c r="D256" s="29">
-        <v>37.670372822499999</v>
+        <v>162.37675535459999</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>619</v>
+        <v>866</v>
       </c>
       <c r="B257" t="s">
-        <v>620</v>
+        <v>867</v>
       </c>
       <c r="C257">
-        <v>242</v>
+        <v>167</v>
       </c>
       <c r="D257" s="29">
-        <v>132.37715454760001</v>
+        <v>116.935314465</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>621</v>
+        <v>868</v>
       </c>
       <c r="B258" t="s">
-        <v>622</v>
+        <v>869</v>
       </c>
       <c r="C258">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D258" s="29">
-        <v>44.484718675300002</v>
+        <v>64.9004980566</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>623</v>
+        <v>870</v>
       </c>
       <c r="B259" t="s">
-        <v>624</v>
+        <v>871</v>
       </c>
       <c r="C259">
-        <v>42</v>
+        <v>271</v>
       </c>
       <c r="D259" s="29">
-        <v>25.308675452399999</v>
+        <v>90.676999160199998</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>625</v>
+        <v>872</v>
       </c>
       <c r="B260" t="s">
-        <v>626</v>
+        <v>873</v>
       </c>
       <c r="C260">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D260" s="29">
-        <v>59.940538985300002</v>
+        <v>80.459661312199998</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>627</v>
+        <v>874</v>
       </c>
       <c r="B261" t="s">
-        <v>628</v>
+        <v>875</v>
       </c>
       <c r="C261">
-        <v>440</v>
+        <v>911</v>
       </c>
       <c r="D261" s="29">
-        <v>222.51328758330001</v>
+        <v>403.10269605349998</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>629</v>
+        <v>876</v>
       </c>
       <c r="B262" t="s">
-        <v>630</v>
+        <v>877</v>
       </c>
       <c r="C262">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c r="D262" s="29">
-        <v>84.539988050000005</v>
+        <v>104.4040692123</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>631</v>
+        <v>878</v>
       </c>
       <c r="B263" t="s">
-        <v>632</v>
+        <v>879</v>
       </c>
       <c r="C263">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="D263" s="29">
-        <v>46.112560002999999</v>
+        <v>47.1735899102</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>633</v>
+        <v>880</v>
       </c>
       <c r="B264" t="s">
-        <v>634</v>
+        <v>881</v>
       </c>
       <c r="C264">
-        <v>777</v>
+        <v>58</v>
       </c>
       <c r="D264" s="29">
-        <v>149.89293361879999</v>
+        <v>95.636975233300006</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>635</v>
+        <v>882</v>
       </c>
       <c r="B265" t="s">
-        <v>636</v>
+        <v>883</v>
       </c>
       <c r="C265">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="D265" s="29">
-        <v>103.63483067120001</v>
+        <v>79.280846003400001</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>637</v>
+        <v>884</v>
       </c>
       <c r="B266" t="s">
-        <v>638</v>
+        <v>885</v>
       </c>
       <c r="C266">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D266" s="29">
-        <v>103.84082867550001</v>
+        <v>95.904750209100001</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>639</v>
+        <v>886</v>
       </c>
       <c r="B267" t="s">
-        <v>640</v>
+        <v>887</v>
       </c>
       <c r="C267">
-        <v>385</v>
+        <v>228</v>
       </c>
       <c r="D267" s="29">
-        <v>141.51446204289999</v>
+        <v>82.061618197499996</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>641</v>
+        <v>888</v>
       </c>
       <c r="B268" t="s">
-        <v>642</v>
+        <v>889</v>
       </c>
       <c r="C268">
-        <v>245</v>
+        <v>458</v>
       </c>
       <c r="D268" s="29">
-        <v>116.2437607941</v>
+        <v>384.9580580631</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>643</v>
+        <v>890</v>
       </c>
       <c r="B269" t="s">
-        <v>644</v>
+        <v>891</v>
       </c>
       <c r="C269">
-        <v>315</v>
+        <v>60</v>
       </c>
       <c r="D269" s="29">
-        <v>147.94705843669999</v>
+        <v>140.3738623868</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>645</v>
+        <v>892</v>
       </c>
       <c r="B270" t="s">
-        <v>646</v>
+        <v>893</v>
       </c>
       <c r="C270">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="D270" s="29">
-        <v>196.57861773229999</v>
+        <v>84.884630715</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>647</v>
+        <v>894</v>
       </c>
       <c r="B271" t="s">
-        <v>648</v>
+        <v>895</v>
       </c>
       <c r="C271">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D271" s="29">
-        <v>103.409408188</v>
+        <v>68.988777825499994</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>649</v>
+        <v>896</v>
       </c>
       <c r="B272" t="s">
-        <v>650</v>
+        <v>897</v>
       </c>
       <c r="C272">
-        <v>253</v>
+        <v>104</v>
       </c>
       <c r="D272" s="29">
-        <v>141.49650732929999</v>
+        <v>126.5884415015</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>651</v>
+        <v>898</v>
       </c>
       <c r="B273" t="s">
-        <v>652</v>
+        <v>899</v>
       </c>
       <c r="C273">
-        <v>246</v>
+        <v>90</v>
       </c>
       <c r="D273" s="29">
-        <v>188.82407123120001</v>
+        <v>95.0028500855</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>653</v>
+        <v>900</v>
       </c>
       <c r="B274" t="s">
-        <v>654</v>
+        <v>901</v>
       </c>
       <c r="C274">
-        <v>490</v>
+        <v>108</v>
       </c>
       <c r="D274" s="29">
-        <v>137.71278733490001</v>
+        <v>107.3249262141</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>655</v>
+        <v>902</v>
       </c>
       <c r="B275" t="s">
-        <v>656</v>
+        <v>903</v>
       </c>
       <c r="C275">
-        <v>155</v>
+        <v>475</v>
       </c>
       <c r="D275" s="29">
-        <v>91.674207609600003</v>
+        <v>103.2662573699</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>657</v>
+        <v>904</v>
       </c>
       <c r="B276" t="s">
-        <v>658</v>
+        <v>905</v>
       </c>
       <c r="C276">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="D276" s="29">
-        <v>88.624035449600001</v>
+        <v>100.4707449511</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>659</v>
+        <v>906</v>
       </c>
       <c r="B277" t="s">
-        <v>660</v>
+        <v>907</v>
       </c>
       <c r="C277">
-        <v>105</v>
+        <v>227</v>
       </c>
       <c r="D277" s="29">
-        <v>78.384532118999999</v>
+        <v>112.4296695459</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>661</v>
+        <v>908</v>
       </c>
       <c r="B278" t="s">
-        <v>662</v>
+        <v>909</v>
       </c>
       <c r="C278">
-        <v>456</v>
+        <v>336</v>
       </c>
       <c r="D278" s="29">
-        <v>105.812002701</v>
+        <v>108.9709702632</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>663</v>
+        <v>910</v>
       </c>
       <c r="B279" t="s">
-        <v>664</v>
+        <v>911</v>
       </c>
       <c r="C279">
-        <v>285</v>
+        <v>203</v>
       </c>
       <c r="D279" s="29">
-        <v>172.46491700499999</v>
+        <v>72.8972902318</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>665</v>
+        <v>912</v>
       </c>
       <c r="B280" t="s">
-        <v>666</v>
+        <v>913</v>
       </c>
       <c r="C280">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="D280" s="29">
-        <v>93.833780160900005</v>
+        <v>64.398270446500007</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>667</v>
+        <v>914</v>
       </c>
       <c r="B281" t="s">
-        <v>668</v>
+        <v>915</v>
       </c>
       <c r="C281">
-        <v>346</v>
+        <v>144</v>
       </c>
       <c r="D281" s="29">
-        <v>110.1823103256</v>
+        <v>115.24333149260001</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>669</v>
+        <v>916</v>
       </c>
       <c r="B282" t="s">
-        <v>670</v>
+        <v>917</v>
       </c>
       <c r="C282">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="D282" s="29">
-        <v>177.0763978411</v>
+        <v>49.186663387599999</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>671</v>
+        <v>918</v>
       </c>
       <c r="B283" t="s">
-        <v>672</v>
+        <v>919</v>
       </c>
       <c r="C283">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D283" s="29">
-        <v>63.197809142600001</v>
+        <v>50.993964320899998</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>673</v>
+        <v>920</v>
       </c>
       <c r="B284" t="s">
-        <v>674</v>
+        <v>921</v>
       </c>
       <c r="C284">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D284" s="29">
-        <v>38.396521374899997</v>
+        <v>60.303446944999997</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>675</v>
+        <v>922</v>
       </c>
       <c r="B285" t="s">
-        <v>676</v>
+        <v>923</v>
       </c>
       <c r="C285">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D285" s="29">
-        <v>82.944740595400006</v>
+        <v>102.9422326494</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>677</v>
+        <v>924</v>
       </c>
       <c r="B286" t="s">
-        <v>678</v>
+        <v>925</v>
       </c>
       <c r="C286">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="D286" s="29">
-        <v>63.994490626599998</v>
+        <v>210.58426811640001</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>679</v>
+        <v>926</v>
       </c>
       <c r="B287" t="s">
-        <v>680</v>
+        <v>927</v>
       </c>
       <c r="C287">
-        <v>84</v>
+        <v>540</v>
       </c>
       <c r="D287" s="29">
-        <v>159.08187034829999</v>
+        <v>152.06983948179999</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>681</v>
+        <v>928</v>
       </c>
       <c r="B288" t="s">
-        <v>682</v>
+        <v>929</v>
       </c>
       <c r="C288">
-        <v>214</v>
+        <v>95</v>
       </c>
       <c r="D288" s="29">
-        <v>111.078814052</v>
+        <v>74.257038785600002</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>683</v>
+        <v>930</v>
       </c>
       <c r="B289" t="s">
-        <v>684</v>
+        <v>931</v>
       </c>
       <c r="C289">
-        <v>208</v>
+        <v>84</v>
       </c>
       <c r="D289" s="29">
-        <v>154.3015259531</v>
+        <v>51.755369619600003</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>685</v>
+        <v>932</v>
       </c>
       <c r="B290" t="s">
-        <v>686</v>
+        <v>933</v>
       </c>
       <c r="C290">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="D290" s="29">
-        <v>130.23778143449999</v>
+        <v>93.999355734800005</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>687</v>
+        <v>934</v>
       </c>
       <c r="B291" t="s">
-        <v>688</v>
+        <v>935</v>
       </c>
       <c r="C291">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="D291" s="29">
-        <v>83.361782195499998</v>
+        <v>32.170327260000001</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>689</v>
+        <v>936</v>
       </c>
       <c r="B292" t="s">
-        <v>690</v>
+        <v>937</v>
       </c>
       <c r="C292">
-        <v>281</v>
+        <v>773</v>
       </c>
       <c r="D292" s="29">
-        <v>88.895075339399995</v>
+        <v>245.3952673316</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>691</v>
+        <v>117</v>
       </c>
       <c r="B293" t="s">
-        <v>692</v>
+        <v>118</v>
       </c>
       <c r="C293">
-        <v>35</v>
+        <v>515</v>
       </c>
       <c r="D293" s="29">
-        <v>86.997588923999999</v>
+        <v>92.455289340199997</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>693</v>
+        <v>119</v>
       </c>
       <c r="B294" t="s">
-        <v>694</v>
+        <v>120</v>
       </c>
       <c r="C294">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="D294" s="29">
-        <v>20.204218019100001</v>
+        <v>66.1101117722</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>695</v>
+        <v>121</v>
       </c>
       <c r="B295" t="s">
-        <v>696</v>
+        <v>122</v>
       </c>
       <c r="C295">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="D295" s="29">
-        <v>98.151208313500007</v>
+        <v>92.829824365999997</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>697</v>
+        <v>123</v>
       </c>
       <c r="B296" t="s">
-        <v>698</v>
+        <v>124</v>
       </c>
       <c r="C296">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="D296" s="29">
-        <v>106.20318978970001</v>
+        <v>81.186953256600006</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>699</v>
+        <v>125</v>
       </c>
       <c r="B297" t="s">
-        <v>700</v>
+        <v>126</v>
       </c>
       <c r="C297">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="D297" s="29">
-        <v>64.339924893000003</v>
+        <v>203.59535981560001</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>701</v>
+        <v>127</v>
       </c>
       <c r="B298" t="s">
-        <v>702</v>
+        <v>128</v>
       </c>
       <c r="C298">
-        <v>475</v>
+        <v>253</v>
       </c>
       <c r="D298" s="29">
-        <v>205.25451559929999</v>
+        <v>196.42094639179999</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>703</v>
+        <v>129</v>
       </c>
       <c r="B299" t="s">
-        <v>704</v>
+        <v>130</v>
       </c>
       <c r="C299">
-        <v>238</v>
+        <v>41</v>
       </c>
       <c r="D299" s="29">
-        <v>83.384718874399994</v>
+        <v>49.294843278499997</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>705</v>
+        <v>131</v>
       </c>
       <c r="B300" t="s">
-        <v>706</v>
+        <v>132</v>
       </c>
       <c r="C300">
-        <v>620</v>
+        <v>121</v>
       </c>
       <c r="D300" s="29">
-        <v>100.9546729801</v>
+        <v>108.50460920410001</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>707</v>
+        <v>133</v>
       </c>
       <c r="B301" t="s">
-        <v>708</v>
+        <v>134</v>
       </c>
       <c r="C301">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="D301" s="29">
-        <v>94.303061619900006</v>
+        <v>103.32569956899999</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>709</v>
+        <v>135</v>
       </c>
       <c r="B302" t="s">
-        <v>710</v>
+        <v>136</v>
       </c>
       <c r="C302">
-        <v>272</v>
+        <v>102</v>
       </c>
       <c r="D302" s="29">
-        <v>177.66862189240001</v>
+        <v>241.66607434790001</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>711</v>
+        <v>137</v>
       </c>
       <c r="B303" t="s">
-        <v>712</v>
+        <v>138</v>
       </c>
       <c r="C303">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="D303" s="29">
-        <v>106.6625444427</v>
+        <v>236.7805607041</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>713</v>
+        <v>139</v>
       </c>
       <c r="B304" t="s">
-        <v>714</v>
+        <v>140</v>
       </c>
       <c r="C304">
-        <v>191</v>
+        <v>112</v>
       </c>
       <c r="D304" s="29">
-        <v>171.54969552169999</v>
+        <v>89.701182934299993</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>715</v>
+        <v>141</v>
       </c>
       <c r="B305" t="s">
-        <v>716</v>
+        <v>142</v>
       </c>
       <c r="C305">
-        <v>305</v>
+        <v>129</v>
       </c>
       <c r="D305" s="29">
-        <v>71.3871100625</v>
+        <v>81.395202099900004</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>717</v>
+        <v>143</v>
       </c>
       <c r="B306" t="s">
-        <v>718</v>
+        <v>144</v>
       </c>
       <c r="C306">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="D306" s="29">
-        <v>45.604126991100003</v>
+        <v>35.886884539900002</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>719</v>
+        <v>145</v>
       </c>
       <c r="B307" t="s">
-        <v>720</v>
+        <v>146</v>
       </c>
       <c r="C307">
-        <v>329</v>
+        <v>158</v>
       </c>
       <c r="D307" s="29">
-        <v>114.6205675983</v>
+        <v>85.594638958600001</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>721</v>
+        <v>147</v>
       </c>
       <c r="B308" t="s">
-        <v>722</v>
+        <v>148</v>
       </c>
       <c r="C308">
-        <v>563</v>
+        <v>53</v>
       </c>
       <c r="D308" s="29">
-        <v>119.6306960042</v>
+        <v>74.645784625800005</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>723</v>
+        <v>149</v>
       </c>
       <c r="B309" t="s">
-        <v>724</v>
+        <v>150</v>
       </c>
       <c r="C309">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D309" s="29">
-        <v>73.733703782899994</v>
+        <v>84.385763490200006</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>725</v>
+        <v>151</v>
       </c>
       <c r="B310" t="s">
-        <v>726</v>
+        <v>152</v>
       </c>
       <c r="C310">
-        <v>70</v>
+        <v>337</v>
       </c>
       <c r="D310" s="29">
-        <v>67.853784787199999</v>
+        <v>113.6279342644</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>727</v>
+        <v>153</v>
       </c>
       <c r="B311" t="s">
-        <v>728</v>
+        <v>154</v>
       </c>
       <c r="C311">
-        <v>276</v>
+        <v>209</v>
       </c>
       <c r="D311" s="29">
-        <v>97.433200009900006</v>
+        <v>82.456168036999998</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>729</v>
+        <v>155</v>
       </c>
       <c r="B312" t="s">
-        <v>730</v>
+        <v>156</v>
       </c>
       <c r="C312">
-        <v>452</v>
+        <v>52</v>
       </c>
       <c r="D312" s="29">
-        <v>100.0597702167</v>
+        <v>27.412569717499998</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>731</v>
+        <v>157</v>
       </c>
       <c r="B313" t="s">
-        <v>732</v>
+        <v>158</v>
       </c>
       <c r="C313">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D313" s="29">
-        <v>74.409020662800003</v>
+        <v>56.530816832600003</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>733</v>
+        <v>159</v>
       </c>
       <c r="B314" t="s">
-        <v>734</v>
+        <v>160</v>
       </c>
       <c r="C314">
-        <v>571</v>
+        <v>95</v>
       </c>
       <c r="D314" s="29">
-        <v>104.12962405739999</v>
+        <v>92.023054196700002</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>735</v>
+        <v>161</v>
       </c>
       <c r="B315" t="s">
-        <v>736</v>
+        <v>162</v>
       </c>
       <c r="C315">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="D315" s="29">
-        <v>81.495902567100003</v>
+        <v>59.995579273099999</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>737</v>
+        <v>163</v>
       </c>
       <c r="B316" t="s">
-        <v>738</v>
+        <v>164</v>
       </c>
       <c r="C316">
-        <v>518</v>
+        <v>100</v>
       </c>
       <c r="D316" s="29">
-        <v>86.223542023199997</v>
+        <v>78.1756920503</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>739</v>
+        <v>165</v>
       </c>
       <c r="B317" t="s">
-        <v>740</v>
+        <v>166</v>
       </c>
       <c r="C317">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="D317" s="29">
-        <v>114.2713630941</v>
+        <v>108.72519706440001</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>741</v>
+        <v>167</v>
       </c>
       <c r="B318" t="s">
-        <v>742</v>
+        <v>168</v>
       </c>
       <c r="C318">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="D318" s="29">
-        <v>149.4862393983</v>
+        <v>60.744704225</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>743</v>
+        <v>169</v>
       </c>
       <c r="B319" t="s">
-        <v>744</v>
+        <v>170</v>
       </c>
       <c r="C319">
-        <v>287</v>
+        <v>72</v>
       </c>
       <c r="D319" s="29">
-        <v>109.8228293728</v>
+        <v>48.925341288200002</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>745</v>
+        <v>171</v>
       </c>
       <c r="B320" t="s">
-        <v>746</v>
+        <v>172</v>
       </c>
       <c r="C320">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="D320" s="29">
-        <v>23.901601885400002</v>
+        <v>89.071710824600004</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>747</v>
+        <v>173</v>
       </c>
       <c r="B321" t="s">
-        <v>748</v>
+        <v>174</v>
       </c>
       <c r="C321">
-        <v>167</v>
+        <v>287</v>
       </c>
       <c r="D321" s="29">
-        <v>77.3886206289</v>
+        <v>95.743900079400007</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>749</v>
+        <v>175</v>
       </c>
       <c r="B322" t="s">
-        <v>750</v>
+        <v>176</v>
       </c>
       <c r="C322">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D322" s="29">
-        <v>69.604718467200001</v>
+        <v>136.39463514440001</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>751</v>
+        <v>177</v>
       </c>
       <c r="B323" t="s">
-        <v>752</v>
+        <v>178</v>
       </c>
       <c r="C323">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="D323" s="29">
-        <v>130.96750270219999</v>
+        <v>115.758604723</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>753</v>
+        <v>179</v>
       </c>
       <c r="B324" t="s">
-        <v>754</v>
+        <v>180</v>
       </c>
       <c r="C324">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="D324" s="29">
-        <v>77.364981646399997</v>
+        <v>111.3953685959</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>755</v>
+        <v>181</v>
       </c>
       <c r="B325" t="s">
-        <v>756</v>
+        <v>182</v>
       </c>
       <c r="C325">
-        <v>68</v>
+        <v>270</v>
       </c>
       <c r="D325" s="29">
-        <v>48.613792018799998</v>
+        <v>99.874232448000001</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>757</v>
+        <v>183</v>
       </c>
       <c r="B326" t="s">
-        <v>758</v>
+        <v>184</v>
       </c>
       <c r="C326">
-        <v>133</v>
+        <v>329</v>
       </c>
       <c r="D326" s="29">
-        <v>160.3375527426</v>
+        <v>98.384873251000002</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>759</v>
+        <v>185</v>
       </c>
       <c r="B327" t="s">
-        <v>760</v>
+        <v>186</v>
       </c>
       <c r="C327">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D327" s="29">
-        <v>136.5503359356</v>
+        <v>87.924866783200002</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>761</v>
+        <v>187</v>
       </c>
       <c r="B328" t="s">
-        <v>762</v>
+        <v>188</v>
       </c>
       <c r="C328">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="D328" s="29">
-        <v>435.80037852380002</v>
+        <v>103.30794842980001</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>763</v>
+        <v>189</v>
       </c>
       <c r="B329" t="s">
-        <v>764</v>
+        <v>190</v>
       </c>
       <c r="C329">
-        <v>121</v>
+        <v>311</v>
       </c>
       <c r="D329" s="29">
-        <v>117.2491981511</v>
+        <v>118.2657900041</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>765</v>
+        <v>191</v>
       </c>
       <c r="B330" t="s">
-        <v>766</v>
+        <v>192</v>
       </c>
       <c r="C330">
-        <v>98</v>
+        <v>397</v>
       </c>
       <c r="D330" s="29">
-        <v>50.432536190500002</v>
+        <v>105.7995192385</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>993</v>
+        <v>193</v>
       </c>
       <c r="B331" t="s">
-        <v>767</v>
+        <v>194</v>
       </c>
       <c r="C331">
-        <v>69</v>
+        <v>273</v>
       </c>
       <c r="D331" s="29">
-        <v>48.524571717900002</v>
+        <v>85.014153455200002</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>768</v>
+        <v>195</v>
       </c>
       <c r="B332" t="s">
-        <v>769</v>
+        <v>196</v>
       </c>
       <c r="C332">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="D332" s="29">
-        <v>130.300587167</v>
+        <v>91.700248218799999</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>770</v>
+        <v>197</v>
       </c>
       <c r="B333" t="s">
-        <v>771</v>
+        <v>198</v>
       </c>
       <c r="C333">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="D333" s="29">
-        <v>191.77110201260001</v>
+        <v>102.43021460289999</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>772</v>
+        <v>199</v>
       </c>
       <c r="B334" t="s">
-        <v>773</v>
+        <v>200</v>
       </c>
       <c r="C334">
-        <v>160</v>
+        <v>281</v>
       </c>
       <c r="D334" s="29">
-        <v>84.600132187699998</v>
+        <v>117.56387567519999</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>774</v>
+        <v>201</v>
       </c>
       <c r="B335" t="s">
-        <v>775</v>
+        <v>202</v>
       </c>
       <c r="C335">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="D335" s="29">
-        <v>86.199960922700001</v>
+        <v>73.135943503299998</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>776</v>
+        <v>203</v>
       </c>
       <c r="B336" t="s">
-        <v>777</v>
+        <v>204</v>
       </c>
       <c r="C336">
-        <v>171</v>
+        <v>330</v>
       </c>
       <c r="D336" s="29">
-        <v>108.3512862755</v>
+        <v>96.555598469200007</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>778</v>
+        <v>205</v>
       </c>
       <c r="B337" t="s">
-        <v>779</v>
+        <v>206</v>
       </c>
       <c r="C337">
-        <v>99</v>
+        <v>250</v>
       </c>
       <c r="D337" s="29">
-        <v>49.2155342123</v>
+        <v>93.812854612600006</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>780</v>
+        <v>207</v>
       </c>
       <c r="B338" t="s">
-        <v>781</v>
+        <v>208</v>
       </c>
       <c r="C338">
-        <v>373</v>
+        <v>31</v>
       </c>
       <c r="D338" s="29">
-        <v>298.60065964329999</v>
+        <v>27.559720135500001</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>782</v>
+        <v>209</v>
       </c>
       <c r="B339" t="s">
-        <v>783</v>
+        <v>210</v>
       </c>
       <c r="C339">
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="D339" s="29">
-        <v>92.725897367100004</v>
+        <v>106.3184984251</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>784</v>
+        <v>211</v>
       </c>
       <c r="B340" t="s">
-        <v>785</v>
+        <v>212</v>
       </c>
       <c r="C340">
-        <v>657</v>
+        <v>227</v>
       </c>
       <c r="D340" s="29">
-        <v>333.90763413479999</v>
+        <v>67.924415386199996</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>786</v>
+        <v>213</v>
       </c>
       <c r="B341" t="s">
-        <v>787</v>
+        <v>214</v>
       </c>
       <c r="C341">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="D341" s="29">
-        <v>64.005164938500002</v>
+        <v>70.412965868200004</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>788</v>
+        <v>215</v>
       </c>
       <c r="B342" t="s">
-        <v>789</v>
+        <v>216</v>
       </c>
       <c r="C342">
-        <v>434</v>
+        <v>60</v>
       </c>
       <c r="D342" s="29">
-        <v>293.49707855439999</v>
+        <v>60.570574814799997</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>790</v>
+        <v>217</v>
       </c>
       <c r="B343" t="s">
-        <v>791</v>
+        <v>218</v>
       </c>
       <c r="C343">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="D343" s="29">
-        <v>65.409917837600005</v>
+        <v>53.970524965199999</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>792</v>
+        <v>219</v>
       </c>
       <c r="B344" t="s">
-        <v>793</v>
+        <v>220</v>
       </c>
       <c r="C344">
-        <v>101</v>
+        <v>383</v>
       </c>
       <c r="D344" s="29">
-        <v>189.0465316513</v>
+        <v>104.7630249434</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>794</v>
+        <v>221</v>
       </c>
       <c r="B345" t="s">
-        <v>795</v>
+        <v>222</v>
       </c>
       <c r="C345">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="D345" s="29">
-        <v>51.106587552500002</v>
+        <v>63.457028555699999</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>796</v>
+        <v>223</v>
       </c>
       <c r="B346" t="s">
-        <v>797</v>
+        <v>224</v>
       </c>
       <c r="C346">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="D346" s="29">
-        <v>79.453859262099996</v>
+        <v>85.235976255300002</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>798</v>
+        <v>225</v>
       </c>
       <c r="B347" t="s">
-        <v>799</v>
+        <v>226</v>
       </c>
       <c r="C347">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="D347" s="29">
-        <v>94.885902408199996</v>
+        <v>114.0864599849</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>800</v>
+        <v>227</v>
       </c>
       <c r="B348" t="s">
-        <v>801</v>
+        <v>228</v>
       </c>
       <c r="C348">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="D348" s="29">
-        <v>168.2650644174</v>
+        <v>119.8365913626</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>802</v>
+        <v>229</v>
       </c>
       <c r="B349" t="s">
-        <v>803</v>
+        <v>230</v>
       </c>
       <c r="C349">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="D349" s="29">
-        <v>170.42545223880001</v>
+        <v>97.818228214200005</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>804</v>
+        <v>231</v>
       </c>
       <c r="B350" t="s">
-        <v>805</v>
+        <v>232</v>
       </c>
       <c r="C350">
-        <v>260</v>
+        <v>66</v>
       </c>
       <c r="D350" s="29">
-        <v>86.154050068800004</v>
+        <v>91.433004543899997</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>806</v>
+        <v>233</v>
       </c>
       <c r="B351" t="s">
-        <v>807</v>
+        <v>234</v>
       </c>
       <c r="C351">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="D351" s="29">
-        <v>130.61634588210001</v>
+        <v>100.23816588210001</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>808</v>
+        <v>235</v>
       </c>
       <c r="B352" t="s">
-        <v>809</v>
+        <v>236</v>
       </c>
       <c r="C352">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="D352" s="29">
-        <v>247.74223284889999</v>
+        <v>74.354801385399995</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>810</v>
+        <v>237</v>
       </c>
       <c r="B353" t="s">
-        <v>811</v>
+        <v>238</v>
       </c>
       <c r="C353">
-        <v>57</v>
+        <v>555</v>
       </c>
       <c r="D353" s="29">
-        <v>98.7577316908</v>
+        <v>97.787190406600004</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>812</v>
+        <v>239</v>
       </c>
       <c r="B354" t="s">
-        <v>813</v>
+        <v>240</v>
       </c>
       <c r="C354">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="D354" s="29">
-        <v>118.6685389925</v>
+        <v>145.19152081519999</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>991</v>
+        <v>241</v>
       </c>
       <c r="B355" t="s">
-        <v>992</v>
+        <v>242</v>
       </c>
       <c r="C355">
-        <v>141</v>
+        <v>317</v>
       </c>
       <c r="D355" s="29">
-        <v>123.9887442842</v>
+        <v>177.24746429890001</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>814</v>
+        <v>243</v>
       </c>
       <c r="B356" t="s">
-        <v>815</v>
+        <v>244</v>
       </c>
       <c r="C356">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="D356" s="29">
-        <v>67.966671882300005</v>
+        <v>70.351316888699998</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>816</v>
+        <v>245</v>
       </c>
       <c r="B357" t="s">
-        <v>817</v>
+        <v>246</v>
       </c>
       <c r="C357">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="D357" s="29">
-        <v>67.840128500800006</v>
+        <v>137.98034757639999</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>818</v>
+        <v>247</v>
       </c>
       <c r="B358" t="s">
-        <v>819</v>
+        <v>248</v>
       </c>
       <c r="C358">
-        <v>92</v>
+        <v>357</v>
       </c>
       <c r="D358" s="29">
-        <v>67.316908983100006</v>
+        <v>278.91060797820001</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>820</v>
+        <v>249</v>
       </c>
       <c r="B359" t="s">
-        <v>821</v>
+        <v>250</v>
       </c>
       <c r="C359">
-        <v>55</v>
+        <v>449</v>
       </c>
       <c r="D359" s="29">
-        <v>41.980566813999999</v>
+        <v>182.2728490586</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>822</v>
+        <v>251</v>
       </c>
       <c r="B360" t="s">
-        <v>823</v>
+        <v>252</v>
       </c>
       <c r="C360">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="D360" s="29">
-        <v>89.241890143199996</v>
+        <v>207.4032411151</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>824</v>
+        <v>253</v>
       </c>
       <c r="B361" t="s">
-        <v>825</v>
+        <v>254</v>
       </c>
       <c r="C361">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="D361" s="29">
-        <v>146.595916899</v>
+        <v>51.129723412499999</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>826</v>
+        <v>255</v>
       </c>
       <c r="B362" t="s">
-        <v>827</v>
+        <v>256</v>
       </c>
       <c r="C362">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="D362" s="29">
-        <v>74.132931404499999</v>
+        <v>49.569437559800001</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>828</v>
+        <v>257</v>
       </c>
       <c r="B363" t="s">
-        <v>829</v>
+        <v>258</v>
       </c>
       <c r="C363">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="D363" s="29">
-        <v>121.36176267499999</v>
+        <v>9.7759674134000001</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>830</v>
+        <v>259</v>
       </c>
       <c r="B364" t="s">
-        <v>831</v>
+        <v>260</v>
       </c>
       <c r="C364">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="D364" s="29">
-        <v>178.9952531646</v>
+        <v>51.680523696000002</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>832</v>
+        <v>261</v>
       </c>
       <c r="B365" t="s">
-        <v>833</v>
+        <v>262</v>
       </c>
       <c r="C365">
-        <v>547</v>
+        <v>163</v>
       </c>
       <c r="D365" s="29">
-        <v>86.018326463899996</v>
+        <v>163.5265555087</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>834</v>
+        <v>263</v>
       </c>
       <c r="B366" t="s">
-        <v>835</v>
+        <v>264</v>
       </c>
       <c r="C366">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="D366" s="29">
-        <v>57.002741560399997</v>
+        <v>66.148920914200005</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>836</v>
+        <v>265</v>
       </c>
       <c r="B367" t="s">
-        <v>837</v>
+        <v>266</v>
       </c>
       <c r="C367">
-        <v>100</v>
+        <v>242</v>
       </c>
       <c r="D367" s="29">
-        <v>105.4507492276</v>
+        <v>156.2308342856</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>838</v>
+        <v>267</v>
       </c>
       <c r="B368" t="s">
-        <v>839</v>
+        <v>268</v>
       </c>
       <c r="C368">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="D368" s="29">
-        <v>163.0922286553</v>
+        <v>89.583174757500004</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>840</v>
+        <v>269</v>
       </c>
       <c r="B369" t="s">
-        <v>841</v>
+        <v>270</v>
       </c>
       <c r="C369">
-        <v>198</v>
+        <v>112</v>
       </c>
       <c r="D369" s="29">
-        <v>116.4726436349</v>
+        <v>70.053415729500003</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>842</v>
+        <v>271</v>
       </c>
       <c r="B370" t="s">
-        <v>843</v>
+        <v>272</v>
       </c>
       <c r="C370">
-        <v>152</v>
+        <v>335</v>
       </c>
       <c r="D370" s="29">
-        <v>210.976320684</v>
+        <v>112.4749869059</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>844</v>
+        <v>273</v>
       </c>
       <c r="B371" t="s">
-        <v>845</v>
+        <v>274</v>
       </c>
       <c r="C371">
-        <v>257</v>
+        <v>146</v>
       </c>
       <c r="D371" s="29">
-        <v>144.93652682449999</v>
+        <v>122.1982289627</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>846</v>
+        <v>275</v>
       </c>
       <c r="B372" t="s">
-        <v>847</v>
+        <v>276</v>
       </c>
       <c r="C372">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D372" s="29">
-        <v>63.661143389999999</v>
+        <v>76.071120050499999</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>848</v>
+        <v>277</v>
       </c>
       <c r="B373" t="s">
-        <v>849</v>
+        <v>278</v>
       </c>
       <c r="C373">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="D373" s="29">
-        <v>67.604653342099994</v>
+        <v>73.655168970000005</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>850</v>
+        <v>279</v>
       </c>
       <c r="B374" t="s">
-        <v>851</v>
+        <v>280</v>
       </c>
       <c r="C374">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="D374" s="29">
-        <v>69.530081599499994</v>
+        <v>59.4226331136</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>852</v>
+        <v>281</v>
       </c>
       <c r="B375" t="s">
-        <v>853</v>
+        <v>282</v>
       </c>
       <c r="C375">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="D375" s="29">
-        <v>117.2158049529</v>
+        <v>45.566578985500001</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>854</v>
+        <v>283</v>
       </c>
       <c r="B376" t="s">
-        <v>855</v>
+        <v>284</v>
       </c>
       <c r="C376">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="D376" s="29">
-        <v>42.035528428600003</v>
+        <v>116.8768035746</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>856</v>
+        <v>285</v>
       </c>
       <c r="B377" t="s">
-        <v>857</v>
+        <v>286</v>
       </c>
       <c r="C377">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="D377" s="29">
-        <v>36.800917858200002</v>
+        <v>57.8108459153</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>858</v>
+        <v>287</v>
       </c>
       <c r="B378" t="s">
-        <v>859</v>
+        <v>288</v>
       </c>
       <c r="C378">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="D378" s="29">
-        <v>61.519047243499998</v>
+        <v>183.1323860281</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>860</v>
+        <v>289</v>
       </c>
       <c r="B379" t="s">
-        <v>861</v>
+        <v>290</v>
       </c>
       <c r="C379">
-        <v>291</v>
+        <v>71</v>
       </c>
       <c r="D379" s="29">
-        <v>73.691221121799998</v>
+        <v>94.258214404200004</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>862</v>
+        <v>291</v>
       </c>
       <c r="B380" t="s">
-        <v>863</v>
+        <v>292</v>
       </c>
       <c r="C380">
-        <v>115</v>
+        <v>639</v>
       </c>
       <c r="D380" s="29">
-        <v>112.4892401596</v>
+        <v>108.62728431790001</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>864</v>
+        <v>293</v>
       </c>
       <c r="B381" t="s">
-        <v>865</v>
+        <v>294</v>
       </c>
       <c r="C381">
-        <v>225</v>
+        <v>532</v>
       </c>
       <c r="D381" s="29">
-        <v>154.80834726609999</v>
+        <v>95.549409102300004</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>866</v>
+        <v>295</v>
       </c>
       <c r="B382" t="s">
-        <v>867</v>
+        <v>296</v>
       </c>
       <c r="C382">
-        <v>191</v>
+        <v>741</v>
       </c>
       <c r="D382" s="29">
-        <v>133.74038959769999</v>
+        <v>148.590495823</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>868</v>
+        <v>297</v>
       </c>
       <c r="B383" t="s">
-        <v>869</v>
+        <v>298</v>
       </c>
       <c r="C383">
-        <v>74</v>
+        <v>403</v>
       </c>
       <c r="D383" s="29">
-        <v>53.962211867299999</v>
+        <v>152.28349670119999</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>870</v>
+        <v>299</v>
       </c>
       <c r="B384" t="s">
-        <v>871</v>
+        <v>300</v>
       </c>
       <c r="C384">
-        <v>266</v>
+        <v>478</v>
       </c>
       <c r="D384" s="29">
-        <v>89.003991795600001</v>
+        <v>76.864074407000004</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>872</v>
+        <v>301</v>
       </c>
       <c r="B385" t="s">
-        <v>873</v>
+        <v>302</v>
       </c>
       <c r="C385">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="D385" s="29">
-        <v>78.566492810699998</v>
+        <v>82.840813371500005</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>874</v>
+        <v>303</v>
       </c>
       <c r="B386" t="s">
-        <v>875</v>
+        <v>304</v>
       </c>
       <c r="C386">
-        <v>916</v>
+        <v>182</v>
       </c>
       <c r="D386" s="29">
-        <v>405.31511480239999</v>
+        <v>181.98908065520001</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>876</v>
+        <v>305</v>
       </c>
       <c r="B387" t="s">
-        <v>877</v>
+        <v>306</v>
       </c>
       <c r="C387">
-        <v>255</v>
+        <v>131</v>
       </c>
       <c r="D387" s="29">
-        <v>108.223730281</v>
+        <v>98.584447738999998</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>878</v>
+        <v>307</v>
       </c>
       <c r="B388" t="s">
-        <v>879</v>
+        <v>308</v>
       </c>
       <c r="C388">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D388" s="29">
-        <v>47.618623777300002</v>
+        <v>248.52071005920001</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>880</v>
+        <v>309</v>
       </c>
       <c r="B389" t="s">
-        <v>881</v>
+        <v>310</v>
       </c>
       <c r="C389">
-        <v>53</v>
+        <v>249</v>
       </c>
       <c r="D389" s="29">
-        <v>87.392408402900003</v>
+        <v>244.5323931767</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>882</v>
+        <v>311</v>
       </c>
       <c r="B390" t="s">
-        <v>883</v>
+        <v>312</v>
       </c>
       <c r="C390">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="D390" s="29">
-        <v>74.805314374100007</v>
+        <v>68.118526235700003</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>884</v>
+        <v>313</v>
       </c>
       <c r="B391" t="s">
-        <v>885</v>
+        <v>314</v>
       </c>
       <c r="C391">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D391" s="29">
-        <v>91.811254773300007</v>
+        <v>85.933368587999993</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>886</v>
+        <v>315</v>
       </c>
       <c r="B392" t="s">
-        <v>887</v>
+        <v>316</v>
       </c>
       <c r="C392">
-        <v>230</v>
+        <v>497</v>
       </c>
       <c r="D392" s="29">
-        <v>82.781456953599999</v>
+        <v>152.00915113440001</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>888</v>
+        <v>317</v>
       </c>
       <c r="B393" t="s">
-        <v>889</v>
+        <v>318</v>
       </c>
       <c r="C393">
-        <v>427</v>
+        <v>333</v>
       </c>
       <c r="D393" s="29">
-        <v>358.90194496279997</v>
+        <v>102.74416394639999</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>890</v>
+        <v>319</v>
       </c>
       <c r="B394" t="s">
-        <v>891</v>
+        <v>320</v>
       </c>
       <c r="C394">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="D394" s="29">
-        <v>142.71342675989999</v>
+        <v>74.665757982700001</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>892</v>
+        <v>321</v>
       </c>
       <c r="B395" t="s">
-        <v>893</v>
+        <v>322</v>
       </c>
       <c r="C395">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="D395" s="29">
-        <v>70.860213466399998</v>
+        <v>90.460407288900001</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>894</v>
+        <v>323</v>
       </c>
       <c r="B396" t="s">
-        <v>895</v>
+        <v>324</v>
       </c>
       <c r="C396">
-        <v>32</v>
+        <v>248</v>
       </c>
       <c r="D396" s="29">
-        <v>49.058686453699998</v>
+        <v>115.8981404891</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>896</v>
+        <v>325</v>
       </c>
       <c r="B397" t="s">
-        <v>897</v>
+        <v>326</v>
       </c>
       <c r="C397">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D397" s="29">
-        <v>88.855348361699996</v>
+        <v>72.870752168300001</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>898</v>
+        <v>327</v>
       </c>
       <c r="B398" t="s">
-        <v>899</v>
+        <v>328</v>
       </c>
       <c r="C398">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="D398" s="29">
-        <v>100.28078620140001</v>
+        <v>119.47953548690001</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>900</v>
+        <v>329</v>
       </c>
       <c r="B399" t="s">
-        <v>901</v>
+        <v>330</v>
       </c>
       <c r="C399">
-        <v>113</v>
+        <v>691</v>
       </c>
       <c r="D399" s="29">
-        <v>112.2936727981</v>
+        <v>206.3006795085</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>902</v>
+        <v>331</v>
       </c>
       <c r="B400" t="s">
-        <v>903</v>
+        <v>332</v>
       </c>
       <c r="C400">
-        <v>433</v>
+        <v>612</v>
       </c>
       <c r="D400" s="29">
-        <v>94.135346192</v>
+        <v>105.01750291720001</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>904</v>
+        <v>333</v>
       </c>
       <c r="B401" t="s">
-        <v>905</v>
+        <v>334</v>
       </c>
       <c r="C401">
-        <v>108</v>
+        <v>627</v>
       </c>
       <c r="D401" s="29">
-        <v>121.919555671</v>
+        <v>117.1910045157</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>906</v>
+        <v>335</v>
       </c>
       <c r="B402" t="s">
-        <v>907</v>
+        <v>336</v>
       </c>
       <c r="C402">
-        <v>239</v>
+        <v>161</v>
       </c>
       <c r="D402" s="29">
-        <v>118.3730882003</v>
+        <v>83.137109100700002</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>908</v>
+        <v>337</v>
       </c>
       <c r="B403" t="s">
-        <v>909</v>
+        <v>338</v>
       </c>
       <c r="C403">
-        <v>322</v>
+        <v>84</v>
       </c>
       <c r="D403" s="29">
-        <v>104.43051316890001</v>
+        <v>93.163568608299997</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>910</v>
+        <v>339</v>
       </c>
       <c r="B404" t="s">
-        <v>911</v>
+        <v>340</v>
       </c>
       <c r="C404">
-        <v>219</v>
+        <v>108</v>
       </c>
       <c r="D404" s="29">
-        <v>78.642889461899998</v>
+        <v>92.940801872600005</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>912</v>
+        <v>341</v>
       </c>
       <c r="B405" t="s">
-        <v>913</v>
+        <v>342</v>
       </c>
       <c r="C405">
         <v>56</v>
       </c>
       <c r="D405" s="29">
-        <v>73.598023367400003</v>
+        <v>114.8435256962</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>914</v>
+        <v>343</v>
       </c>
       <c r="B406" t="s">
-        <v>915</v>
+        <v>344</v>
       </c>
       <c r="C406">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="D406" s="29">
-        <v>120.0451369715</v>
+        <v>65.799726411699993</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>916</v>
+        <v>345</v>
       </c>
       <c r="B407" t="s">
-        <v>917</v>
+        <v>346</v>
       </c>
       <c r="C407">
-        <v>21</v>
+        <v>868</v>
       </c>
       <c r="D407" s="29">
-        <v>36.889997540700001</v>
+        <v>113.70483900550001</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>918</v>
+        <v>347</v>
       </c>
       <c r="B408" t="s">
-        <v>919</v>
+        <v>348</v>
       </c>
       <c r="C408">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="D408" s="29">
-        <v>52.665897577400003</v>
+        <v>63.1501546314</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>920</v>
+        <v>349</v>
       </c>
       <c r="B409" t="s">
-        <v>921</v>
+        <v>350</v>
       </c>
       <c r="C409">
-        <v>97</v>
+        <v>199</v>
       </c>
       <c r="D409" s="29">
-        <v>77.992458048900005</v>
+        <v>110.55125633999999</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>922</v>
+        <v>351</v>
       </c>
       <c r="B410" t="s">
-        <v>923</v>
+        <v>352</v>
       </c>
       <c r="C410">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D410" s="29">
-        <v>108.9272461756</v>
+        <v>82.880170496399998</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>924</v>
+        <v>353</v>
       </c>
       <c r="B411" t="s">
-        <v>925</v>
+        <v>354</v>
       </c>
       <c r="C411">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="D411" s="29">
-        <v>213.3370036474</v>
+        <v>126.3367448508</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>926</v>
+        <v>355</v>
       </c>
       <c r="B412" t="s">
-        <v>927</v>
+        <v>356</v>
       </c>
       <c r="C412">
-        <v>583</v>
+        <v>41</v>
       </c>
       <c r="D412" s="29">
-        <v>164.17910447759999</v>
+        <v>41.538336845499998</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>928</v>
+        <v>357</v>
       </c>
       <c r="B413" t="s">
-        <v>929</v>
+        <v>358</v>
       </c>
       <c r="C413">
-        <v>90</v>
+        <v>414</v>
       </c>
       <c r="D413" s="29">
-        <v>70.3487735864</v>
+        <v>185.5295883842</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>930</v>
+        <v>359</v>
       </c>
       <c r="B414" t="s">
-        <v>931</v>
+        <v>360</v>
       </c>
       <c r="C414">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="D414" s="29">
-        <v>51.755369619600003</v>
+        <v>73.867703854300004</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>932</v>
+        <v>361</v>
       </c>
       <c r="B415" t="s">
-        <v>933</v>
+        <v>362</v>
       </c>
       <c r="C415">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="D415" s="29">
-        <v>81.325285298599994</v>
+        <v>138.52463481640001</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>934</v>
+        <v>363</v>
       </c>
       <c r="B416" t="s">
-        <v>935</v>
+        <v>364</v>
       </c>
       <c r="C416">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="D416" s="29">
-        <v>32.170327260000001</v>
+        <v>90.791070231600003</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>936</v>
+        <v>365</v>
       </c>
       <c r="B417" t="s">
-        <v>937</v>
+        <v>366</v>
       </c>
       <c r="C417">
-        <v>699</v>
+        <v>108</v>
       </c>
       <c r="D417" s="29">
-        <v>221.9033529946</v>
+        <v>122.13878585</v>
       </c>
     </row>
   </sheetData>
@@ -9833,7 +9833,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J399" sqref="J399"/>
+      <selection pane="bottomLeft" activeCell="J400" sqref="J400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19013,7 +19013,7 @@
         <v>2052028</v>
       </c>
       <c r="D333" s="3">
-        <f t="shared" ref="D333:D396" si="175">B333-B332</f>
+        <f t="shared" ref="D333:D397" si="175">B333-B332</f>
         <v>11369</v>
       </c>
       <c r="E333" s="3">
@@ -20820,15 +20820,15 @@
         <v>74664</v>
       </c>
       <c r="F394" s="3">
-        <f t="shared" ref="F394:F396" si="282">E394-E393</f>
+        <f t="shared" ref="F394:F397" si="282">E394-E393</f>
         <v>99</v>
       </c>
       <c r="G394" s="4">
-        <f t="shared" ref="G394:G396" si="283">E394/B394</f>
+        <f t="shared" ref="G394:G397" si="283">E394/B394</f>
         <v>2.8074281184997572E-2</v>
       </c>
       <c r="H394" s="3">
-        <f t="shared" ref="H394:H396" si="284">B394-E394</f>
+        <f t="shared" ref="H394:H397" si="284">B394-E394</f>
         <v>2584852</v>
       </c>
     </row>
@@ -20887,8 +20887,31 @@
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A397" s="26"/>
-      <c r="G397" s="4"/>
+      <c r="A397" s="26">
+        <v>44279</v>
+      </c>
+      <c r="B397" s="32">
+        <v>2690523</v>
+      </c>
+      <c r="D397" s="3">
+        <f t="shared" si="175"/>
+        <v>15813</v>
+      </c>
+      <c r="E397" s="3">
+        <v>75212</v>
+      </c>
+      <c r="F397" s="3">
+        <f t="shared" si="282"/>
+        <v>248</v>
+      </c>
+      <c r="G397" s="4">
+        <f t="shared" si="283"/>
+        <v>2.7954416297500524E-2</v>
+      </c>
+      <c r="H397" s="3">
+        <f t="shared" si="284"/>
+        <v>2615311</v>
+      </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A398" s="26"/>
@@ -21354,7 +21377,7 @@
   <dimension ref="A2:LS20"/>
   <sheetViews>
     <sheetView topLeftCell="KV1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="LI23" sqref="LI23"/>
+      <selection activeCell="LI24" sqref="LI24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23330,6 +23353,9 @@
       <c r="LK4" s="3">
         <v>11433</v>
       </c>
+      <c r="LL4" s="3">
+        <v>11312</v>
+      </c>
     </row>
     <row r="5" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
@@ -24301,6 +24327,9 @@
       <c r="LK5" s="3">
         <v>14534</v>
       </c>
+      <c r="LL5" s="3">
+        <v>14541</v>
+      </c>
     </row>
     <row r="6" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
@@ -25272,6 +25301,9 @@
       <c r="LK6" s="3">
         <v>3464</v>
       </c>
+      <c r="LL6" s="3">
+        <v>3567</v>
+      </c>
     </row>
     <row r="7" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
@@ -26243,6 +26275,9 @@
       <c r="LK7" s="3">
         <v>2869</v>
       </c>
+      <c r="LL7" s="3">
+        <v>2995</v>
+      </c>
     </row>
     <row r="8" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
@@ -27214,6 +27249,9 @@
       <c r="LK8" s="3">
         <v>701</v>
       </c>
+      <c r="LL8" s="3">
+        <v>720</v>
+      </c>
     </row>
     <row r="9" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
@@ -28185,6 +28223,9 @@
       <c r="LK9" s="3">
         <v>1963</v>
       </c>
+      <c r="LL9" s="3">
+        <v>1830</v>
+      </c>
     </row>
     <row r="10" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
@@ -29156,6 +29197,9 @@
       <c r="LK10" s="3">
         <v>7368</v>
       </c>
+      <c r="LL10" s="3">
+        <v>7445</v>
+      </c>
     </row>
     <row r="11" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
@@ -30127,6 +30171,9 @@
       <c r="LK11" s="3">
         <v>1192</v>
       </c>
+      <c r="LL11" s="3">
+        <v>1279</v>
+      </c>
     </row>
     <row r="12" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
@@ -31098,6 +31145,9 @@
       <c r="LK12" s="3">
         <v>7559</v>
       </c>
+      <c r="LL12" s="3">
+        <v>7247</v>
+      </c>
     </row>
     <row r="13" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
@@ -32069,6 +32119,9 @@
       <c r="LK13" s="3">
         <v>19605</v>
       </c>
+      <c r="LL13" s="3">
+        <v>19953</v>
+      </c>
     </row>
     <row r="14" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
@@ -33040,6 +33093,9 @@
       <c r="LK14" s="3">
         <v>3365</v>
       </c>
+      <c r="LL14" s="3">
+        <v>3269</v>
+      </c>
     </row>
     <row r="15" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
@@ -34011,6 +34067,9 @@
       <c r="LK15" s="3">
         <v>608</v>
       </c>
+      <c r="LL15" s="3">
+        <v>548</v>
+      </c>
     </row>
     <row r="16" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
@@ -34982,8 +35041,11 @@
       <c r="LK16" s="3">
         <v>6355</v>
       </c>
-    </row>
-    <row r="17" spans="1:323" x14ac:dyDescent="0.35">
+      <c r="LL16" s="3">
+        <v>6309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:324" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -35953,8 +36015,11 @@
       <c r="LK17" s="3">
         <v>2773</v>
       </c>
-    </row>
-    <row r="18" spans="1:323" x14ac:dyDescent="0.35">
+      <c r="LL17" s="3">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:324" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -36924,8 +36989,11 @@
       <c r="LK18" s="3">
         <v>1750</v>
       </c>
-    </row>
-    <row r="19" spans="1:323" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="LL18" s="3">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:324" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -37895,8 +37963,11 @@
       <c r="LK19" s="3">
         <v>4368</v>
       </c>
-    </row>
-    <row r="20" spans="1:323" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="LL19" s="3">
+        <v>4491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:324" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
@@ -38865,6 +38936,9 @@
       </c>
       <c r="LK20" s="12">
         <v>89907</v>
+      </c>
+      <c r="LL20" s="12">
+        <v>89940</v>
       </c>
     </row>
   </sheetData>
@@ -38880,7 +38954,7 @@
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="KW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="LG25" sqref="LG25"/>
+      <selection pane="topRight" activeCell="LH24" sqref="LH24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40917,7 +40991,9 @@
       <c r="LL4" s="16">
         <v>102.99634409373216</v>
       </c>
-      <c r="LM4" s="16"/>
+      <c r="LM4" s="16">
+        <v>101.90629269555657</v>
+      </c>
       <c r="LN4" s="16"/>
       <c r="LO4" s="16"/>
       <c r="LP4" s="16"/>
@@ -41899,7 +41975,9 @@
       <c r="LL5" s="16">
         <v>110.73745706294915</v>
       </c>
-      <c r="LM5" s="16"/>
+      <c r="LM5" s="16">
+        <v>110.7907914650023</v>
+      </c>
       <c r="LN5" s="16"/>
       <c r="LO5" s="16"/>
       <c r="LP5" s="16"/>
@@ -42881,7 +42959,9 @@
       <c r="LL6" s="16">
         <v>94.400013516861051</v>
       </c>
-      <c r="LM6" s="16"/>
+      <c r="LM6" s="16">
+        <v>97.206942325243475</v>
+      </c>
       <c r="LN6" s="16"/>
       <c r="LO6" s="16"/>
       <c r="LP6" s="16"/>
@@ -43863,7 +43943,9 @@
       <c r="LL7" s="16">
         <v>113.76374810509408</v>
       </c>
-      <c r="LM7" s="16"/>
+      <c r="LM7" s="16">
+        <v>118.75999497203092</v>
+      </c>
       <c r="LN7" s="16"/>
       <c r="LO7" s="16"/>
       <c r="LP7" s="16"/>
@@ -44845,7 +44927,9 @@
       <c r="LL8" s="16">
         <v>102.90633321687253</v>
       </c>
-      <c r="LM8" s="16"/>
+      <c r="LM8" s="16">
+        <v>105.69552056511871</v>
+      </c>
       <c r="LN8" s="16"/>
       <c r="LO8" s="16"/>
       <c r="LP8" s="16"/>
@@ -45827,7 +45911,9 @@
       <c r="LL9" s="16">
         <v>106.26589860728336</v>
       </c>
-      <c r="LM9" s="16"/>
+      <c r="LM9" s="16">
+        <v>99.066018569194355</v>
+      </c>
       <c r="LN9" s="16"/>
       <c r="LO9" s="16"/>
       <c r="LP9" s="16"/>
@@ -46809,7 +46895,9 @@
       <c r="LL10" s="16">
         <v>117.17408175468506</v>
       </c>
-      <c r="LM10" s="16"/>
+      <c r="LM10" s="16">
+        <v>118.39862088268596</v>
+      </c>
       <c r="LN10" s="16"/>
       <c r="LO10" s="16"/>
       <c r="LP10" s="16"/>
@@ -47791,7 +47879,9 @@
       <c r="LL11" s="16">
         <v>74.122991932284421</v>
       </c>
-      <c r="LM11" s="16"/>
+      <c r="LM11" s="16">
+        <v>79.532975403852163</v>
+      </c>
       <c r="LN11" s="16"/>
       <c r="LO11" s="16"/>
       <c r="LP11" s="16"/>
@@ -48773,7 +48863,9 @@
       <c r="LL12" s="16">
         <v>94.563055881649447</v>
       </c>
-      <c r="LM12" s="16"/>
+      <c r="LM12" s="16">
+        <v>90.659937289894629</v>
+      </c>
       <c r="LN12" s="16"/>
       <c r="LO12" s="16"/>
       <c r="LP12" s="16"/>
@@ -49755,7 +49847,9 @@
       <c r="LL13" s="16">
         <v>109.23696766201296</v>
       </c>
-      <c r="LM13" s="16"/>
+      <c r="LM13" s="16">
+        <v>111.17598652181303</v>
+      </c>
       <c r="LN13" s="16"/>
       <c r="LO13" s="16"/>
       <c r="LP13" s="16"/>
@@ -50737,7 +50831,9 @@
       <c r="LL14" s="16">
         <v>82.195401307749592</v>
       </c>
-      <c r="LM14" s="16"/>
+      <c r="LM14" s="16">
+        <v>79.850450780099095</v>
+      </c>
       <c r="LN14" s="16"/>
       <c r="LO14" s="16"/>
       <c r="LP14" s="16"/>
@@ -51719,7 +51815,9 @@
       <c r="LL15" s="16">
         <v>61.607863919577419</v>
       </c>
-      <c r="LM15" s="16"/>
+      <c r="LM15" s="16">
+        <v>55.528140506461227</v>
+      </c>
       <c r="LN15" s="16"/>
       <c r="LO15" s="16"/>
       <c r="LP15" s="16"/>
@@ -52701,7 +52799,9 @@
       <c r="LL16" s="16">
         <v>156.06692680276947</v>
       </c>
-      <c r="LM16" s="16"/>
+      <c r="LM16" s="16">
+        <v>154.93725274566052</v>
+      </c>
       <c r="LN16" s="16"/>
       <c r="LO16" s="16"/>
       <c r="LP16" s="16"/>
@@ -53683,7 +53783,9 @@
       <c r="LL17" s="16">
         <v>126.3451222034808</v>
       </c>
-      <c r="LM17" s="16"/>
+      <c r="LM17" s="16">
+        <v>124.7504307944935</v>
+      </c>
       <c r="LN17" s="16"/>
       <c r="LO17" s="16"/>
       <c r="LP17" s="16"/>
@@ -54665,7 +54767,9 @@
       <c r="LL18" s="16">
         <v>60.266418897069435</v>
       </c>
-      <c r="LM18" s="16"/>
+      <c r="LM18" s="16">
+        <v>58.406769399674147</v>
+      </c>
       <c r="LN18" s="16"/>
       <c r="LO18" s="16"/>
       <c r="LP18" s="16"/>
@@ -55647,7 +55751,9 @@
       <c r="LL19" s="16">
         <v>204.7457131366312</v>
       </c>
-      <c r="LM19" s="16"/>
+      <c r="LM19" s="16">
+        <v>210.51121742138523</v>
+      </c>
       <c r="LN19" s="16"/>
       <c r="LO19" s="16"/>
       <c r="LP19" s="16"/>
@@ -56629,7 +56735,9 @@
       <c r="LL20" s="17">
         <v>108.10455159156167</v>
       </c>
-      <c r="LM20" s="17"/>
+      <c r="LM20" s="17">
+        <v>108.1442309291274</v>
+      </c>
       <c r="LN20" s="17"/>
       <c r="LO20" s="17"/>
       <c r="LP20" s="17"/>

--- a/Fallzahlen/raw_data/Fallzahlen_Kum_Tab_latest.xlsx
+++ b/Fallzahlen/raw_data/Fallzahlen_Kum_Tab_latest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1B3FD2-57F3-4510-AC98-46DE80B791FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D234ADA-99E7-44D3-BFB3-6E8E5B988F66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2085" yWindow="165" windowWidth="15285" windowHeight="10800" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="1040">
   <si>
     <t>Todesfälle</t>
   </si>
@@ -3156,10 +3156,13 @@
     <t>21.03.2021</t>
   </si>
   <si>
-    <t>Stand: 25.03.2021 06:17:13</t>
-  </si>
-  <si>
     <t>25.03.2021</t>
+  </si>
+  <si>
+    <t>Stand: 26.03.2021 06:21:55</t>
+  </si>
+  <si>
+    <t>26.03.2021</t>
   </si>
 </sst>
 </file>
@@ -3374,6 +3377,18 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet001" fillFormulas="1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000002000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="4">
+    <queryTableFields count="3">
+      <queryTableField id="1" name="Bundesland"/>
+      <queryTableField id="2" name="Fälle in den letzten 7 Tagen"/>
+      <queryTableField id="3" name="7-Tage-Inzidenz"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet003" fillFormulas="1" connectionId="3" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
@@ -3383,7 +3398,7 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet002" fillFormulas="1" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
     <queryTableFields count="5">
@@ -3392,18 +3407,6 @@
       <queryTableField id="3"/>
       <queryTableField id="4"/>
       <queryTableField id="5" name="Todesfälle"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet001" fillFormulas="1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000002000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="4">
-    <queryTableFields count="3">
-      <queryTableField id="1" name="Bundesland"/>
-      <queryTableField id="2" name="Fälle in den letzten 7 Tagen"/>
-      <queryTableField id="3" name="7-Tage-Inzidenz"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -3747,7 +3750,7 @@
   <dimension ref="A2:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3763,7 +3766,7 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3782,10 +3785,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>12050</v>
+        <v>12793</v>
       </c>
       <c r="C6" s="29">
-        <v>108.55470535550359</v>
+        <v>115.24816146165622</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3793,10 +3796,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>15027</v>
+        <v>16021</v>
       </c>
       <c r="C7" s="29">
-        <v>114.49372280755036</v>
+        <v>122.06720789909923</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3804,10 +3807,10 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>4085</v>
+        <v>4323</v>
       </c>
       <c r="C8" s="29">
-        <v>111.32334157516669</v>
+        <v>117.80925474405032</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3815,10 +3818,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>3239</v>
+        <v>3273</v>
       </c>
       <c r="C9" s="29">
-        <v>128.43526668260708</v>
+        <v>129.78346028162179</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3826,10 +3829,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>762</v>
+        <v>794</v>
       </c>
       <c r="C10" s="29">
-        <v>111.86109259808397</v>
+        <v>116.55867128986704</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3837,10 +3840,10 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>1818</v>
+        <v>2002</v>
       </c>
       <c r="C11" s="29">
-        <v>98.416405332675055</v>
+        <v>108.37714162597111</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3848,10 +3851,10 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>7770</v>
+        <v>8155</v>
       </c>
       <c r="C12" s="29">
-        <v>123.56713018918335</v>
+        <v>129.68982582918792</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3859,10 +3862,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>1358</v>
+        <v>1533</v>
       </c>
       <c r="C13" s="29">
-        <v>84.445489130907916</v>
+        <v>95.327639792107391</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -3870,10 +3873,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>7499</v>
+        <v>7840</v>
       </c>
       <c r="C14" s="29">
-        <v>93.812456152465813</v>
+        <v>98.078364613326045</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -3881,10 +3884,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>20345</v>
+        <v>21515</v>
       </c>
       <c r="C15" s="29">
-        <v>113.36016868572578</v>
+        <v>119.87928381781224</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -3892,10 +3895,10 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>3447</v>
+        <v>3836</v>
       </c>
       <c r="C16" s="29">
-        <v>84.198379883451068</v>
+        <v>93.700314834034913</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3903,10 +3906,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>652</v>
+        <v>603</v>
       </c>
       <c r="C17" s="29">
-        <v>66.066327755862631</v>
+        <v>61.101220301817733</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3914,10 +3917,10 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>6813</v>
+        <v>6887</v>
       </c>
       <c r="C18" s="29">
-        <v>167.31455111050644</v>
+        <v>169.13185285455128</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3925,10 +3928,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>2955</v>
+        <v>2959</v>
       </c>
       <c r="C19" s="29">
-        <v>134.63751753021484</v>
+        <v>134.81976797695626</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3936,10 +3939,10 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>1736</v>
+        <v>1813</v>
       </c>
       <c r="C20" s="29">
-        <v>59.78428754589288</v>
+        <v>62.436009977363938</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -3947,10 +3950,10 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>4696</v>
+        <v>4725</v>
       </c>
       <c r="C21" s="29">
-        <v>220.12039122930861</v>
+        <v>221.47973776799049</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3959,11 +3962,11 @@
       </c>
       <c r="B22" s="1">
         <f>SUM(B6:B21)</f>
-        <v>94252</v>
+        <v>99072</v>
       </c>
       <c r="C22" s="30">
         <f>B22/A36*100000</f>
-        <v>113.32899770438198</v>
+        <v>119.12458579731498</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3985,10 +3988,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B31">
-        <v>2713180</v>
+        <v>2734753</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -3997,7 +4000,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>75440</v>
+        <v>75623</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -4034,7 +4037,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4059,10 +4062,10 @@
         <v>118</v>
       </c>
       <c r="C6">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="D6" s="29">
-        <v>98.918183352300005</v>
+        <v>101.9701055247</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4073,10 +4076,10 @@
         <v>120</v>
       </c>
       <c r="C7">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D7" s="29">
-        <v>67.647556231999999</v>
+        <v>79.178389680699993</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4087,10 +4090,10 @@
         <v>122</v>
       </c>
       <c r="C8">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D8" s="29">
-        <v>91.344547176099994</v>
+        <v>94.315101555799998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4101,10 +4104,10 @@
         <v>124</v>
       </c>
       <c r="C9">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="D9" s="29">
-        <v>89.813067040099995</v>
+        <v>98.946599281499999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4115,10 +4118,10 @@
         <v>126</v>
       </c>
       <c r="C10">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D10" s="29">
-        <v>213.66326222410001</v>
+        <v>201.35804816929999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4129,10 +4132,10 @@
         <v>128</v>
       </c>
       <c r="C11">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="D11" s="29">
-        <v>174.6826598346</v>
+        <v>214.27739606380001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4143,10 +4146,10 @@
         <v>130</v>
       </c>
       <c r="C12">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="29">
-        <v>49.294843278499997</v>
+        <v>50.497156529199998</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4157,10 +4160,10 @@
         <v>132</v>
       </c>
       <c r="C13">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D13" s="29">
-        <v>120.1621292012</v>
+        <v>123.7490584311</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4171,10 +4174,10 @@
         <v>134</v>
       </c>
       <c r="C14">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="D14" s="29">
-        <v>104.8678741894</v>
+        <v>132.6270173572</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4185,10 +4188,10 @@
         <v>136</v>
       </c>
       <c r="C15">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D15" s="29">
-        <v>184.80346861890001</v>
+        <v>165.8492667093</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4199,10 +4202,10 @@
         <v>138</v>
       </c>
       <c r="C16">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D16" s="29">
-        <v>222.22437869359999</v>
+        <v>210.57943308520001</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4213,10 +4216,10 @@
         <v>140</v>
       </c>
       <c r="C17">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D17" s="29">
-        <v>98.511120543999994</v>
+        <v>92.904796610600002</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4227,10 +4230,10 @@
         <v>142</v>
       </c>
       <c r="C18">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D18" s="29">
-        <v>73.823555392900005</v>
+        <v>74.454525951799994</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -4241,10 +4244,10 @@
         <v>144</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" s="29">
-        <v>35.886884539900002</v>
+        <v>38.279343509299999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -4255,10 +4258,10 @@
         <v>146</v>
       </c>
       <c r="C20">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="D20" s="29">
-        <v>105.6389531451</v>
+        <v>141.39367574799999</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -4269,10 +4272,10 @@
         <v>148</v>
       </c>
       <c r="C21">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D21" s="29">
-        <v>63.378496380400001</v>
+        <v>56.336441227000002</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -4283,10 +4286,10 @@
         <v>150</v>
       </c>
       <c r="C22">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D22" s="29">
-        <v>95.866819747400001</v>
+        <v>97.588978186000006</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4297,10 +4300,10 @@
         <v>152</v>
       </c>
       <c r="C23">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D23" s="29">
-        <v>126.4405796711</v>
+        <v>127.7892791875</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -4311,10 +4314,10 @@
         <v>154</v>
       </c>
       <c r="C24">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="D24" s="29">
-        <v>91.135764672500002</v>
+        <v>97.053671469400001</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -4325,10 +4328,10 @@
         <v>156</v>
       </c>
       <c r="C25">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="D25" s="29">
-        <v>48.499161807999997</v>
+        <v>66.949929887099998</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -4339,10 +4342,10 @@
         <v>158</v>
       </c>
       <c r="C26">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D26" s="29">
-        <v>66.329491750299994</v>
+        <v>79.143143565700001</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4353,10 +4356,10 @@
         <v>160</v>
       </c>
       <c r="C27">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D27" s="29">
-        <v>95.897709110299999</v>
+        <v>100.7410277522</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -4367,10 +4370,10 @@
         <v>162</v>
       </c>
       <c r="C28">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D28" s="29">
-        <v>73.257759954500003</v>
+        <v>82.099213742100005</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -4381,10 +4384,10 @@
         <v>164</v>
       </c>
       <c r="C29">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D29" s="29">
-        <v>67.231095163299997</v>
+        <v>78.1756920503</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4395,10 +4398,10 @@
         <v>166</v>
       </c>
       <c r="C30">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D30" s="29">
-        <v>128.6581498596</v>
+        <v>143.1548428015</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -4409,10 +4412,10 @@
         <v>168</v>
       </c>
       <c r="C31">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D31" s="29">
-        <v>76.253990410100002</v>
+        <v>99.517919687700001</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -4423,10 +4426,10 @@
         <v>170</v>
       </c>
       <c r="C32">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D32" s="29">
-        <v>58.438602094300002</v>
+        <v>69.310900158300001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -4437,10 +4440,10 @@
         <v>172</v>
       </c>
       <c r="C33">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="D33" s="29">
-        <v>110.1250242923</v>
+        <v>100.9479389346</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -4451,10 +4454,10 @@
         <v>174</v>
       </c>
       <c r="C34">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="D34" s="29">
-        <v>123.4329025414</v>
+        <v>125.7681196165</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -4465,10 +4468,10 @@
         <v>176</v>
       </c>
       <c r="C35">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="D35" s="29">
-        <v>157.78987202970001</v>
+        <v>185.8711204418</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -4479,10 +4482,10 @@
         <v>178</v>
       </c>
       <c r="C36">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="D36" s="29">
-        <v>133.12239543140001</v>
+        <v>150.4861861398</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -4493,10 +4496,10 @@
         <v>180</v>
       </c>
       <c r="C37">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D37" s="29">
-        <v>103.84314021660001</v>
+        <v>84.962569268099998</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -4507,10 +4510,10 @@
         <v>182</v>
       </c>
       <c r="C38">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D38" s="29">
-        <v>103.57327809429999</v>
+        <v>98.024709624899998</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -4521,10 +4524,10 @@
         <v>184</v>
       </c>
       <c r="C39">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D39" s="29">
-        <v>89.7126503808</v>
+        <v>104.6647587776</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -4535,10 +4538,10 @@
         <v>186</v>
       </c>
       <c r="C40">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="D40" s="29">
-        <v>85.088580757900004</v>
+        <v>98.560939377899999</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -4549,10 +4552,10 @@
         <v>188</v>
       </c>
       <c r="C41">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="D41" s="29">
-        <v>119.0135486978</v>
+        <v>113.4293352692</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -4563,10 +4566,10 @@
         <v>190</v>
       </c>
       <c r="C42">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="D42" s="29">
-        <v>127.39241045449999</v>
+        <v>144.88509965130001</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -4577,10 +4580,10 @@
         <v>192</v>
       </c>
       <c r="C43">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="D43" s="29">
-        <v>153.76907456070001</v>
+        <v>148.4391239693</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -4591,10 +4594,10 @@
         <v>194</v>
       </c>
       <c r="C44">
-        <v>425</v>
+        <v>487</v>
       </c>
       <c r="D44" s="29">
-        <v>132.3480410933</v>
+        <v>151.6552847351</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -4605,10 +4608,10 @@
         <v>196</v>
       </c>
       <c r="C45">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="D45" s="29">
-        <v>104.7643931705</v>
+        <v>108.0304294084</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -4619,10 +4622,10 @@
         <v>198</v>
       </c>
       <c r="C46">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="D46" s="29">
-        <v>113.98249444530001</v>
+        <v>100.1197586344</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -4633,10 +4636,10 @@
         <v>200</v>
       </c>
       <c r="C47">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="D47" s="29">
-        <v>114.6352382028</v>
+        <v>122.1660202745</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -4647,10 +4650,10 @@
         <v>202</v>
       </c>
       <c r="C48">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="D48" s="29">
-        <v>84.718558990299996</v>
+        <v>100.6032888009</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -4661,10 +4664,10 @@
         <v>204</v>
       </c>
       <c r="C49">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="D49" s="29">
-        <v>99.188932972900005</v>
+        <v>104.1630092576</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -4675,10 +4678,10 @@
         <v>206</v>
       </c>
       <c r="C50">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="D50" s="29">
-        <v>106.9466542584</v>
+        <v>113.70117979050001</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -4689,10 +4692,10 @@
         <v>208</v>
       </c>
       <c r="C51">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D51" s="29">
-        <v>28.4487433657</v>
+        <v>27.559720135500001</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -4703,10 +4706,10 @@
         <v>210</v>
       </c>
       <c r="C52">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="D52" s="29">
-        <v>114.7643604495</v>
+        <v>132.1528999116</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -4717,10 +4720,10 @@
         <v>212</v>
       </c>
       <c r="C53">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="D53" s="29">
-        <v>80.491928365199996</v>
+        <v>88.571043851599995</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -4731,10 +4734,10 @@
         <v>214</v>
       </c>
       <c r="C54">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D54" s="29">
-        <v>81.530802584300005</v>
+        <v>82.766117774999998</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -4745,10 +4748,10 @@
         <v>216</v>
       </c>
       <c r="C55">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D55" s="29">
-        <v>69.656161037000004</v>
+        <v>82.779785580199999</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -4759,10 +4762,10 @@
         <v>218</v>
       </c>
       <c r="C56">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D56" s="29">
-        <v>61.862441351599998</v>
+        <v>60.844129559800002</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -4773,10 +4776,10 @@
         <v>220</v>
       </c>
       <c r="C57">
-        <v>395</v>
+        <v>457</v>
       </c>
       <c r="D57" s="29">
-        <v>108.04541736989999</v>
+        <v>125.0044449064</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -4787,10 +4790,10 @@
         <v>222</v>
       </c>
       <c r="C58">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="D58" s="29">
-        <v>84.149537867299998</v>
+        <v>91.5068745114</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -4801,10 +4804,10 @@
         <v>224</v>
       </c>
       <c r="C59">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="D59" s="29">
-        <v>85.235976255300002</v>
+        <v>95.245895174899999</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -4815,10 +4818,10 @@
         <v>226</v>
       </c>
       <c r="C60">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="D60" s="29">
-        <v>101.80022583269999</v>
+        <v>90.0990504496</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -4829,10 +4832,10 @@
         <v>228</v>
       </c>
       <c r="C61">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="D61" s="29">
-        <v>134.91715117449999</v>
+        <v>141.38024823680001</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -4843,10 +4846,10 @@
         <v>230</v>
       </c>
       <c r="C62">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D62" s="29">
-        <v>106.3241611024</v>
+        <v>98.668821503000004</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -4857,10 +4860,10 @@
         <v>232</v>
       </c>
       <c r="C63">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D63" s="29">
-        <v>95.589050205000007</v>
+        <v>91.433004543899997</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -4871,10 +4874,10 @@
         <v>234</v>
       </c>
       <c r="C64">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D64" s="29">
-        <v>108.2572191527</v>
+        <v>105.45055050800001</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -4885,10 +4888,10 @@
         <v>236</v>
       </c>
       <c r="C65">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="D65" s="29">
-        <v>55.007378576000001</v>
+        <v>73.975440153899996</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -4899,10 +4902,10 @@
         <v>238</v>
       </c>
       <c r="C66">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="D66" s="29">
-        <v>102.8967913468</v>
+        <v>105.0111089772</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -4913,10 +4916,10 @@
         <v>240</v>
       </c>
       <c r="C67">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="D67" s="29">
-        <v>156.63085275820001</v>
+        <v>174.22982497820001</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -4927,10 +4930,10 @@
         <v>242</v>
       </c>
       <c r="C68">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="D68" s="29">
-        <v>194.5808125426</v>
+        <v>214.70986211600001</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -4941,10 +4944,10 @@
         <v>244</v>
       </c>
       <c r="C69">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D69" s="29">
-        <v>79.7733682577</v>
+        <v>82.914052047400006</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -4955,10 +4958,10 @@
         <v>246</v>
       </c>
       <c r="C70">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="D70" s="29">
-        <v>141.89072179920001</v>
+        <v>118.4284764623</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -4969,10 +4972,10 @@
         <v>248</v>
       </c>
       <c r="C71">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="D71" s="29">
-        <v>289.84827887940003</v>
+        <v>296.87963874439998</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -4983,10 +4986,10 @@
         <v>250</v>
       </c>
       <c r="C72">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="D72" s="29">
-        <v>215.56098630310001</v>
+        <v>222.05623259480001</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -4997,10 +5000,10 @@
         <v>252</v>
       </c>
       <c r="C73">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="D73" s="29">
-        <v>224.97978697229999</v>
+        <v>206.23147139119999</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -5011,10 +5014,10 @@
         <v>254</v>
       </c>
       <c r="C74">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D74" s="29">
-        <v>63.303467082200001</v>
+        <v>60.8687183483</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -5025,10 +5028,10 @@
         <v>256</v>
       </c>
       <c r="C75">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D75" s="29">
-        <v>54.180548030499999</v>
+        <v>69.166657060199995</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -5039,10 +5042,10 @@
         <v>258</v>
       </c>
       <c r="C76">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D76" s="29">
-        <v>34.215885946999997</v>
+        <v>39.103869653799997</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -5053,10 +5056,10 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D77" s="29">
-        <v>55.3072271132</v>
+        <v>47.6004823516</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -5067,10 +5070,10 @@
         <v>262</v>
       </c>
       <c r="C78">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D78" s="29">
-        <v>168.54270751819999</v>
+        <v>161.5200947049</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -5081,10 +5084,10 @@
         <v>264</v>
       </c>
       <c r="C79">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="D79" s="29">
-        <v>72.713317646099995</v>
+        <v>92.911461436699994</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -5095,10 +5098,10 @@
         <v>266</v>
       </c>
       <c r="C80">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D80" s="29">
-        <v>174.30712916159999</v>
+        <v>179.47178484040001</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -5109,10 +5112,10 @@
         <v>268</v>
       </c>
       <c r="C81">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D81" s="29">
-        <v>96.609306110999995</v>
+        <v>94.267262326500003</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -5123,10 +5126,10 @@
         <v>270</v>
       </c>
       <c r="C82">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D82" s="29">
-        <v>76.308184991100006</v>
+        <v>80.061046547999993</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -5137,10 +5140,10 @@
         <v>272</v>
       </c>
       <c r="C83">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="D83" s="29">
-        <v>115.49670297199999</v>
+        <v>119.8614039564</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -5151,10 +5154,10 @@
         <v>274</v>
       </c>
       <c r="C84">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D84" s="29">
-        <v>164.88391168250001</v>
+        <v>171.57970505029999</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -5165,10 +5168,10 @@
         <v>276</v>
       </c>
       <c r="C85">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D85" s="29">
-        <v>104.43662244230001</v>
+        <v>90.253871246399996</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -5179,10 +5182,10 @@
         <v>278</v>
       </c>
       <c r="C86">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D86" s="29">
-        <v>107.3617717189</v>
+        <v>111.1069498021</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -5193,10 +5196,10 @@
         <v>280</v>
       </c>
       <c r="C87">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="D87" s="29">
-        <v>51.5917434785</v>
+        <v>59.4226331136</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -5207,10 +5210,10 @@
         <v>282</v>
       </c>
       <c r="C88">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D88" s="29">
-        <v>52.815807460499997</v>
+        <v>67.3142644104</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -5221,10 +5224,10 @@
         <v>284</v>
       </c>
       <c r="C89">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D89" s="29">
-        <v>123.082651552</v>
+        <v>130.32280752560001</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -5235,10 +5238,10 @@
         <v>286</v>
       </c>
       <c r="C90">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D90" s="29">
-        <v>52.555314468500001</v>
+        <v>44.296622194900003</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -5249,10 +5252,10 @@
         <v>288</v>
       </c>
       <c r="C91">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D91" s="29">
-        <v>189.11221904129999</v>
+        <v>193.5970938012</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -5263,10 +5266,10 @@
         <v>290</v>
       </c>
       <c r="C92">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D92" s="29">
-        <v>74.344507135699999</v>
+        <v>71.689346166600004</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -5277,10 +5280,10 @@
         <v>292</v>
       </c>
       <c r="C93">
-        <v>627</v>
+        <v>689</v>
       </c>
       <c r="D93" s="29">
-        <v>106.5873353166</v>
+        <v>117.1270718232</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -5291,10 +5294,10 @@
         <v>294</v>
       </c>
       <c r="C94">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="D94" s="29">
-        <v>105.9664499443</v>
+        <v>107.9420956213</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -5305,10 +5308,10 @@
         <v>296</v>
       </c>
       <c r="C95">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="D95" s="29">
-        <v>149.9941847174</v>
+        <v>151.59840059679999</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -5333,10 +5336,10 @@
         <v>300</v>
       </c>
       <c r="C97">
-        <v>513</v>
+        <v>570</v>
       </c>
       <c r="D97" s="29">
-        <v>82.492197009999998</v>
+        <v>91.6579966778</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -5347,10 +5350,10 @@
         <v>302</v>
       </c>
       <c r="C98">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D98" s="29">
-        <v>80.752389504999996</v>
+        <v>79.360106927299995</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -5361,10 +5364,10 @@
         <v>304</v>
       </c>
       <c r="C99">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="D99" s="29">
-        <v>196.98818070920001</v>
+        <v>208.98746075240001</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -5375,10 +5378,10 @@
         <v>306</v>
       </c>
       <c r="C100">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="D100" s="29">
-        <v>118.1508266795</v>
+        <v>146.74784205419999</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -5389,10 +5392,10 @@
         <v>308</v>
       </c>
       <c r="C101">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D101" s="29">
-        <v>279.28994082840001</v>
+        <v>262.72189349109999</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -5403,10 +5406,10 @@
         <v>310</v>
       </c>
       <c r="C102">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D102" s="29">
-        <v>257.2991446277</v>
+        <v>256.31708682369998</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -5417,10 +5420,10 @@
         <v>312</v>
       </c>
       <c r="C103">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D103" s="29">
-        <v>56.097609841100002</v>
+        <v>78.135956564400004</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -5431,10 +5434,10 @@
         <v>314</v>
       </c>
       <c r="C104">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D104" s="29">
-        <v>82.9287053507</v>
+        <v>87.135233882999998</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -5445,10 +5448,10 @@
         <v>316</v>
       </c>
       <c r="C105">
-        <v>549</v>
+        <v>579</v>
       </c>
       <c r="D105" s="29">
-        <v>167.91352912030001</v>
+        <v>177.0891318045</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -5459,10 +5462,10 @@
         <v>318</v>
       </c>
       <c r="C106">
-        <v>257</v>
+        <v>370</v>
       </c>
       <c r="D106" s="29">
-        <v>79.295045448099998</v>
+        <v>114.16018216259999</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -5473,10 +5476,10 @@
         <v>320</v>
       </c>
       <c r="C107">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D107" s="29">
-        <v>80.679107618900005</v>
+        <v>83.685782437</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -5487,10 +5490,10 @@
         <v>322</v>
       </c>
       <c r="C108">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D108" s="29">
-        <v>82.499891447500005</v>
+        <v>89.013040772300002</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -5501,10 +5504,10 @@
         <v>324</v>
       </c>
       <c r="C109">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D109" s="29">
-        <v>121.5061150289</v>
+        <v>123.37543987550001</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -5515,10 +5518,10 @@
         <v>326</v>
       </c>
       <c r="C110">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="D110" s="29">
-        <v>57.763401109100002</v>
+        <v>83.534764680799995</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -5529,10 +5532,10 @@
         <v>328</v>
       </c>
       <c r="C111">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="D111" s="29">
-        <v>101.2661916627</v>
+        <v>132.59314304029999</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -5543,10 +5546,10 @@
         <v>330</v>
       </c>
       <c r="C112">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="D112" s="29">
-        <v>221.22836977680001</v>
+        <v>223.019692609</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -5557,10 +5560,10 @@
         <v>332</v>
       </c>
       <c r="C113">
-        <v>597</v>
+        <v>695</v>
       </c>
       <c r="D113" s="29">
-        <v>102.44354451229999</v>
+        <v>119.26007275720001</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -5571,10 +5574,10 @@
         <v>334</v>
       </c>
       <c r="C114">
-        <v>644</v>
+        <v>672</v>
       </c>
       <c r="D114" s="29">
-        <v>120.3684320703</v>
+        <v>125.6018421604</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -5585,10 +5588,10 @@
         <v>336</v>
       </c>
       <c r="C115">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="D115" s="29">
-        <v>78.489693063999994</v>
+        <v>132.70954682530001</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -5599,10 +5602,10 @@
         <v>338</v>
       </c>
       <c r="C116">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D116" s="29">
-        <v>97.599929018200001</v>
+        <v>100.9271993257</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -5613,10 +5616,10 @@
         <v>340</v>
       </c>
       <c r="C117">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D117" s="29">
-        <v>100.6858686953</v>
+        <v>86.9168610105</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -5627,10 +5630,10 @@
         <v>342</v>
       </c>
       <c r="C118">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D118" s="29">
-        <v>112.79274845170001</v>
+        <v>108.69119396249999</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -5641,10 +5644,10 @@
         <v>344</v>
       </c>
       <c r="C119">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D119" s="29">
-        <v>121.2100223373</v>
+        <v>140.25731156169999</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -5655,10 +5658,10 @@
         <v>346</v>
       </c>
       <c r="C120">
-        <v>875</v>
+        <v>971</v>
       </c>
       <c r="D120" s="29">
-        <v>114.6218135136</v>
+        <v>127.19746391050001</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -5669,10 +5672,10 @@
         <v>348</v>
       </c>
       <c r="C121">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="D121" s="29">
-        <v>51.039166071899999</v>
+        <v>77.423819719299999</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -5683,10 +5686,10 @@
         <v>350</v>
       </c>
       <c r="C122">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="D122" s="29">
-        <v>113.3289260973</v>
+        <v>121.1064014177</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -5697,10 +5700,10 @@
         <v>352</v>
       </c>
       <c r="C123">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D123" s="29">
-        <v>84.571602547300003</v>
+        <v>92.183046776599994</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -5711,10 +5714,10 @@
         <v>354</v>
       </c>
       <c r="C124">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D124" s="29">
-        <v>128.88900232259999</v>
+        <v>119.95610117149999</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -5725,10 +5728,10 @@
         <v>356</v>
       </c>
       <c r="C125">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D125" s="29">
-        <v>52.682768682099997</v>
+        <v>51.669638515199999</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -5739,10 +5742,10 @@
         <v>358</v>
       </c>
       <c r="C126">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D126" s="29">
-        <v>176.11866723430001</v>
+        <v>178.8075018486</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -5753,10 +5756,10 @@
         <v>360</v>
       </c>
       <c r="C127">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D127" s="29">
-        <v>82.987173466000002</v>
+        <v>87.090934791199999</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -5781,10 +5784,10 @@
         <v>364</v>
       </c>
       <c r="C129">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D129" s="29">
-        <v>96.730672956999996</v>
+        <v>104.3673050325</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -5795,10 +5798,10 @@
         <v>366</v>
       </c>
       <c r="C130">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D130" s="29">
-        <v>89.342260019899996</v>
+        <v>122.13878585</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -5809,10 +5812,10 @@
         <v>368</v>
       </c>
       <c r="C131">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D131" s="29">
-        <v>138.26570894880001</v>
+        <v>139.80627395100001</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -5823,10 +5826,10 @@
         <v>370</v>
       </c>
       <c r="C132">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D132" s="29">
-        <v>368.32214765100002</v>
+        <v>366.17449664430001</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -5837,10 +5840,10 @@
         <v>372</v>
       </c>
       <c r="C133">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="D133" s="29">
-        <v>121.6931627045</v>
+        <v>140.29593916889999</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -5851,10 +5854,10 @@
         <v>374</v>
       </c>
       <c r="C134">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="D134" s="29">
-        <v>129.3001536825</v>
+        <v>132.99444378769999</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -5865,10 +5868,10 @@
         <v>376</v>
       </c>
       <c r="C135">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="D135" s="29">
-        <v>87.807254578699997</v>
+        <v>103.1027118279</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -5879,10 +5882,10 @@
         <v>378</v>
       </c>
       <c r="C136">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="D136" s="29">
-        <v>120.8623060683</v>
+        <v>111.9525847876</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -5893,10 +5896,10 @@
         <v>380</v>
       </c>
       <c r="C137">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="D137" s="29">
-        <v>159.46186566430001</v>
+        <v>165.79285784940001</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -5907,10 +5910,10 @@
         <v>382</v>
       </c>
       <c r="C138">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D138" s="29">
-        <v>26.413876089599999</v>
+        <v>35.218501452799998</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -5921,10 +5924,10 @@
         <v>384</v>
       </c>
       <c r="C139">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="D139" s="29">
-        <v>297.98084620629999</v>
+        <v>275.74346962369998</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -5935,10 +5938,10 @@
         <v>386</v>
       </c>
       <c r="C140">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="D140" s="29">
-        <v>34.351507939199998</v>
+        <v>45.393064062500002</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -5949,10 +5952,10 @@
         <v>388</v>
       </c>
       <c r="C141">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D141" s="29">
-        <v>100.61095638730001</v>
+        <v>102.7981510914</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -5963,10 +5966,10 @@
         <v>390</v>
       </c>
       <c r="C142">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="D142" s="29">
-        <v>491.79654613029999</v>
+        <v>521.57128483129998</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -5977,10 +5980,10 @@
         <v>392</v>
       </c>
       <c r="C143">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="D143" s="29">
-        <v>130.92707978210001</v>
+        <v>141.4447676316</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -5991,10 +5994,10 @@
         <v>394</v>
       </c>
       <c r="C144">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D144" s="29">
-        <v>103.9149157266</v>
+        <v>107.06385256679999</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -6005,10 +6008,10 @@
         <v>396</v>
       </c>
       <c r="C145">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="D145" s="29">
-        <v>98.920912593400004</v>
+        <v>86.316031764300007</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -6019,10 +6022,10 @@
         <v>398</v>
       </c>
       <c r="C146">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="D146" s="29">
-        <v>191.32315063120001</v>
+        <v>204.57267629820001</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -6047,10 +6050,10 @@
         <v>402</v>
       </c>
       <c r="C148">
-        <v>1818</v>
+        <v>2002</v>
       </c>
       <c r="D148" s="29">
-        <v>98.416405332699995</v>
+        <v>108.377141626</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -6061,10 +6064,10 @@
         <v>404</v>
       </c>
       <c r="C149">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D149" s="29">
-        <v>76.7423543747</v>
+        <v>69.337390356</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -6075,10 +6078,10 @@
         <v>406</v>
       </c>
       <c r="C150">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D150" s="29">
-        <v>91.1536494809</v>
+        <v>92.821094288400005</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -6089,10 +6092,10 @@
         <v>408</v>
       </c>
       <c r="C151">
-        <v>1384</v>
+        <v>1412</v>
       </c>
       <c r="D151" s="29">
-        <v>119.6078177191</v>
+        <v>122.0276290602</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -6103,10 +6106,10 @@
         <v>410</v>
       </c>
       <c r="C152">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="D152" s="29">
-        <v>104.5470088157</v>
+        <v>110.8355506994</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -6117,10 +6120,10 @@
         <v>412</v>
       </c>
       <c r="C153">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="D153" s="29">
-        <v>148.1412029441</v>
+        <v>141.57798509209999</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -6131,10 +6134,10 @@
         <v>414</v>
       </c>
       <c r="C154">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D154" s="29">
-        <v>101.9150549867</v>
+        <v>114.95070155480001</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -6145,10 +6148,10 @@
         <v>416</v>
       </c>
       <c r="C155">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D155" s="29">
-        <v>141.1077572456</v>
+        <v>138.04019730549999</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -6159,10 +6162,10 @@
         <v>418</v>
       </c>
       <c r="C156">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D156" s="29">
-        <v>36.965160336399997</v>
+        <v>48.339055824500001</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -6173,10 +6176,10 @@
         <v>420</v>
       </c>
       <c r="C157">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D157" s="29">
-        <v>72.452549772400005</v>
+        <v>81.741338204800002</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -6187,10 +6190,10 @@
         <v>422</v>
       </c>
       <c r="C158">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="D158" s="29">
-        <v>82.845673572999999</v>
+        <v>109.958803106</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -6201,10 +6204,10 @@
         <v>424</v>
       </c>
       <c r="C159">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D159" s="29">
-        <v>125.6003538928</v>
+        <v>121.6506572295</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -6215,10 +6218,10 @@
         <v>426</v>
       </c>
       <c r="C160">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="D160" s="29">
-        <v>97.254801774399994</v>
+        <v>110.3188796247</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -6229,10 +6232,10 @@
         <v>428</v>
       </c>
       <c r="C161">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="D161" s="29">
-        <v>81.782786484300004</v>
+        <v>86.869754064700004</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -6243,10 +6246,10 @@
         <v>430</v>
       </c>
       <c r="C162">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D162" s="29">
-        <v>75.577510761599996</v>
+        <v>64.624248332400001</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -6257,10 +6260,10 @@
         <v>432</v>
       </c>
       <c r="C163">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="D163" s="29">
-        <v>127.7047466258</v>
+        <v>110.14534396480001</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -6271,10 +6274,10 @@
         <v>434</v>
       </c>
       <c r="C164">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="D164" s="29">
-        <v>116.3318397689</v>
+        <v>126.5588146936</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -6285,10 +6288,10 @@
         <v>436</v>
       </c>
       <c r="C165">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="D165" s="29">
-        <v>274.1904754016</v>
+        <v>302.35505595640001</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -6299,10 +6302,10 @@
         <v>438</v>
       </c>
       <c r="C166">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="D166" s="29">
-        <v>67.165272019400007</v>
+        <v>74.235300652999996</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -6313,10 +6316,10 @@
         <v>440</v>
       </c>
       <c r="C167">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D167" s="29">
-        <v>137.66476256780001</v>
+        <v>134.50005538240001</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -6327,10 +6330,10 @@
         <v>442</v>
       </c>
       <c r="C168">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D168" s="29">
-        <v>104.417059137</v>
+        <v>89.552130579299998</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -6341,10 +6344,10 @@
         <v>444</v>
       </c>
       <c r="C169">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D169" s="29">
-        <v>97.7761695608</v>
+        <v>100.8557339564</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -6355,10 +6358,10 @@
         <v>446</v>
       </c>
       <c r="C170">
-        <v>232</v>
+        <v>287</v>
       </c>
       <c r="D170" s="29">
-        <v>97.925829625899993</v>
+        <v>121.1410047528</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -6369,10 +6372,10 @@
         <v>448</v>
       </c>
       <c r="C171">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D171" s="29">
-        <v>403.70976541189998</v>
+        <v>418.9852700491</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -6383,10 +6386,10 @@
         <v>450</v>
       </c>
       <c r="C172">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="D172" s="29">
-        <v>271.0941867702</v>
+        <v>280.58775751309997</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -6397,10 +6400,10 @@
         <v>452</v>
       </c>
       <c r="C173">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="D173" s="29">
-        <v>224.5794682881</v>
+        <v>235.23145887890001</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -6411,10 +6414,10 @@
         <v>454</v>
       </c>
       <c r="C174">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D174" s="29">
-        <v>48.255698430300001</v>
+        <v>65.287121405700006</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -6425,10 +6428,10 @@
         <v>456</v>
       </c>
       <c r="C175">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D175" s="29">
-        <v>55.614576723200003</v>
+        <v>58.4666062987</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -6439,10 +6442,10 @@
         <v>458</v>
       </c>
       <c r="C176">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="D176" s="29">
-        <v>224.00210825510001</v>
+        <v>253.17885344800001</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -6453,10 +6456,10 @@
         <v>460</v>
       </c>
       <c r="C177">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D177" s="29">
-        <v>74.240130429700002</v>
+        <v>77.1515080936</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -6467,10 +6470,10 @@
         <v>462</v>
       </c>
       <c r="C178">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D178" s="29">
-        <v>85.321933125599998</v>
+        <v>61.970667217500001</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -6481,10 +6484,10 @@
         <v>464</v>
       </c>
       <c r="C179">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D179" s="29">
-        <v>197.56889796740001</v>
+        <v>193.104064115</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -6495,10 +6498,10 @@
         <v>466</v>
       </c>
       <c r="C180">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D180" s="29">
-        <v>34.989503149100003</v>
+        <v>36.988903329000003</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -6509,10 +6512,10 @@
         <v>468</v>
       </c>
       <c r="C181">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D181" s="29">
-        <v>65.1072382264</v>
+        <v>73.599486690800006</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -6523,10 +6526,10 @@
         <v>470</v>
       </c>
       <c r="C182">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D182" s="29">
-        <v>84.919566750000001</v>
+        <v>81.715054797199997</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -6537,10 +6540,10 @@
         <v>472</v>
       </c>
       <c r="C183">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D183" s="29">
-        <v>110.5367096457</v>
+        <v>111.66005019089999</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -6551,10 +6554,10 @@
         <v>474</v>
       </c>
       <c r="C184">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D184" s="29">
-        <v>93.995656411200002</v>
+        <v>93.006228449000005</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -6565,10 +6568,10 @@
         <v>476</v>
       </c>
       <c r="C185">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D185" s="29">
-        <v>98.410231285199998</v>
+        <v>99.677315808100005</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -6579,10 +6582,10 @@
         <v>478</v>
       </c>
       <c r="C186">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="D186" s="29">
-        <v>99.103563223600005</v>
+        <v>171.17888193159999</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -6593,10 +6596,10 @@
         <v>480</v>
       </c>
       <c r="C187">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="D187" s="29">
-        <v>191.779486096</v>
+        <v>203.15623527119999</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -6607,10 +6610,10 @@
         <v>482</v>
       </c>
       <c r="C188">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D188" s="29">
-        <v>107.0121907131</v>
+        <v>133.0421830487</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -6621,10 +6624,10 @@
         <v>484</v>
       </c>
       <c r="C189">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D189" s="29">
-        <v>47.407959674899999</v>
+        <v>51.054725803700002</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -6635,10 +6638,10 @@
         <v>486</v>
       </c>
       <c r="C190">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D190" s="29">
-        <v>77.889309417999996</v>
+        <v>58.142723931799999</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -6649,10 +6652,10 @@
         <v>488</v>
       </c>
       <c r="C191">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="D191" s="29">
-        <v>120.97354903750001</v>
+        <v>129.9345526699</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -6663,10 +6666,10 @@
         <v>490</v>
       </c>
       <c r="C192">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D192" s="29">
-        <v>77.157787675799995</v>
+        <v>73.6506155087</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -6677,10 +6680,10 @@
         <v>492</v>
       </c>
       <c r="C193">
-        <v>1232</v>
+        <v>1392</v>
       </c>
       <c r="D193" s="29">
-        <v>113.24955440159999</v>
+        <v>127.9572887395</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -6691,10 +6694,10 @@
         <v>494</v>
       </c>
       <c r="C194">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="D194" s="29">
-        <v>120.15158659470001</v>
+        <v>128.88353329489999</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -6705,10 +6708,10 @@
         <v>496</v>
       </c>
       <c r="C195">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="D195" s="29">
-        <v>167.97337050440001</v>
+        <v>171.05141656079999</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -6719,10 +6722,10 @@
         <v>498</v>
       </c>
       <c r="C196">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D196" s="29">
-        <v>229.23752303609999</v>
+        <v>236.7289453576</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -6733,10 +6736,10 @@
         <v>500</v>
       </c>
       <c r="C197">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="D197" s="29">
-        <v>251.51608305619999</v>
+        <v>283.65424922450001</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -6747,10 +6750,10 @@
         <v>502</v>
       </c>
       <c r="C198">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D198" s="29">
-        <v>56.964639200199997</v>
+        <v>58.3887551802</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -6761,10 +6764,10 @@
         <v>504</v>
       </c>
       <c r="C199">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D199" s="29">
-        <v>146.87651592730001</v>
+        <v>141.48655204010001</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -6775,10 +6778,10 @@
         <v>506</v>
       </c>
       <c r="C200">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="D200" s="29">
-        <v>180.01018478680001</v>
+        <v>189.8791642159</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -6803,10 +6806,10 @@
         <v>510</v>
       </c>
       <c r="C202">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D202" s="29">
-        <v>53.199448055700003</v>
+        <v>48.211999800500003</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -6817,10 +6820,10 @@
         <v>512</v>
       </c>
       <c r="C203">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D203" s="29">
-        <v>136.21936766970001</v>
+        <v>144.39252972989999</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -6831,10 +6834,10 @@
         <v>514</v>
       </c>
       <c r="C204">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D204" s="29">
-        <v>139.46652490700001</v>
+        <v>140.7173457582</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -6845,10 +6848,10 @@
         <v>516</v>
       </c>
       <c r="C205">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D205" s="29">
-        <v>114.198036965</v>
+        <v>117.12619175899999</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -6859,10 +6862,10 @@
         <v>518</v>
       </c>
       <c r="C206">
-        <v>528</v>
+        <v>475</v>
       </c>
       <c r="D206" s="29">
-        <v>89.017019447199999</v>
+        <v>80.081598934499993</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -6873,10 +6876,10 @@
         <v>520</v>
       </c>
       <c r="C207">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="D207" s="29">
-        <v>134.81109014910001</v>
+        <v>120.477727116</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -6887,10 +6890,10 @@
         <v>522</v>
       </c>
       <c r="C208">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D208" s="29">
-        <v>107.4947016106</v>
+        <v>106.2731709105</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -6901,10 +6904,10 @@
         <v>524</v>
       </c>
       <c r="C209">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D209" s="29">
-        <v>136.27650652930001</v>
+        <v>152.74949083499999</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -6915,10 +6918,10 @@
         <v>526</v>
       </c>
       <c r="C210">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D210" s="29">
-        <v>147.75001163389999</v>
+        <v>155.89371306250001</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -6929,10 +6932,10 @@
         <v>528</v>
       </c>
       <c r="C211">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="D211" s="29">
-        <v>101.2429709323</v>
+        <v>123.1992778815</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -6943,10 +6946,10 @@
         <v>530</v>
       </c>
       <c r="C212">
-        <v>694</v>
+        <v>799</v>
       </c>
       <c r="D212" s="29">
-        <v>199.7041845796</v>
+        <v>229.9187946385</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -6957,10 +6960,10 @@
         <v>532</v>
       </c>
       <c r="C213">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D213" s="29">
-        <v>98.366675993300007</v>
+        <v>96.180749860099993</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -6971,10 +6974,10 @@
         <v>534</v>
       </c>
       <c r="C214">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D214" s="29">
-        <v>60.499699810599999</v>
+        <v>53.572253267400001</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -6985,10 +6988,10 @@
         <v>536</v>
       </c>
       <c r="C215">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D215" s="29">
-        <v>49.574485664699999</v>
+        <v>57.836899942199999</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -6999,10 +7002,10 @@
         <v>538</v>
       </c>
       <c r="C216">
-        <v>556</v>
+        <v>582</v>
       </c>
       <c r="D216" s="29">
-        <v>101.9392288187</v>
+        <v>106.7061711736</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -7013,10 +7016,10 @@
         <v>540</v>
       </c>
       <c r="C217">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D217" s="29">
-        <v>159.6488885535</v>
+        <v>157.3267229018</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -7027,10 +7030,10 @@
         <v>542</v>
       </c>
       <c r="C218">
-        <v>299</v>
+        <v>363</v>
       </c>
       <c r="D218" s="29">
-        <v>141.18491446269999</v>
+        <v>171.4050968226</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -7041,10 +7044,10 @@
         <v>544</v>
       </c>
       <c r="C219">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D219" s="29">
-        <v>61.909752958399999</v>
+        <v>71.141909101300001</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -7055,10 +7058,10 @@
         <v>546</v>
       </c>
       <c r="C220">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="D220" s="29">
-        <v>119.1252920253</v>
+        <v>125.43935344010001</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -7069,10 +7072,10 @@
         <v>548</v>
       </c>
       <c r="C221">
-        <v>628</v>
+        <v>654</v>
       </c>
       <c r="D221" s="29">
-        <v>149.3275504575</v>
+        <v>155.50990127259999</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -7083,10 +7086,10 @@
         <v>550</v>
       </c>
       <c r="C222">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D222" s="29">
-        <v>100.6674170485</v>
+        <v>97.496789739899995</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -7097,10 +7100,10 @@
         <v>552</v>
       </c>
       <c r="C223">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D223" s="29">
-        <v>200.15256912820001</v>
+        <v>193.35493470489999</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -7111,10 +7114,10 @@
         <v>554</v>
       </c>
       <c r="C224">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="D224" s="29">
-        <v>94.735871360399997</v>
+        <v>103.9579473336</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -7125,10 +7128,10 @@
         <v>556</v>
       </c>
       <c r="C225">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="D225" s="29">
-        <v>67.252879978799996</v>
+        <v>74.115418752099998</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -7139,10 +7142,10 @@
         <v>558</v>
       </c>
       <c r="C226">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="D226" s="29">
-        <v>54.867867768399996</v>
+        <v>69.530832430700002</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -7153,10 +7156,10 @@
         <v>560</v>
       </c>
       <c r="C227">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="D227" s="29">
-        <v>162.55818295360001</v>
+        <v>167.06474644139999</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -7167,10 +7170,10 @@
         <v>562</v>
       </c>
       <c r="C228">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="D228" s="29">
-        <v>111.15886825450001</v>
+        <v>123.0158142017</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -7181,10 +7184,10 @@
         <v>564</v>
       </c>
       <c r="C229">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="D229" s="29">
-        <v>167.9590746467</v>
+        <v>161.8882647197</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -7195,10 +7198,10 @@
         <v>566</v>
       </c>
       <c r="C230">
-        <v>904</v>
+        <v>956</v>
       </c>
       <c r="D230" s="29">
-        <v>220.36848340649999</v>
+        <v>233.04454661130001</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -7209,10 +7212,10 @@
         <v>568</v>
       </c>
       <c r="C231">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="D231" s="29">
-        <v>97.572937047600007</v>
+        <v>102.1706147095</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -7223,10 +7226,10 @@
         <v>570</v>
       </c>
       <c r="C232">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D232" s="29">
-        <v>72.283313280499996</v>
+        <v>69.018905583999995</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -7237,10 +7240,10 @@
         <v>572</v>
       </c>
       <c r="C233">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D233" s="29">
-        <v>88.734239016700002</v>
+        <v>89.121724776600004</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -7251,10 +7254,10 @@
         <v>574</v>
       </c>
       <c r="C234">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="D234" s="29">
-        <v>159.27717123740001</v>
+        <v>167.551310003</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -7265,10 +7268,10 @@
         <v>576</v>
       </c>
       <c r="C235">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D235" s="29">
-        <v>108.843537415</v>
+        <v>136.0544217687</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -7279,10 +7282,10 @@
         <v>578</v>
       </c>
       <c r="C236">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D236" s="29">
-        <v>63.926852183699999</v>
+        <v>57.146731497499999</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -7293,10 +7296,10 @@
         <v>580</v>
       </c>
       <c r="C237">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="D237" s="29">
-        <v>113.886772247</v>
+        <v>117.5937557922</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -7307,10 +7310,10 @@
         <v>582</v>
       </c>
       <c r="C238">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D238" s="29">
-        <v>74.992500749900003</v>
+        <v>76.992300769899998</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -7335,10 +7338,10 @@
         <v>586</v>
       </c>
       <c r="C240">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="D240" s="29">
-        <v>167.19876034519999</v>
+        <v>172.99756128210001</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -7349,10 +7352,10 @@
         <v>588</v>
       </c>
       <c r="C241">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="D241" s="29">
-        <v>155.2126116824</v>
+        <v>164.42013949400001</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -7363,10 +7366,10 @@
         <v>590</v>
       </c>
       <c r="C242">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="D242" s="29">
-        <v>83.897116850700002</v>
+        <v>96.539148156899998</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -7377,10 +7380,10 @@
         <v>592</v>
       </c>
       <c r="C243">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D243" s="29">
-        <v>115.6448494891</v>
+        <v>116.50787075389999</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -7391,10 +7394,10 @@
         <v>594</v>
       </c>
       <c r="C244">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="D244" s="29">
-        <v>119.555534718</v>
+        <v>133.03483520090001</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -7405,10 +7408,10 @@
         <v>596</v>
       </c>
       <c r="C245">
-        <v>1253</v>
+        <v>1330</v>
       </c>
       <c r="D245" s="29">
-        <v>84.421105680699995</v>
+        <v>89.608994856600006</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -7419,10 +7422,10 @@
         <v>598</v>
       </c>
       <c r="C246">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="D246" s="29">
-        <v>81.889332416499997</v>
+        <v>89.593206894700003</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -7433,10 +7436,10 @@
         <v>600</v>
       </c>
       <c r="C247">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D247" s="29">
-        <v>62.7987300701</v>
+        <v>59.627077036300001</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -7447,10 +7450,10 @@
         <v>602</v>
       </c>
       <c r="C248">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D248" s="29">
-        <v>56.393725675900001</v>
+        <v>66.140789372900002</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -7461,10 +7464,10 @@
         <v>604</v>
       </c>
       <c r="C249">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D249" s="29">
-        <v>109.96577700580001</v>
+        <v>123.3261050533</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -7475,10 +7478,10 @@
         <v>606</v>
       </c>
       <c r="C250">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D250" s="29">
-        <v>79.510748812900005</v>
+        <v>94.372571020899997</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -7489,10 +7492,10 @@
         <v>608</v>
       </c>
       <c r="C251">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D251" s="29">
-        <v>71.075864132899994</v>
+        <v>74.816699087200007</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -7503,10 +7506,10 @@
         <v>610</v>
       </c>
       <c r="C252">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D252" s="29">
-        <v>89.796663825600007</v>
+        <v>87.513697796200006</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -7517,10 +7520,10 @@
         <v>612</v>
       </c>
       <c r="C253">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D253" s="29">
-        <v>71.277248698199998</v>
+        <v>82.166828360400004</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -7531,10 +7534,10 @@
         <v>614</v>
       </c>
       <c r="C254">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D254" s="29">
-        <v>115.4049761779</v>
+        <v>102.6998411858</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -7545,10 +7548,10 @@
         <v>616</v>
       </c>
       <c r="C255">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D255" s="29">
-        <v>54.445779513399998</v>
+        <v>63.832982877699997</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
@@ -7559,10 +7562,10 @@
         <v>618</v>
       </c>
       <c r="C256">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D256" s="29">
-        <v>64.496244378</v>
+        <v>71.9161662976</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -7573,10 +7576,10 @@
         <v>620</v>
       </c>
       <c r="C257">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="D257" s="29">
-        <v>161.91585845489999</v>
+        <v>187.62547111500001</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -7587,10 +7590,10 @@
         <v>622</v>
       </c>
       <c r="C258">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D258" s="29">
-        <v>41.189554329000003</v>
+        <v>46.132300848500002</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -7601,10 +7604,10 @@
         <v>624</v>
       </c>
       <c r="C259">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D259" s="29">
-        <v>19.885387855499999</v>
+        <v>18.680212833900001</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -7615,10 +7618,10 @@
         <v>626</v>
       </c>
       <c r="C260">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D260" s="29">
-        <v>69.531025223</v>
+        <v>70.729836002699997</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -7629,10 +7632,10 @@
         <v>628</v>
       </c>
       <c r="C261">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="D261" s="29">
-        <v>202.2848068939</v>
+        <v>209.87048715239999</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -7643,10 +7646,10 @@
         <v>630</v>
       </c>
       <c r="C262">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="D262" s="29">
-        <v>93.438934160499997</v>
+        <v>106.78735332630001</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -7657,10 +7660,10 @@
         <v>632</v>
       </c>
       <c r="C263">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D263" s="29">
-        <v>46.868503609599998</v>
+        <v>45.3566163964</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -7671,10 +7674,10 @@
         <v>634</v>
       </c>
       <c r="C264">
-        <v>748</v>
+        <v>779</v>
       </c>
       <c r="D264" s="29">
-        <v>144.2984740629</v>
+        <v>150.27875841580001</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -7685,10 +7688,10 @@
         <v>636</v>
       </c>
       <c r="C265">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="D265" s="29">
-        <v>119.443533655</v>
+        <v>99.536278045800003</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -7699,10 +7702,10 @@
         <v>638</v>
       </c>
       <c r="C266">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="D266" s="29">
-        <v>69.868211886599994</v>
+        <v>111.5327419107</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -7713,10 +7716,10 @@
         <v>640</v>
       </c>
       <c r="C267">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="D267" s="29">
-        <v>156.58483332540001</v>
+        <v>149.60100273099999</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -7727,10 +7730,10 @@
         <v>642</v>
       </c>
       <c r="C268">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="D268" s="29">
-        <v>106.75447419859999</v>
+        <v>130.952155017</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -7741,10 +7744,10 @@
         <v>644</v>
       </c>
       <c r="C269">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D269" s="29">
-        <v>169.08235249910001</v>
+        <v>165.32496688800001</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -7755,10 +7758,10 @@
         <v>646</v>
       </c>
       <c r="C270">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D270" s="29">
-        <v>205.72180925469999</v>
+        <v>207.55044755919999</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -7769,10 +7772,10 @@
         <v>648</v>
       </c>
       <c r="C271">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D271" s="29">
-        <v>118.9208194162</v>
+        <v>114.7844430886</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -7783,10 +7786,10 @@
         <v>650</v>
       </c>
       <c r="C272">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="D272" s="29">
-        <v>148.76707885210001</v>
+        <v>154.35982617740001</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -7797,10 +7800,10 @@
         <v>652</v>
       </c>
       <c r="C273">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="D273" s="29">
-        <v>200.33773411109999</v>
+        <v>214.1541295671</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -7811,10 +7814,10 @@
         <v>654</v>
       </c>
       <c r="C274">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D274" s="29">
-        <v>134.059182773</v>
+        <v>133.4970897634</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -7825,10 +7828,10 @@
         <v>656</v>
       </c>
       <c r="C275">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D275" s="29">
-        <v>82.802510098900001</v>
+        <v>86.942635603900001</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -7839,10 +7842,10 @@
         <v>658</v>
       </c>
       <c r="C276">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D276" s="29">
-        <v>68.760027504000007</v>
+        <v>84.804033921599995</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -7853,10 +7856,10 @@
         <v>660</v>
       </c>
       <c r="C277">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D277" s="29">
-        <v>94.061438542800005</v>
+        <v>105.2592288455</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -7867,10 +7870,10 @@
         <v>662</v>
       </c>
       <c r="C278">
-        <v>529</v>
+        <v>580</v>
       </c>
       <c r="D278" s="29">
-        <v>122.7512048878</v>
+        <v>134.585442032</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -7881,10 +7884,10 @@
         <v>664</v>
       </c>
       <c r="C279">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D279" s="29">
-        <v>157.3364155134</v>
+        <v>154.31071521499999</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -7895,10 +7898,10 @@
         <v>666</v>
       </c>
       <c r="C280">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D280" s="29">
-        <v>97.743521000900003</v>
+        <v>99.419124218099995</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -7909,10 +7912,10 @@
         <v>668</v>
       </c>
       <c r="C281">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="D281" s="29">
-        <v>109.863864342</v>
+        <v>121.64636573520001</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -7923,10 +7926,10 @@
         <v>670</v>
       </c>
       <c r="C282">
-        <v>164</v>
+        <v>313</v>
       </c>
       <c r="D282" s="29">
-        <v>116.1621169838</v>
+        <v>221.69965009699999</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -7937,10 +7940,10 @@
         <v>672</v>
       </c>
       <c r="C283">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D283" s="29">
-        <v>77.241766729899993</v>
+        <v>93.041219015500005</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -7951,10 +7954,10 @@
         <v>674</v>
       </c>
       <c r="C284">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D284" s="29">
-        <v>35.404584644400003</v>
+        <v>30.4180234269</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -7965,10 +7968,10 @@
         <v>676</v>
       </c>
       <c r="C285">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D285" s="29">
-        <v>112.2788561718</v>
+        <v>121.38254721280001</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -7979,10 +7982,10 @@
         <v>678</v>
       </c>
       <c r="C286">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="D286" s="29">
-        <v>63.669645496500003</v>
+        <v>66.918096797399997</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -7993,10 +7996,10 @@
         <v>680</v>
       </c>
       <c r="C287">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D287" s="29">
-        <v>174.23252466720001</v>
+        <v>151.50654318880001</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -8007,10 +8010,10 @@
         <v>682</v>
       </c>
       <c r="C288">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="D288" s="29">
-        <v>102.2547961133</v>
+        <v>106.926335022</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -8021,10 +8024,10 @@
         <v>684</v>
       </c>
       <c r="C289">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="D289" s="29">
-        <v>121.66081853990001</v>
+        <v>163.2035370657</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
@@ -8035,10 +8038,10 @@
         <v>686</v>
       </c>
       <c r="C290">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D290" s="29">
-        <v>138.0364509815</v>
+        <v>135.6968501174</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
@@ -8049,10 +8052,10 @@
         <v>688</v>
       </c>
       <c r="C291">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D291" s="29">
-        <v>76.216486578800001</v>
+        <v>80.980016989899994</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
@@ -8063,10 +8066,10 @@
         <v>690</v>
       </c>
       <c r="C292">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="D292" s="29">
-        <v>96.803889871300001</v>
+        <v>99.018357940300007</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -8077,10 +8080,10 @@
         <v>692</v>
       </c>
       <c r="C293">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D293" s="29">
-        <v>104.3971067088</v>
+        <v>136.71049688049999</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
@@ -8091,10 +8094,10 @@
         <v>694</v>
       </c>
       <c r="C294">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D294" s="29">
-        <v>18.650047402199998</v>
+        <v>21.758388635900001</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -8105,10 +8108,10 @@
         <v>696</v>
       </c>
       <c r="C295">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D295" s="29">
-        <v>93.714995508300007</v>
+        <v>94.824048709600007</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
@@ -8119,10 +8122,10 @@
         <v>698</v>
       </c>
       <c r="C296">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="D296" s="29">
-        <v>110.3589667815</v>
+        <v>115.9000027705</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
@@ -8133,10 +8136,10 @@
         <v>700</v>
       </c>
       <c r="C297">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D297" s="29">
-        <v>95.853357493600001</v>
+        <v>110.2970141023</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
@@ -8147,10 +8150,10 @@
         <v>702</v>
       </c>
       <c r="C298">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="D298" s="29">
-        <v>188.4020395817</v>
+        <v>177.59917033959999</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
@@ -8161,10 +8164,10 @@
         <v>704</v>
       </c>
       <c r="C299">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="D299" s="29">
-        <v>94.596109647399999</v>
+        <v>100.2018050339</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
@@ -8175,10 +8178,10 @@
         <v>706</v>
       </c>
       <c r="C300">
-        <v>689</v>
+        <v>719</v>
       </c>
       <c r="D300" s="29">
-        <v>112.1899511021</v>
+        <v>117.07485463339999</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -8189,10 +8192,10 @@
         <v>708</v>
       </c>
       <c r="C301">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D301" s="29">
-        <v>122.7231623821</v>
+        <v>135.64139000130001</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
@@ -8203,10 +8206,10 @@
         <v>710</v>
       </c>
       <c r="C302">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D302" s="29">
-        <v>148.9281095275</v>
+        <v>162.64517224709999</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -8217,10 +8220,10 @@
         <v>712</v>
       </c>
       <c r="C303">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="D303" s="29">
-        <v>118.51393826970001</v>
+        <v>138.60977997629999</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
@@ -8231,10 +8234,10 @@
         <v>714</v>
       </c>
       <c r="C304">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="D304" s="29">
-        <v>192.20751225999999</v>
+        <v>212.8653289982</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
@@ -8245,10 +8248,10 @@
         <v>716</v>
       </c>
       <c r="C305">
-        <v>389</v>
+        <v>461</v>
       </c>
       <c r="D305" s="29">
-        <v>91.047822342100005</v>
+        <v>107.8998614388</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -8259,10 +8262,10 @@
         <v>718</v>
       </c>
       <c r="C306">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D306" s="29">
-        <v>46.333793022899997</v>
+        <v>45.604126991100003</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
@@ -8273,10 +8276,10 @@
         <v>720</v>
       </c>
       <c r="C307">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D307" s="29">
-        <v>106.9559703728</v>
+        <v>119.1496477769</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
@@ -8287,10 +8290,10 @@
         <v>722</v>
       </c>
       <c r="C308">
-        <v>619</v>
+        <v>568</v>
       </c>
       <c r="D308" s="29">
-        <v>131.5300192302</v>
+        <v>120.69313557789999</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -8301,10 +8304,10 @@
         <v>724</v>
       </c>
       <c r="C309">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D309" s="29">
-        <v>68.924983970900001</v>
+        <v>74.802308185499996</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -8315,10 +8318,10 @@
         <v>726</v>
       </c>
       <c r="C310">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D310" s="29">
-        <v>67.853784787199999</v>
+        <v>77.547182613900006</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -8329,10 +8332,10 @@
         <v>728</v>
       </c>
       <c r="C311">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="D311" s="29">
-        <v>101.3164072567</v>
+        <v>113.6720666782</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -8343,10 +8346,10 @@
         <v>730</v>
       </c>
       <c r="C312">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="D312" s="29">
-        <v>88.991211564400004</v>
+        <v>79.250879950400005</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -8357,10 +8360,10 @@
         <v>732</v>
       </c>
       <c r="C313">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D313" s="29">
-        <v>80.132791483000005</v>
+        <v>94.033377760700006</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -8371,10 +8374,10 @@
         <v>734</v>
       </c>
       <c r="C314">
-        <v>601</v>
+        <v>647</v>
       </c>
       <c r="D314" s="29">
-        <v>109.6005325018</v>
+        <v>117.9892587831</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -8385,10 +8388,10 @@
         <v>736</v>
       </c>
       <c r="C315">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D315" s="29">
-        <v>93.784967239899999</v>
+        <v>99.606103137600002</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
@@ -8399,10 +8402,10 @@
         <v>738</v>
       </c>
       <c r="C316">
-        <v>576</v>
+        <v>635</v>
       </c>
       <c r="D316" s="29">
-        <v>95.877915454299995</v>
+        <v>105.6987435998</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -8413,10 +8416,10 @@
         <v>740</v>
       </c>
       <c r="C317">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="D317" s="29">
-        <v>159.4776166259</v>
+        <v>178.31355559740001</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -8427,10 +8430,10 @@
         <v>742</v>
       </c>
       <c r="C318">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D318" s="29">
-        <v>122.7360702428</v>
+        <v>119.5889915186</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
@@ -8441,10 +8444,10 @@
         <v>744</v>
       </c>
       <c r="C319">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="D319" s="29">
-        <v>94.899169632300001</v>
+        <v>100.2563808212</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -8455,10 +8458,10 @@
         <v>746</v>
       </c>
       <c r="C320">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D320" s="29">
-        <v>31.072082451</v>
+        <v>45.891075619900001</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
@@ -8469,10 +8472,10 @@
         <v>748</v>
       </c>
       <c r="C321">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="D321" s="29">
-        <v>76.461810800999999</v>
+        <v>83.412884510200001</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
@@ -8483,10 +8486,10 @@
         <v>750</v>
       </c>
       <c r="C322">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="D322" s="29">
-        <v>76.320963231600004</v>
+        <v>99.522536054</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
@@ -8497,10 +8500,10 @@
         <v>752</v>
       </c>
       <c r="C323">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="D323" s="29">
-        <v>146.74671989519999</v>
+        <v>162.5259370883</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -8511,10 +8514,10 @@
         <v>754</v>
       </c>
       <c r="C324">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D324" s="29">
-        <v>75.718918207100003</v>
+        <v>78.188013366000007</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
@@ -8525,10 +8528,10 @@
         <v>756</v>
       </c>
       <c r="C325">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D325" s="29">
-        <v>70.775961909700001</v>
+        <v>74.350505440500001</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
@@ -8539,10 +8542,10 @@
         <v>758</v>
       </c>
       <c r="C326">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D326" s="29">
-        <v>162.7486437613</v>
+        <v>160.3375527426</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
@@ -8553,10 +8556,10 @@
         <v>760</v>
       </c>
       <c r="C327">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="D327" s="29">
-        <v>152.327067976</v>
+        <v>158.8553708892</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
@@ -8567,10 +8570,10 @@
         <v>762</v>
       </c>
       <c r="C328">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="D328" s="29">
-        <v>464.43868911250001</v>
+        <v>424.594083076</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
@@ -8581,10 +8584,10 @@
         <v>764</v>
       </c>
       <c r="C329">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D329" s="29">
-        <v>187.98631769689999</v>
+        <v>188.95531933449999</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
@@ -8595,10 +8598,10 @@
         <v>766</v>
       </c>
       <c r="C330">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D330" s="29">
-        <v>47.859447609299998</v>
+        <v>35.508622419799998</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
@@ -8609,10 +8612,10 @@
         <v>767</v>
       </c>
       <c r="C331">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D331" s="29">
-        <v>61.886410306899997</v>
+        <v>56.963627668900003</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
@@ -8623,10 +8626,10 @@
         <v>769</v>
       </c>
       <c r="C332">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D332" s="29">
-        <v>119.7136644597</v>
+        <v>122.9711791389</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
@@ -8637,10 +8640,10 @@
         <v>771</v>
       </c>
       <c r="C333">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="D333" s="29">
-        <v>136.157482429</v>
+        <v>156.2934481403</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
@@ -8651,10 +8654,10 @@
         <v>773</v>
       </c>
       <c r="C334">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D334" s="29">
-        <v>96.761401189699995</v>
+        <v>88.301387970899995</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
@@ -8665,10 +8668,10 @@
         <v>775</v>
       </c>
       <c r="C335">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D335" s="29">
-        <v>71.258634362799995</v>
+        <v>67.8106359258</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
@@ -8679,10 +8682,10 @@
         <v>777</v>
       </c>
       <c r="C336">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D336" s="29">
-        <v>109.6185527816</v>
+        <v>98.213154226300006</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
@@ -8693,10 +8696,10 @@
         <v>779</v>
       </c>
       <c r="C337">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D337" s="29">
-        <v>37.284495615300003</v>
+        <v>42.752888305600003</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
@@ -8707,10 +8710,10 @@
         <v>781</v>
       </c>
       <c r="C338">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="D338" s="29">
-        <v>313.01034295049999</v>
+        <v>327.4200262576</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
@@ -8721,10 +8724,10 @@
         <v>783</v>
       </c>
       <c r="C339">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D339" s="29">
-        <v>87.845586979299995</v>
+        <v>104.9266733364</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
@@ -8735,10 +8738,10 @@
         <v>785</v>
       </c>
       <c r="C340">
-        <v>738</v>
+        <v>781</v>
       </c>
       <c r="D340" s="29">
-        <v>375.0743287542</v>
+        <v>396.92825305830002</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
@@ -8749,10 +8752,10 @@
         <v>787</v>
       </c>
       <c r="C341">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D341" s="29">
-        <v>81.258731139299996</v>
+        <v>85.711264352499995</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
@@ -8763,10 +8766,10 @@
         <v>789</v>
       </c>
       <c r="C342">
-        <v>417</v>
+        <v>370</v>
       </c>
       <c r="D342" s="29">
-        <v>282.00064921009999</v>
+        <v>250.2164033759</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
@@ -8777,10 +8780,10 @@
         <v>791</v>
       </c>
       <c r="C343">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="D343" s="29">
-        <v>66.351067734599994</v>
+        <v>74.350841858600006</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
@@ -8791,10 +8794,10 @@
         <v>793</v>
       </c>
       <c r="C344">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D344" s="29">
-        <v>160.97031407930001</v>
+        <v>164.71380975549999</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
@@ -8805,10 +8808,10 @@
         <v>795</v>
       </c>
       <c r="C345">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D345" s="29">
-        <v>66.698427822799999</v>
+        <v>73.628134609599996</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
@@ -8819,10 +8822,10 @@
         <v>797</v>
       </c>
       <c r="C346">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D346" s="29">
-        <v>82.590195811900003</v>
+        <v>83.635641328600002</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
@@ -8833,10 +8836,10 @@
         <v>799</v>
       </c>
       <c r="C347">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="D347" s="29">
-        <v>87.309461531500006</v>
+        <v>99.576080093800002</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
@@ -8847,10 +8850,10 @@
         <v>801</v>
       </c>
       <c r="C348">
-        <v>512</v>
+        <v>557</v>
       </c>
       <c r="D348" s="29">
-        <v>184.87492056159999</v>
+        <v>201.1236928765</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
@@ -8861,10 +8864,10 @@
         <v>803</v>
       </c>
       <c r="C349">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D349" s="29">
-        <v>208.6374370458</v>
+        <v>210.93015613419999</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
@@ -8875,10 +8878,10 @@
         <v>805</v>
       </c>
       <c r="C350">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D350" s="29">
-        <v>83.503156220500003</v>
+        <v>84.497241413599994</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
@@ -8889,10 +8892,10 @@
         <v>807</v>
       </c>
       <c r="C351">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="D351" s="29">
-        <v>148.82727872149999</v>
+        <v>131.8722722848</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
@@ -8903,10 +8906,10 @@
         <v>809</v>
       </c>
       <c r="C352">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D352" s="29">
-        <v>243.4211473922</v>
+        <v>254.94404194329999</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -8917,10 +8920,10 @@
         <v>811</v>
       </c>
       <c r="C353">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D353" s="29">
-        <v>114.3510577473</v>
+        <v>135.1421591559</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -8931,10 +8934,10 @@
         <v>813</v>
       </c>
       <c r="C354">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="D354" s="29">
-        <v>132.51320187499999</v>
+        <v>189.86966238799999</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
@@ -8945,10 +8948,10 @@
         <v>992</v>
       </c>
       <c r="C355">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D355" s="29">
-        <v>149.48997537810001</v>
+        <v>150.3693281745</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
@@ -8959,10 +8962,10 @@
         <v>815</v>
       </c>
       <c r="C356">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="D356" s="29">
-        <v>49.3858551087</v>
+        <v>67.966671882300005</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
@@ -8973,10 +8976,10 @@
         <v>817</v>
       </c>
       <c r="C357">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D357" s="29">
-        <v>68.4485601465</v>
+        <v>66.927481032100005</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -8987,10 +8990,10 @@
         <v>819</v>
       </c>
       <c r="C358">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D358" s="29">
-        <v>87.804663891100006</v>
+        <v>96.585130280200005</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
@@ -9001,10 +9004,10 @@
         <v>821</v>
       </c>
       <c r="C359">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D359" s="29">
-        <v>52.6665292757</v>
+        <v>64.879057803400002</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
@@ -9015,10 +9018,10 @@
         <v>823</v>
       </c>
       <c r="C360">
-        <v>440</v>
+        <v>358</v>
       </c>
       <c r="D360" s="29">
-        <v>98.166079157599995</v>
+        <v>79.871491678200002</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
@@ -9029,10 +9032,10 @@
         <v>825</v>
       </c>
       <c r="C361">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="D361" s="29">
-        <v>156.48889288609999</v>
+        <v>134.0048565518</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
@@ -9043,10 +9046,10 @@
         <v>827</v>
       </c>
       <c r="C362">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D362" s="29">
-        <v>79.047821884399994</v>
+        <v>85.601009190799999</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -9057,10 +9060,10 @@
         <v>829</v>
       </c>
       <c r="C363">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D363" s="29">
-        <v>119.26931849090001</v>
+        <v>112.9919859388</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
@@ -9071,10 +9074,10 @@
         <v>831</v>
       </c>
       <c r="C364">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="D364" s="29">
-        <v>161.19462025319999</v>
+        <v>134.49367088610001</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
@@ -9085,10 +9088,10 @@
         <v>833</v>
       </c>
       <c r="C365">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D365" s="29">
-        <v>107.0904576269</v>
+        <v>109.13476885919999</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
@@ -9099,10 +9102,10 @@
         <v>835</v>
       </c>
       <c r="C366">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D366" s="29">
-        <v>42.525854814900001</v>
+        <v>44.335465658099999</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -9113,10 +9116,10 @@
         <v>837</v>
       </c>
       <c r="C367">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D367" s="29">
-        <v>89.633136843399996</v>
+        <v>100.17821176619999</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
@@ -9127,10 +9130,10 @@
         <v>839</v>
       </c>
       <c r="C368">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D368" s="29">
-        <v>192.99247057540001</v>
+        <v>214.73810106280001</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
@@ -9141,10 +9144,10 @@
         <v>841</v>
       </c>
       <c r="C369">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="D369" s="29">
-        <v>121.1786090343</v>
+        <v>128.2375571334</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
@@ -9169,10 +9172,10 @@
         <v>845</v>
       </c>
       <c r="C371">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D371" s="29">
-        <v>152.8319018267</v>
+        <v>149.44816968289999</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
@@ -9183,10 +9186,10 @@
         <v>847</v>
       </c>
       <c r="C372">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D372" s="29">
-        <v>40.348612007699998</v>
+        <v>45.7284269421</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
@@ -9197,10 +9200,10 @@
         <v>849</v>
       </c>
       <c r="C373">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D373" s="29">
-        <v>54.886946277699998</v>
+        <v>55.556299281100003</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -9211,10 +9214,10 @@
         <v>851</v>
       </c>
       <c r="C374">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D374" s="29">
-        <v>65.157120492600001</v>
+        <v>70.841969931500003</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -9225,10 +9228,10 @@
         <v>853</v>
       </c>
       <c r="C375">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="D375" s="29">
-        <v>117.2158049529</v>
+        <v>95.903840415999994</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
@@ -9253,10 +9256,10 @@
         <v>857</v>
       </c>
       <c r="C377">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D377" s="29">
-        <v>45.4599573542</v>
+        <v>47.624717228199998</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
@@ -9267,10 +9270,10 @@
         <v>859</v>
       </c>
       <c r="C378">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="D378" s="29">
-        <v>75.715750453499993</v>
+        <v>101.74303967189999</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
@@ -9281,10 +9284,10 @@
         <v>861</v>
       </c>
       <c r="C379">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="D379" s="29">
-        <v>84.327067469300005</v>
+        <v>94.709679379899995</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
@@ -9295,10 +9298,10 @@
         <v>863</v>
       </c>
       <c r="C380">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D380" s="29">
-        <v>100.75123249080001</v>
+        <v>101.7293997965</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
@@ -9309,10 +9312,10 @@
         <v>865</v>
       </c>
       <c r="C381">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="D381" s="29">
-        <v>176.8255344328</v>
+        <v>194.71449900580001</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
@@ -9323,10 +9326,10 @@
         <v>867</v>
       </c>
       <c r="C382">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="D382" s="29">
-        <v>139.3420813086</v>
+        <v>129.5391208145</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
@@ -9337,10 +9340,10 @@
         <v>869</v>
       </c>
       <c r="C383">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D383" s="29">
-        <v>63.442059898099998</v>
+        <v>71.463469770200007</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
@@ -9351,10 +9354,10 @@
         <v>871</v>
       </c>
       <c r="C384">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="D384" s="29">
-        <v>87.665585903899995</v>
+        <v>76.623737297700004</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
@@ -9365,10 +9368,10 @@
         <v>873</v>
       </c>
       <c r="C385">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="D385" s="29">
-        <v>87.085751067299995</v>
+        <v>116.4298628399</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -9379,10 +9382,10 @@
         <v>875</v>
       </c>
       <c r="C386">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="D386" s="29">
-        <v>417.26217604660002</v>
+        <v>419.47459479550002</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -9393,10 +9396,10 @@
         <v>877</v>
       </c>
       <c r="C387">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="D387" s="29">
-        <v>106.9505099248</v>
+        <v>117.1362727747</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
@@ -9407,10 +9410,10 @@
         <v>879</v>
       </c>
       <c r="C388">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D388" s="29">
-        <v>54.294131783399997</v>
+        <v>62.304741390799997</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
@@ -9421,10 +9424,10 @@
         <v>881</v>
       </c>
       <c r="C389">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D389" s="29">
-        <v>95.636975233300006</v>
+        <v>98.9348019655</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -9435,10 +9438,10 @@
         <v>883</v>
       </c>
       <c r="C390">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D390" s="29">
-        <v>99.740419165500001</v>
+        <v>109.9702057466</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -9449,10 +9452,10 @@
         <v>885</v>
       </c>
       <c r="C391">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D391" s="29">
-        <v>108.18523651629999</v>
+        <v>118.12658257459999</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -9463,10 +9466,10 @@
         <v>887</v>
       </c>
       <c r="C392">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D392" s="29">
-        <v>78.102505038900006</v>
+        <v>82.061618197499996</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -9477,10 +9480,10 @@
         <v>889</v>
       </c>
       <c r="C393">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D393" s="29">
-        <v>385.7985778405</v>
+        <v>387.4796173954</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -9491,10 +9494,10 @@
         <v>891</v>
       </c>
       <c r="C394">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D394" s="29">
-        <v>147.39255550620001</v>
+        <v>159.09037737169999</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -9505,10 +9508,10 @@
         <v>893</v>
       </c>
       <c r="C395">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="D395" s="29">
-        <v>90.051521280200006</v>
+        <v>109.9809563176</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -9519,10 +9522,10 @@
         <v>895</v>
       </c>
       <c r="C396">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D396" s="29">
-        <v>68.988777825499994</v>
+        <v>84.319617342200004</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -9533,10 +9536,10 @@
         <v>897</v>
       </c>
       <c r="C397">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D397" s="29">
-        <v>137.54321047760001</v>
+        <v>147.28078290080001</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -9547,10 +9550,10 @@
         <v>899</v>
       </c>
       <c r="C398">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D398" s="29">
-        <v>135.115164566</v>
+        <v>137.22633901239999</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -9561,10 +9564,10 @@
         <v>901</v>
       </c>
       <c r="C399">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D399" s="29">
-        <v>109.3124248477</v>
+        <v>99.374931679699998</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -9575,10 +9578,10 @@
         <v>903</v>
       </c>
       <c r="C400">
-        <v>504</v>
+        <v>547</v>
       </c>
       <c r="D400" s="29">
-        <v>109.5709341357</v>
+        <v>118.91924796080001</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
@@ -9589,10 +9592,10 @@
         <v>905</v>
       </c>
       <c r="C401">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D401" s="29">
-        <v>132.07951864349999</v>
+        <v>116.27513179730001</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
@@ -9603,10 +9606,10 @@
         <v>907</v>
       </c>
       <c r="C402">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D402" s="29">
-        <v>111.4390997702</v>
+        <v>109.95324510659999</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -9617,10 +9620,10 @@
         <v>909</v>
       </c>
       <c r="C403">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D403" s="29">
-        <v>119.3491579074</v>
+        <v>117.4032477241</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -9631,10 +9634,10 @@
         <v>911</v>
       </c>
       <c r="C404">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="D404" s="29">
-        <v>81.156589124999996</v>
+        <v>86.902188355099995</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -9645,10 +9648,10 @@
         <v>913</v>
       </c>
       <c r="C405">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D405" s="29">
-        <v>55.198517525500002</v>
+        <v>60.455519194600001</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -9659,10 +9662,10 @@
         <v>915</v>
       </c>
       <c r="C406">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D406" s="29">
-        <v>150.45657167089999</v>
+        <v>149.6562707578</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -9673,10 +9676,10 @@
         <v>917</v>
       </c>
       <c r="C407">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D407" s="29">
-        <v>43.916663738899999</v>
+        <v>64.9966623336</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -9687,10 +9690,10 @@
         <v>919</v>
       </c>
       <c r="C408">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D408" s="29">
-        <v>67.713296885199995</v>
+        <v>72.729096654499997</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -9701,10 +9704,10 @@
         <v>921</v>
       </c>
       <c r="C409">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D409" s="29">
-        <v>73.168182293300006</v>
+        <v>73.972228252600004</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -9715,10 +9718,10 @@
         <v>923</v>
       </c>
       <c r="C410">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="D410" s="29">
-        <v>116.1092624069</v>
+        <v>150.82234085850001</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -9729,10 +9732,10 @@
         <v>925</v>
       </c>
       <c r="C411">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D411" s="29">
-        <v>213.3370036474</v>
+        <v>198.19695822720001</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -9743,10 +9746,10 @@
         <v>927</v>
       </c>
       <c r="C412">
-        <v>513</v>
+        <v>578</v>
       </c>
       <c r="D412" s="29">
-        <v>144.46634750769999</v>
+        <v>162.7710504083</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -9757,10 +9760,10 @@
         <v>929</v>
       </c>
       <c r="C413">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D413" s="29">
-        <v>67.222161427000003</v>
+        <v>68.785467506700002</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
@@ -9771,10 +9774,10 @@
         <v>931</v>
       </c>
       <c r="C414">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D414" s="29">
-        <v>51.139234266999999</v>
+        <v>56.684452440500003</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -9785,10 +9788,10 @@
         <v>933</v>
       </c>
       <c r="C415">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D415" s="29">
-        <v>101.9206497573</v>
+        <v>108.2576849754</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -9813,10 +9816,10 @@
         <v>937</v>
       </c>
       <c r="C417">
-        <v>808</v>
+        <v>840</v>
       </c>
       <c r="D417" s="29">
-        <v>256.5063078965</v>
+        <v>266.66497355569999</v>
       </c>
     </row>
   </sheetData>
@@ -9833,7 +9836,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H403" sqref="H403"/>
+      <selection pane="bottomLeft" activeCell="H402" sqref="H402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9847,7 +9850,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -19013,7 +19016,7 @@
         <v>2052028</v>
       </c>
       <c r="D333" s="3">
-        <f t="shared" ref="D333:D398" si="175">B333-B332</f>
+        <f t="shared" ref="D333:D399" si="175">B333-B332</f>
         <v>11369</v>
       </c>
       <c r="E333" s="3">
@@ -20915,7 +20918,7 @@
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="26" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B398" s="32">
         <v>2713180</v>
@@ -20931,21 +20934,47 @@
         <v>75440</v>
       </c>
       <c r="F398" s="3">
-        <f t="shared" ref="F398" si="285">E398-E397</f>
+        <f t="shared" ref="F398:F399" si="285">E398-E397</f>
         <v>228</v>
       </c>
       <c r="G398" s="4">
-        <f t="shared" ref="G398" si="286">E398/B398</f>
+        <f t="shared" ref="G398:G399" si="286">E398/B398</f>
         <v>2.7805011093993026E-2</v>
       </c>
       <c r="H398" s="3">
-        <f t="shared" ref="H398" si="287">B398-E398</f>
+        <f t="shared" ref="H398:H399" si="287">B398-E398</f>
         <v>2637740</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A399" s="26"/>
-      <c r="G399" s="4"/>
+      <c r="A399" s="26" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B399" s="32">
+        <v>2734753</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D399" s="3">
+        <f t="shared" si="175"/>
+        <v>21573</v>
+      </c>
+      <c r="E399" s="3">
+        <v>75623</v>
+      </c>
+      <c r="F399" s="3">
+        <f t="shared" si="285"/>
+        <v>183</v>
+      </c>
+      <c r="G399" s="4">
+        <f t="shared" si="286"/>
+        <v>2.7652588734704744E-2</v>
+      </c>
+      <c r="H399" s="3">
+        <f t="shared" si="287"/>
+        <v>2659130</v>
+      </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="26"/>
@@ -21403,7 +21432,7 @@
   <dimension ref="A2:LS20"/>
   <sheetViews>
     <sheetView topLeftCell="KV1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="LM4" sqref="LM4:LM20"/>
+      <selection activeCell="LN4" sqref="LN4:LN20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21414,7 +21443,7 @@
   <sheetData>
     <row r="2" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="3" spans="1:331" x14ac:dyDescent="0.25">
@@ -23385,6 +23414,9 @@
       <c r="LM4" s="3">
         <v>12050</v>
       </c>
+      <c r="LN4" s="3">
+        <v>12793</v>
+      </c>
     </row>
     <row r="5" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -24362,6 +24394,9 @@
       <c r="LM5" s="3">
         <v>15027</v>
       </c>
+      <c r="LN5" s="3">
+        <v>16021</v>
+      </c>
     </row>
     <row r="6" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -25339,6 +25374,9 @@
       <c r="LM6" s="3">
         <v>4085</v>
       </c>
+      <c r="LN6" s="3">
+        <v>4323</v>
+      </c>
     </row>
     <row r="7" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -26316,6 +26354,9 @@
       <c r="LM7" s="3">
         <v>3239</v>
       </c>
+      <c r="LN7" s="3">
+        <v>3273</v>
+      </c>
     </row>
     <row r="8" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -27293,6 +27334,9 @@
       <c r="LM8" s="3">
         <v>762</v>
       </c>
+      <c r="LN8" s="3">
+        <v>794</v>
+      </c>
     </row>
     <row r="9" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -28270,6 +28314,9 @@
       <c r="LM9" s="3">
         <v>1818</v>
       </c>
+      <c r="LN9" s="3">
+        <v>2002</v>
+      </c>
     </row>
     <row r="10" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -29247,6 +29294,9 @@
       <c r="LM10" s="3">
         <v>7770</v>
       </c>
+      <c r="LN10" s="3">
+        <v>8155</v>
+      </c>
     </row>
     <row r="11" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -30224,6 +30274,9 @@
       <c r="LM11" s="3">
         <v>1358</v>
       </c>
+      <c r="LN11" s="3">
+        <v>1533</v>
+      </c>
     </row>
     <row r="12" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -31201,6 +31254,9 @@
       <c r="LM12" s="3">
         <v>7499</v>
       </c>
+      <c r="LN12" s="3">
+        <v>7840</v>
+      </c>
     </row>
     <row r="13" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -32178,6 +32234,9 @@
       <c r="LM13" s="3">
         <v>20345</v>
       </c>
+      <c r="LN13" s="3">
+        <v>21515</v>
+      </c>
     </row>
     <row r="14" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -33155,6 +33214,9 @@
       <c r="LM14" s="3">
         <v>3447</v>
       </c>
+      <c r="LN14" s="3">
+        <v>3836</v>
+      </c>
     </row>
     <row r="15" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -34132,6 +34194,9 @@
       <c r="LM15" s="3">
         <v>652</v>
       </c>
+      <c r="LN15" s="3">
+        <v>603</v>
+      </c>
     </row>
     <row r="16" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -35109,8 +35174,11 @@
       <c r="LM16" s="3">
         <v>6813</v>
       </c>
-    </row>
-    <row r="17" spans="1:325" x14ac:dyDescent="0.25">
+      <c r="LN16" s="3">
+        <v>6887</v>
+      </c>
+    </row>
+    <row r="17" spans="1:326" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -36086,8 +36154,11 @@
       <c r="LM17" s="3">
         <v>2955</v>
       </c>
-    </row>
-    <row r="18" spans="1:325" x14ac:dyDescent="0.25">
+      <c r="LN17" s="3">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="18" spans="1:326" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -37063,8 +37134,11 @@
       <c r="LM18" s="3">
         <v>1736</v>
       </c>
-    </row>
-    <row r="19" spans="1:325" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="LN18" s="3">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="19" spans="1:326" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -38040,8 +38114,11 @@
       <c r="LM19" s="3">
         <v>4696</v>
       </c>
-    </row>
-    <row r="20" spans="1:325" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="LN19" s="3">
+        <v>4725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:326" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
@@ -39016,6 +39093,9 @@
       </c>
       <c r="LM20" s="12">
         <v>94252</v>
+      </c>
+      <c r="LN20" s="12">
+        <v>99072</v>
       </c>
     </row>
   </sheetData>
@@ -39031,7 +39111,7 @@
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="KW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="LK29" sqref="LK29"/>
+      <selection pane="topRight" activeCell="LO30" sqref="LO30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39100,7 +39180,7 @@
   <sheetData>
     <row r="2" spans="1:332" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="3" spans="1:332" x14ac:dyDescent="0.25">
@@ -41074,7 +41154,9 @@
       <c r="LN4" s="16">
         <v>108.55470535550359</v>
       </c>
-      <c r="LO4" s="16"/>
+      <c r="LO4" s="16">
+        <v>115.24816146165622</v>
+      </c>
       <c r="LP4" s="16"/>
       <c r="LQ4" s="16"/>
       <c r="LR4" s="16"/>
@@ -42060,7 +42142,9 @@
       <c r="LN5" s="16">
         <v>114.49372280755036</v>
       </c>
-      <c r="LO5" s="16"/>
+      <c r="LO5" s="16">
+        <v>122.06720789909923</v>
+      </c>
       <c r="LP5" s="16"/>
       <c r="LQ5" s="16"/>
       <c r="LR5" s="16"/>
@@ -43046,7 +43130,9 @@
       <c r="LN6" s="16">
         <v>111.32334157516669</v>
       </c>
-      <c r="LO6" s="16"/>
+      <c r="LO6" s="16">
+        <v>117.80925474405032</v>
+      </c>
       <c r="LP6" s="16"/>
       <c r="LQ6" s="16"/>
       <c r="LR6" s="16"/>
@@ -44032,7 +44118,9 @@
       <c r="LN7" s="16">
         <v>128.43526668260708</v>
       </c>
-      <c r="LO7" s="16"/>
+      <c r="LO7" s="16">
+        <v>129.78346028162179</v>
+      </c>
       <c r="LP7" s="16"/>
       <c r="LQ7" s="16"/>
       <c r="LR7" s="16"/>
@@ -45018,7 +45106,9 @@
       <c r="LN8" s="16">
         <v>111.86109259808397</v>
       </c>
-      <c r="LO8" s="16"/>
+      <c r="LO8" s="16">
+        <v>116.55867128986704</v>
+      </c>
       <c r="LP8" s="16"/>
       <c r="LQ8" s="16"/>
       <c r="LR8" s="16"/>
@@ -46004,7 +46094,9 @@
       <c r="LN9" s="16">
         <v>98.416405332675055</v>
       </c>
-      <c r="LO9" s="16"/>
+      <c r="LO9" s="16">
+        <v>108.37714162597111</v>
+      </c>
       <c r="LP9" s="16"/>
       <c r="LQ9" s="16"/>
       <c r="LR9" s="16"/>
@@ -46990,7 +47082,9 @@
       <c r="LN10" s="16">
         <v>123.56713018918335</v>
       </c>
-      <c r="LO10" s="16"/>
+      <c r="LO10" s="16">
+        <v>129.68982582918792</v>
+      </c>
       <c r="LP10" s="16"/>
       <c r="LQ10" s="16"/>
       <c r="LR10" s="16"/>
@@ -47976,7 +48070,9 @@
       <c r="LN11" s="16">
         <v>84.445489130907916</v>
       </c>
-      <c r="LO11" s="16"/>
+      <c r="LO11" s="16">
+        <v>95.327639792107391</v>
+      </c>
       <c r="LP11" s="16"/>
       <c r="LQ11" s="16"/>
       <c r="LR11" s="16"/>
@@ -48962,7 +49058,9 @@
       <c r="LN12" s="16">
         <v>93.812456152465813</v>
       </c>
-      <c r="LO12" s="16"/>
+      <c r="LO12" s="16">
+        <v>98.078364613326045</v>
+      </c>
       <c r="LP12" s="16"/>
       <c r="LQ12" s="16"/>
       <c r="LR12" s="16"/>
@@ -49948,7 +50046,9 @@
       <c r="LN13" s="16">
         <v>113.36016868572578</v>
       </c>
-      <c r="LO13" s="16"/>
+      <c r="LO13" s="16">
+        <v>119.87928381781224</v>
+      </c>
       <c r="LP13" s="16"/>
       <c r="LQ13" s="16"/>
       <c r="LR13" s="16"/>
@@ -50934,7 +51034,9 @@
       <c r="LN14" s="16">
         <v>84.198379883451068</v>
       </c>
-      <c r="LO14" s="16"/>
+      <c r="LO14" s="16">
+        <v>93.700314834034913</v>
+      </c>
       <c r="LP14" s="16"/>
       <c r="LQ14" s="16"/>
       <c r="LR14" s="16"/>
@@ -51920,7 +52022,9 @@
       <c r="LN15" s="16">
         <v>66.066327755862631</v>
       </c>
-      <c r="LO15" s="16"/>
+      <c r="LO15" s="16">
+        <v>61.101220301817733</v>
+      </c>
       <c r="LP15" s="16"/>
       <c r="LQ15" s="16"/>
       <c r="LR15" s="16"/>
@@ -52906,7 +53010,9 @@
       <c r="LN16" s="16">
         <v>167.31455111050644</v>
       </c>
-      <c r="LO16" s="16"/>
+      <c r="LO16" s="16">
+        <v>169.13185285455128</v>
+      </c>
       <c r="LP16" s="16"/>
       <c r="LQ16" s="16"/>
       <c r="LR16" s="16"/>
@@ -53892,7 +53998,9 @@
       <c r="LN17" s="16">
         <v>134.63751753021484</v>
       </c>
-      <c r="LO17" s="16"/>
+      <c r="LO17" s="16">
+        <v>134.81976797695626</v>
+      </c>
       <c r="LP17" s="16"/>
       <c r="LQ17" s="16"/>
       <c r="LR17" s="16"/>
@@ -54878,7 +54986,9 @@
       <c r="LN18" s="16">
         <v>59.78428754589288</v>
       </c>
-      <c r="LO18" s="16"/>
+      <c r="LO18" s="16">
+        <v>62.436009977363938</v>
+      </c>
       <c r="LP18" s="16"/>
       <c r="LQ18" s="16"/>
       <c r="LR18" s="16"/>
@@ -55864,7 +55974,9 @@
       <c r="LN19" s="16">
         <v>220.12039122930861</v>
       </c>
-      <c r="LO19" s="16"/>
+      <c r="LO19" s="16">
+        <v>221.47973776799049</v>
+      </c>
       <c r="LP19" s="16"/>
       <c r="LQ19" s="16"/>
       <c r="LR19" s="16"/>
@@ -56850,7 +56962,9 @@
       <c r="LN20" s="17">
         <v>113.32899770438198</v>
       </c>
-      <c r="LO20" s="17"/>
+      <c r="LO20" s="17">
+        <v>119.12458579731498</v>
+      </c>
       <c r="LP20" s="17"/>
       <c r="LQ20" s="17"/>
       <c r="LR20" s="17"/>
